--- a/results/es_results.xlsx
+++ b/results/es_results.xlsx
@@ -411,22 +411,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.01015895311330451</v>
+        <v>-0.01015895311330453</v>
       </c>
       <c r="C2">
-        <v>0.006304858718634912</v>
+        <v>0.006304858718634915</v>
       </c>
       <c r="D2">
-        <v>-1.611289573115773</v>
+        <v>-1.611289573115775</v>
       </c>
       <c r="E2">
-        <v>0.1166415131813996</v>
+        <v>0.1166415131813992</v>
       </c>
       <c r="F2">
-        <v>-0.02298628462462407</v>
+        <v>-0.02298628462462409</v>
       </c>
       <c r="G2">
-        <v>0.002668378398015052</v>
+        <v>0.002668378398015042</v>
       </c>
       <c r="H2">
         <v>-5</v>
@@ -444,22 +444,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.01277221062067004</v>
+        <v>-0.01277221062067005</v>
       </c>
       <c r="C3">
-        <v>0.005015918527134039</v>
+        <v>0.005015918527134026</v>
       </c>
       <c r="D3">
-        <v>-2.546335342485664</v>
+        <v>-2.546335342485673</v>
       </c>
       <c r="E3">
-        <v>0.01573728734198841</v>
+        <v>0.01573728734198807</v>
       </c>
       <c r="F3">
-        <v>-0.0229771735948838</v>
+        <v>-0.02297717359488378</v>
       </c>
       <c r="G3">
-        <v>-0.002567247646456283</v>
+        <v>-0.002567247646456321</v>
       </c>
       <c r="H3">
         <v>-4</v>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.005871362239813209</v>
+        <v>-0.005871362239813158</v>
       </c>
       <c r="C4">
-        <v>0.006868764264721175</v>
+        <v>0.006868764264721167</v>
       </c>
       <c r="D4">
-        <v>-0.8547916355157584</v>
+        <v>-0.854791635515752</v>
       </c>
       <c r="E4">
-        <v>0.398829891264655</v>
+        <v>0.3988298912646585</v>
       </c>
       <c r="F4">
-        <v>-0.0198459682109618</v>
+        <v>-0.01984596821096173</v>
       </c>
       <c r="G4">
-        <v>0.008103243731335377</v>
+        <v>0.008103243731335412</v>
       </c>
       <c r="H4">
         <v>-3</v>
@@ -510,22 +510,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.01438905315643881</v>
+        <v>-0.01438905315643876</v>
       </c>
       <c r="C5">
-        <v>0.005023780749046083</v>
+        <v>0.005023780749046084</v>
       </c>
       <c r="D5">
-        <v>-2.864188123490662</v>
+        <v>-2.864188123490651</v>
       </c>
       <c r="E5">
-        <v>0.007215713632740513</v>
+        <v>0.007215713632740713</v>
       </c>
       <c r="F5">
-        <v>-0.02461001194140457</v>
+        <v>-0.02461001194140451</v>
       </c>
       <c r="G5">
-        <v>-0.004168094371473061</v>
+        <v>-0.004168094371473006</v>
       </c>
       <c r="H5">
         <v>-2</v>
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.01117610064006526</v>
+        <v>-0.01117610064006521</v>
       </c>
       <c r="C6">
-        <v>0.00827238678475678</v>
+        <v>0.008272386784756777</v>
       </c>
       <c r="D6">
-        <v>-1.35101282506024</v>
+        <v>-1.351012825060235</v>
       </c>
       <c r="E6">
-        <v>0.1943997332938706</v>
+        <v>0.1943997332938721</v>
       </c>
       <c r="F6">
-        <v>-0.02862931114440757</v>
+        <v>-0.02862931114440752</v>
       </c>
       <c r="G6">
-        <v>0.006277109864277061</v>
+        <v>0.006277109864277104</v>
       </c>
       <c r="H6">
         <v>-5</v>
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.00764177438300425</v>
+        <v>-0.007641774383004197</v>
       </c>
       <c r="C7">
         <v>0.01022330097910413</v>
       </c>
       <c r="D7">
-        <v>-0.74748600267405</v>
+        <v>-0.7474860026740451</v>
       </c>
       <c r="E7">
-        <v>0.4649849309873511</v>
+        <v>0.4649849309873539</v>
       </c>
       <c r="F7">
-        <v>-0.02921105404559675</v>
+        <v>-0.02921105404559669</v>
       </c>
       <c r="G7">
-        <v>0.01392750527958825</v>
+        <v>0.01392750527958829</v>
       </c>
       <c r="H7">
         <v>-4</v>
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.007100733765830836</v>
+        <v>0.007100733765830809</v>
       </c>
       <c r="C8">
-        <v>0.01429267399071385</v>
+        <v>0.01429267399071384</v>
       </c>
       <c r="D8">
-        <v>0.4968093283625081</v>
+        <v>0.4968093283625064</v>
       </c>
       <c r="E8">
-        <v>0.6256868061942138</v>
+        <v>0.6256868061942149</v>
       </c>
       <c r="F8">
-        <v>-0.02305417246867032</v>
+        <v>-0.02305417246867033</v>
       </c>
       <c r="G8">
-        <v>0.03725564000033199</v>
+        <v>0.03725564000033195</v>
       </c>
       <c r="H8">
         <v>-3</v>
@@ -642,22 +642,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.0004539159086901887</v>
+        <v>-0.000453915908690249</v>
       </c>
       <c r="C9">
-        <v>0.007349405869907262</v>
+        <v>0.007349405869907257</v>
       </c>
       <c r="D9">
-        <v>-0.06176225898052306</v>
+        <v>-0.0617622589805313</v>
       </c>
       <c r="E9">
-        <v>0.9514724946027626</v>
+        <v>0.9514724946027562</v>
       </c>
       <c r="F9">
-        <v>-0.01595980690084015</v>
+        <v>-0.0159598069008402</v>
       </c>
       <c r="G9">
-        <v>0.01505197508345977</v>
+        <v>0.0150519750834597</v>
       </c>
       <c r="H9">
         <v>-2</v>
@@ -681,10 +681,10 @@
         <v>0.01095035407412683</v>
       </c>
       <c r="D10">
-        <v>-0.9505505815196332</v>
+        <v>-0.9505505815196328</v>
       </c>
       <c r="E10">
-        <v>0.3642404186996728</v>
+        <v>0.3642404186996729</v>
       </c>
       <c r="F10">
         <v>-0.03480777478857531</v>
@@ -708,22 +708,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.001827662666351408</v>
+        <v>0.001827662666351429</v>
       </c>
       <c r="C11">
-        <v>0.008336109649421176</v>
+        <v>0.00833610964942119</v>
       </c>
       <c r="D11">
-        <v>0.2192464762598598</v>
+        <v>0.219246476259862</v>
       </c>
       <c r="E11">
-        <v>0.8308683679162635</v>
+        <v>0.8308683679162621</v>
       </c>
       <c r="F11">
-        <v>-0.01674634711794159</v>
+        <v>-0.0167463471179416</v>
       </c>
       <c r="G11">
-        <v>0.02040167245064441</v>
+        <v>0.02040167245064446</v>
       </c>
       <c r="H11">
         <v>-4</v>
@@ -741,22 +741,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.0127655880957395</v>
+        <v>-0.01276558809573953</v>
       </c>
       <c r="C12">
         <v>0.008318809501701828</v>
       </c>
       <c r="D12">
-        <v>-1.534545068393256</v>
+        <v>-1.53454506839326</v>
       </c>
       <c r="E12">
-        <v>0.1559048138737152</v>
+        <v>0.1559048138737145</v>
       </c>
       <c r="F12">
-        <v>-0.03130105074875392</v>
+        <v>-0.03130105074875394</v>
       </c>
       <c r="G12">
-        <v>0.005769874557274915</v>
+        <v>0.005769874557274887</v>
       </c>
       <c r="H12">
         <v>-3</v>
@@ -774,22 +774,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>8.117323235938209e-05</v>
+        <v>8.117323235938383e-05</v>
       </c>
       <c r="C13">
-        <v>0.002798322667129948</v>
+        <v>0.00279832266712994</v>
       </c>
       <c r="D13">
-        <v>0.02900781718737105</v>
+        <v>0.02900781718737175</v>
       </c>
       <c r="E13">
-        <v>0.9774291121606211</v>
+        <v>0.9774291121606207</v>
       </c>
       <c r="F13">
-        <v>-0.006153878222666708</v>
+        <v>-0.006153878222666689</v>
       </c>
       <c r="G13">
-        <v>0.006316224687385472</v>
+        <v>0.006316224687385456</v>
       </c>
       <c r="H13">
         <v>-2</v>
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.005643449459958814</v>
+        <v>0.005643449459958827</v>
       </c>
       <c r="C14">
-        <v>0.003334733592222312</v>
+        <v>0.003334733592222315</v>
       </c>
       <c r="D14">
-        <v>1.69232393049963</v>
+        <v>1.692323930499633</v>
       </c>
       <c r="E14">
-        <v>0.1099630931574361</v>
+        <v>0.1099630931574356</v>
       </c>
       <c r="F14">
-        <v>-0.001425869953684394</v>
+        <v>-0.001425869953684387</v>
       </c>
       <c r="G14">
-        <v>0.01271276887360202</v>
+        <v>0.01271276887360204</v>
       </c>
       <c r="H14">
         <v>-5</v>
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.001776121060389633</v>
+        <v>-0.001776121060389631</v>
       </c>
       <c r="C15">
-        <v>0.002208688804455674</v>
+        <v>0.002208688804455671</v>
       </c>
       <c r="D15">
-        <v>-0.8041517921431912</v>
+        <v>-0.8041517921431917</v>
       </c>
       <c r="E15">
-        <v>0.4330956126515615</v>
+        <v>0.4330956126515614</v>
       </c>
       <c r="F15">
-        <v>-0.006458332161285873</v>
+        <v>-0.006458332161285865</v>
       </c>
       <c r="G15">
-        <v>0.002906090040506608</v>
+        <v>0.002906090040506602</v>
       </c>
       <c r="H15">
         <v>-4</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>-0.006449294305967583</v>
+        <v>-0.006449294305967582</v>
       </c>
       <c r="C16">
-        <v>0.00411459242063628</v>
+        <v>0.004114592420636282</v>
       </c>
       <c r="D16">
-        <v>-1.567419964519904</v>
+        <v>-1.567419964519903</v>
       </c>
       <c r="E16">
-        <v>0.1365789155911365</v>
+        <v>0.1365789155911367</v>
       </c>
       <c r="F16">
         <v>-0.01517184058261004</v>
       </c>
       <c r="G16">
-        <v>0.002273251970674875</v>
+        <v>0.002273251970674879</v>
       </c>
       <c r="H16">
         <v>-3</v>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>-0.003586517389527021</v>
+        <v>-0.003586517389527026</v>
       </c>
       <c r="C17">
-        <v>0.002778818795240254</v>
+        <v>0.002778818795240257</v>
       </c>
       <c r="D17">
         <v>-1.290662563413724</v>
@@ -918,10 +918,10 @@
         <v>0.2151601395587537</v>
       </c>
       <c r="F17">
-        <v>-0.009477350079132457</v>
+        <v>-0.00947735007913247</v>
       </c>
       <c r="G17">
-        <v>0.002304315300078414</v>
+        <v>0.002304315300078417</v>
       </c>
       <c r="H17">
         <v>-2</v>
@@ -942,19 +942,19 @@
         <v>-0.0145915230219299</v>
       </c>
       <c r="C18">
-        <v>0.009246880836663173</v>
+        <v>0.0092468808366632</v>
       </c>
       <c r="D18">
-        <v>-1.577994058718225</v>
+        <v>-1.57799405871822</v>
       </c>
       <c r="E18">
-        <v>0.140550956296256</v>
+        <v>0.1405509562962572</v>
       </c>
       <c r="F18">
-        <v>-0.03473874562325566</v>
+        <v>-0.03473874562325571</v>
       </c>
       <c r="G18">
-        <v>0.00555569957939586</v>
+        <v>0.005555699579395919</v>
       </c>
       <c r="H18">
         <v>-5</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.01126064417946693</v>
+        <v>0.01126064417946698</v>
       </c>
       <c r="C19">
-        <v>0.007974052451591251</v>
+        <v>0.007974052451591255</v>
       </c>
       <c r="D19">
-        <v>1.412160786228566</v>
+        <v>1.412160786228573</v>
       </c>
       <c r="E19">
-        <v>0.1833065228209579</v>
+        <v>0.1833065228209559</v>
       </c>
       <c r="F19">
-        <v>-0.006113323606499509</v>
+        <v>-0.006113323606499459</v>
       </c>
       <c r="G19">
-        <v>0.02863461196543336</v>
+        <v>0.02863461196543342</v>
       </c>
       <c r="H19">
         <v>-4</v>
@@ -1005,22 +1005,22 @@
         </is>
       </c>
       <c r="B20">
-        <v>-0.006315719837495497</v>
+        <v>-0.006315719837495285</v>
       </c>
       <c r="C20">
-        <v>0.008784001314185082</v>
+        <v>0.008784001314185077</v>
       </c>
       <c r="D20">
-        <v>-0.7190026061695125</v>
+        <v>-0.7190026061694889</v>
       </c>
       <c r="E20">
-        <v>0.4859054698408312</v>
+        <v>0.4859054698408452</v>
       </c>
       <c r="F20">
-        <v>-0.02545441459665575</v>
+        <v>-0.02545441459665553</v>
       </c>
       <c r="G20">
-        <v>0.01282297492166476</v>
+        <v>0.01282297492166495</v>
       </c>
       <c r="H20">
         <v>-3</v>
@@ -1038,22 +1038,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.006045200314046551</v>
+        <v>0.006045200314046542</v>
       </c>
       <c r="C21">
-        <v>0.01737491386308318</v>
+        <v>0.01737491386308316</v>
       </c>
       <c r="D21">
-        <v>0.3479269227855517</v>
+        <v>0.3479269227855514</v>
       </c>
       <c r="E21">
-        <v>0.7339220341362158</v>
+        <v>0.733922034136216</v>
       </c>
       <c r="F21">
-        <v>-0.03181148492520205</v>
+        <v>-0.03181148492520204</v>
       </c>
       <c r="G21">
-        <v>0.04390188555329516</v>
+        <v>0.04390188555329512</v>
       </c>
       <c r="H21">
         <v>-2</v>
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>-0.0006789962769752161</v>
+        <v>-0.000678996276975213</v>
       </c>
       <c r="C22">
-        <v>0.007865333057874142</v>
+        <v>0.007865333057874152</v>
       </c>
       <c r="D22">
-        <v>-0.08632772089612395</v>
+        <v>-0.08632772089612345</v>
       </c>
       <c r="E22">
-        <v>0.93262962506498</v>
+        <v>0.9326296250649804</v>
       </c>
       <c r="F22">
-        <v>-0.01781608485307717</v>
+        <v>-0.01781608485307719</v>
       </c>
       <c r="G22">
-        <v>0.01645809229912674</v>
+        <v>0.01645809229912677</v>
       </c>
       <c r="H22">
         <v>-5</v>
@@ -1104,22 +1104,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>-0.007693710103176018</v>
+        <v>-0.007693710103175998</v>
       </c>
       <c r="C23">
-        <v>0.007647968804934947</v>
+        <v>0.007647968804934926</v>
       </c>
       <c r="D23">
         <v>-1.005980842679635</v>
       </c>
       <c r="E23">
-        <v>0.3342794960778606</v>
+        <v>0.3342794960778607</v>
       </c>
       <c r="F23">
-        <v>-0.02435720265626302</v>
+        <v>-0.02435720265626296</v>
       </c>
       <c r="G23">
-        <v>0.008969782449910986</v>
+        <v>0.008969782449910958</v>
       </c>
       <c r="H23">
         <v>-4</v>
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.00750131101071495</v>
+        <v>-0.007501311010714953</v>
       </c>
       <c r="C24">
-        <v>0.005475999350921307</v>
+        <v>0.005475999350921326</v>
       </c>
       <c r="D24">
-        <v>-1.369852428754013</v>
+        <v>-1.369852428754009</v>
       </c>
       <c r="E24">
-        <v>0.1958196161514275</v>
+        <v>0.1958196161514288</v>
       </c>
       <c r="F24">
-        <v>-0.01943248865175171</v>
+        <v>-0.01943248865175175</v>
       </c>
       <c r="G24">
-        <v>0.00442986663032181</v>
+        <v>0.004429866630321848</v>
       </c>
       <c r="H24">
         <v>-3</v>
@@ -1170,22 +1170,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.006929292527980232</v>
+        <v>-0.006929292527980254</v>
       </c>
       <c r="C25">
-        <v>0.007850730281482424</v>
+        <v>0.007850730281482421</v>
       </c>
       <c r="D25">
-        <v>-0.8826303133002041</v>
+        <v>-0.8826303133002074</v>
       </c>
       <c r="E25">
-        <v>0.3947735851691703</v>
+        <v>0.3947735851691686</v>
       </c>
       <c r="F25">
-        <v>-0.02403456438753115</v>
+        <v>-0.02403456438753116</v>
       </c>
       <c r="G25">
-        <v>0.01017597933157069</v>
+        <v>0.01017597933157066</v>
       </c>
       <c r="H25">
         <v>-2</v>
@@ -1335,22 +1335,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>-0.006742281569720444</v>
+        <v>-0.006742281569720394</v>
       </c>
       <c r="C30">
-        <v>0.00306926966325342</v>
+        <v>0.003069269663253424</v>
       </c>
       <c r="D30">
-        <v>-2.196705506343043</v>
+        <v>-2.196705506343023</v>
       </c>
       <c r="E30">
-        <v>0.05563867080530067</v>
+        <v>0.05563867080530243</v>
       </c>
       <c r="F30">
-        <v>-0.0136854519230084</v>
+        <v>-0.01368545192300836</v>
       </c>
       <c r="G30">
-        <v>0.0002008887835675136</v>
+        <v>0.0002008887835675734</v>
       </c>
       <c r="H30">
         <v>-5</v>
@@ -1368,22 +1368,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.009108890351000837</v>
+        <v>-0.009108890351000766</v>
       </c>
       <c r="C31">
-        <v>0.003999133790431561</v>
+        <v>0.003999133790431555</v>
       </c>
       <c r="D31">
-        <v>-2.277715832562297</v>
+        <v>-2.277715832562282</v>
       </c>
       <c r="E31">
-        <v>0.0487442208329729</v>
+        <v>0.04874422083297407</v>
       </c>
       <c r="F31">
-        <v>-0.01815555950001393</v>
+        <v>-0.01815555950001384</v>
       </c>
       <c r="G31">
-        <v>-6.222120198774717e-05</v>
+        <v>-6.222120198768818e-05</v>
       </c>
       <c r="H31">
         <v>-4</v>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>-0.00466882896571089</v>
+        <v>-0.004668828965710838</v>
       </c>
       <c r="C32">
-        <v>0.003262951387221776</v>
+        <v>0.00326295138722177</v>
       </c>
       <c r="D32">
-        <v>-1.43086071830391</v>
+        <v>-1.430860718303897</v>
       </c>
       <c r="E32">
-        <v>0.1862607179480683</v>
+        <v>0.186260717948072</v>
       </c>
       <c r="F32">
-        <v>-0.01205013781817697</v>
+        <v>-0.0120501378181769</v>
       </c>
       <c r="G32">
-        <v>0.00271247988675519</v>
+        <v>0.002712479886755228</v>
       </c>
       <c r="H32">
         <v>-3</v>
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.006084875376528742</v>
+        <v>-0.006084875376528719</v>
       </c>
       <c r="C33">
-        <v>0.002526651008394624</v>
+        <v>0.002526651008394632</v>
       </c>
       <c r="D33">
-        <v>-2.408276946959498</v>
+        <v>-2.408276946959481</v>
       </c>
       <c r="E33">
-        <v>0.03936007303749989</v>
+        <v>0.03936007303750099</v>
       </c>
       <c r="F33">
-        <v>-0.01180055705305995</v>
+        <v>-0.01180055705305994</v>
       </c>
       <c r="G33">
-        <v>-0.0003691936999975359</v>
+        <v>-0.0003691936999974943</v>
       </c>
       <c r="H33">
         <v>-2</v>
@@ -1467,22 +1467,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>-0.0145917405270111</v>
+        <v>-0.01459174052701108</v>
       </c>
       <c r="C34">
-        <v>0.01106285419163999</v>
+        <v>0.01106285419164003</v>
       </c>
       <c r="D34">
-        <v>-1.318985161897716</v>
+        <v>-1.31898516189771</v>
       </c>
       <c r="E34">
-        <v>0.2099364147276941</v>
+        <v>0.2099364147276961</v>
       </c>
       <c r="F34">
-        <v>-0.03849158397364815</v>
+        <v>-0.03849158397364821</v>
       </c>
       <c r="G34">
-        <v>0.009308102919625949</v>
+        <v>0.009308102919626048</v>
       </c>
       <c r="H34">
         <v>-5</v>
@@ -1500,19 +1500,19 @@
         </is>
       </c>
       <c r="B35">
-        <v>-0.01610846495959988</v>
+        <v>-0.01610846495959986</v>
       </c>
       <c r="C35">
         <v>0.02145433931566946</v>
       </c>
       <c r="D35">
-        <v>-0.7508254960727151</v>
+        <v>-0.7508254960727145</v>
       </c>
       <c r="E35">
-        <v>0.4661319198263879</v>
+        <v>0.4661319198263882</v>
       </c>
       <c r="F35">
-        <v>-0.06245774716228956</v>
+        <v>-0.06245774716228954</v>
       </c>
       <c r="G35">
         <v>0.03024081724308981</v>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.03806248314371155</v>
+        <v>0.03806248314371156</v>
       </c>
       <c r="C36">
-        <v>0.01637775497371288</v>
+        <v>0.01637775497371289</v>
       </c>
       <c r="D36">
         <v>2.324035449596343</v>
@@ -1545,10 +1545,10 @@
         <v>0.03697078171092832</v>
       </c>
       <c r="F36">
-        <v>0.002680494635274658</v>
+        <v>0.002680494635274651</v>
       </c>
       <c r="G36">
-        <v>0.07344447165214844</v>
+        <v>0.07344447165214849</v>
       </c>
       <c r="H36">
         <v>-3</v>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>-0.009491440073797142</v>
+        <v>-0.009491440073797448</v>
       </c>
       <c r="C37">
-        <v>0.01443427890859523</v>
+        <v>0.01443427890859524</v>
       </c>
       <c r="D37">
-        <v>-0.6575624687524391</v>
+        <v>-0.6575624687524596</v>
       </c>
       <c r="E37">
-        <v>0.5222924988449729</v>
+        <v>0.5222924988449602</v>
       </c>
       <c r="F37">
-        <v>-0.04067480380656824</v>
+        <v>-0.04067480380656857</v>
       </c>
       <c r="G37">
-        <v>0.02169192365897395</v>
+        <v>0.02169192365897367</v>
       </c>
       <c r="H37">
         <v>-2</v>
@@ -1830,22 +1830,22 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.02968791249150067</v>
+        <v>0.02968791249150072</v>
       </c>
       <c r="C45">
-        <v>0.02757592234307951</v>
+        <v>0.02757592234307956</v>
       </c>
       <c r="D45">
         <v>1.076588196113454</v>
       </c>
       <c r="E45">
-        <v>0.3047092439632885</v>
+        <v>0.3047092439632887</v>
       </c>
       <c r="F45">
-        <v>-0.03100628336145679</v>
+        <v>-0.03100628336145685</v>
       </c>
       <c r="G45">
-        <v>0.09038210834445813</v>
+        <v>0.09038210834445828</v>
       </c>
       <c r="H45">
         <v>-5</v>
@@ -1863,22 +1863,22 @@
         </is>
       </c>
       <c r="B46">
-        <v>-0.07137751221265932</v>
+        <v>-0.0713775122126593</v>
       </c>
       <c r="C46">
-        <v>0.02462987572769751</v>
+        <v>0.02462987572769752</v>
       </c>
       <c r="D46">
-        <v>-2.898005373709288</v>
+        <v>-2.898005373709285</v>
       </c>
       <c r="E46">
-        <v>0.0144967512159678</v>
+        <v>0.01449675121596787</v>
       </c>
       <c r="F46">
         <v>-0.1255875031842228</v>
       </c>
       <c r="G46">
-        <v>-0.01716752124109586</v>
+        <v>-0.01716752124109581</v>
       </c>
       <c r="H46">
         <v>-4</v>
@@ -1896,22 +1896,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>-0.05291238380107763</v>
+        <v>-0.05291238380107766</v>
       </c>
       <c r="C47">
-        <v>0.02554325694006829</v>
+        <v>0.02554325694006826</v>
       </c>
       <c r="D47">
-        <v>-2.07148148433949</v>
+        <v>-2.071481484339493</v>
       </c>
       <c r="E47">
-        <v>0.06261260911459519</v>
+        <v>0.06261260911459492</v>
       </c>
       <c r="F47">
         <v>-0.1091327132665757</v>
       </c>
       <c r="G47">
-        <v>0.003307945664420435</v>
+        <v>0.003307945664420345</v>
       </c>
       <c r="H47">
         <v>-3</v>
@@ -1929,22 +1929,22 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.03671262587133739</v>
+        <v>-0.03671262587133742</v>
       </c>
       <c r="C48">
-        <v>0.008929392574531523</v>
+        <v>0.008929392574531519</v>
       </c>
       <c r="D48">
-        <v>-4.111435975617132</v>
+        <v>-4.111435975617138</v>
       </c>
       <c r="E48">
-        <v>0.001725577005695081</v>
+        <v>0.001725577005695062</v>
       </c>
       <c r="F48">
-        <v>-0.05636608641651374</v>
+        <v>-0.05636608641651377</v>
       </c>
       <c r="G48">
-        <v>-0.01705916532616104</v>
+        <v>-0.01705916532616108</v>
       </c>
       <c r="H48">
         <v>-2</v>
@@ -1962,22 +1962,22 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.0015568144647776</v>
+        <v>0.001556814464777604</v>
       </c>
       <c r="C49">
-        <v>0.01117798557510079</v>
+        <v>0.01117798557510078</v>
       </c>
       <c r="D49">
-        <v>0.1392750468604503</v>
+        <v>0.1392750468604507</v>
       </c>
       <c r="E49">
-        <v>0.8937901093603066</v>
+        <v>0.8937901093603062</v>
       </c>
       <c r="F49">
-        <v>-0.02579473091086402</v>
+        <v>-0.02579473091086401</v>
       </c>
       <c r="G49">
-        <v>0.02890835984041922</v>
+        <v>0.02890835984041921</v>
       </c>
       <c r="H49">
         <v>-3</v>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.02420211492163262</v>
+        <v>0.02420211492163269</v>
       </c>
       <c r="C50">
-        <v>0.002886392103174343</v>
+        <v>0.002886392103174337</v>
       </c>
       <c r="D50">
-        <v>8.384902001019217</v>
+        <v>8.384902001019261</v>
       </c>
       <c r="E50">
-        <v>0.0001566241832467942</v>
+        <v>0.0001566241832467898</v>
       </c>
       <c r="F50">
-        <v>0.01713936787732406</v>
+        <v>0.01713936787732415</v>
       </c>
       <c r="G50">
-        <v>0.03126486196594117</v>
+        <v>0.03126486196594123</v>
       </c>
       <c r="H50">
         <v>-2</v>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.01183908514829894</v>
+        <v>0.01183908514829896</v>
       </c>
       <c r="C51">
         <v>0.0126814473571018</v>
       </c>
       <c r="D51">
-        <v>0.9335752311954264</v>
+        <v>0.9335752311954283</v>
       </c>
       <c r="E51">
-        <v>0.3653086165253792</v>
+        <v>0.3653086165253782</v>
       </c>
       <c r="F51">
-        <v>-0.0151907800580359</v>
+        <v>-0.01519078005803587</v>
       </c>
       <c r="G51">
-        <v>0.03886895035463377</v>
+        <v>0.0388689503546338</v>
       </c>
       <c r="H51">
         <v>-5</v>
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.01581020036502032</v>
+        <v>0.01581020036502035</v>
       </c>
       <c r="C52">
         <v>0.01919797360520214</v>
       </c>
       <c r="D52">
-        <v>0.823534852695921</v>
+        <v>0.8235348526959223</v>
       </c>
       <c r="E52">
-        <v>0.4231048688880176</v>
+        <v>0.4231048688880168</v>
       </c>
       <c r="F52">
-        <v>-0.02510931175145633</v>
+        <v>-0.02510931175145631</v>
       </c>
       <c r="G52">
-        <v>0.05672971248149698</v>
+        <v>0.056729712481497</v>
       </c>
       <c r="H52">
         <v>-4</v>
@@ -2094,22 +2094,22 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.01534033469978153</v>
+        <v>0.01534033469978152</v>
       </c>
       <c r="C53">
-        <v>0.01342218854844795</v>
+        <v>0.01342218854844794</v>
       </c>
       <c r="D53">
         <v>1.142908598281864</v>
       </c>
       <c r="E53">
-        <v>0.2709910068282786</v>
+        <v>0.2709910068282785</v>
       </c>
       <c r="F53">
-        <v>-0.01326838298222546</v>
+        <v>-0.01326838298222545</v>
       </c>
       <c r="G53">
-        <v>0.04394905238178852</v>
+        <v>0.0439490523817885</v>
       </c>
       <c r="H53">
         <v>-3</v>
@@ -2127,19 +2127,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>-0.001272626800352764</v>
+        <v>-0.001272626800352752</v>
       </c>
       <c r="C54">
         <v>0.01189017731754619</v>
       </c>
       <c r="D54">
-        <v>-0.1070317764289994</v>
+        <v>-0.1070317764289984</v>
       </c>
       <c r="E54">
-        <v>0.9161821858163625</v>
+        <v>0.9161821858163632</v>
       </c>
       <c r="F54">
-        <v>-0.02661593984046173</v>
+        <v>-0.02661593984046172</v>
       </c>
       <c r="G54">
         <v>0.02407068623975621</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.01901832509180947</v>
+        <v>0.01901832509180941</v>
       </c>
       <c r="C55">
-        <v>0.008477021677550201</v>
+        <v>0.008477021677550239</v>
       </c>
       <c r="D55">
-        <v>2.24351497674896</v>
+        <v>2.243514976748942</v>
       </c>
       <c r="E55">
-        <v>0.04871285438960331</v>
+        <v>0.04871285438960479</v>
       </c>
       <c r="F55">
-        <v>0.0001303437429300107</v>
+        <v>0.000130343742929858</v>
       </c>
       <c r="G55">
-        <v>0.03790630644068893</v>
+        <v>0.03790630644068896</v>
       </c>
       <c r="H55">
         <v>-5</v>
@@ -2193,22 +2193,22 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.007763961308947858</v>
+        <v>0.00776396130894783</v>
       </c>
       <c r="C56">
-        <v>0.007812095528688212</v>
+        <v>0.007812095528688278</v>
       </c>
       <c r="D56">
-        <v>0.9938385008780818</v>
+        <v>0.9938385008780698</v>
       </c>
       <c r="E56">
-        <v>0.3437406313819343</v>
+        <v>0.34374063138194</v>
       </c>
       <c r="F56">
-        <v>-0.009642472253950598</v>
+        <v>-0.009642472253950773</v>
       </c>
       <c r="G56">
-        <v>0.02517039487184632</v>
+        <v>0.02517039487184643</v>
       </c>
       <c r="H56">
         <v>-4</v>
@@ -2226,22 +2226,22 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.002194205485808916</v>
+        <v>0.002194205485808822</v>
       </c>
       <c r="C57">
-        <v>0.007013313628210995</v>
+        <v>0.007013313628211033</v>
       </c>
       <c r="D57">
-        <v>0.3128628779672341</v>
+        <v>0.312862877967219</v>
       </c>
       <c r="E57">
-        <v>0.7608121226159712</v>
+        <v>0.7608121226159823</v>
       </c>
       <c r="F57">
-        <v>-0.01343243109037282</v>
+        <v>-0.013432431090373</v>
       </c>
       <c r="G57">
-        <v>0.01782084206199065</v>
+        <v>0.01782084206199064</v>
       </c>
       <c r="H57">
         <v>-3</v>
@@ -2259,22 +2259,22 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.02047824914725689</v>
+        <v>0.02047824914725683</v>
       </c>
       <c r="C58">
-        <v>0.004148015472009966</v>
+        <v>0.004148015472009832</v>
       </c>
       <c r="D58">
-        <v>4.936878679802495</v>
+        <v>4.936878679802642</v>
       </c>
       <c r="E58">
-        <v>0.0005898940634866933</v>
+        <v>0.0005898940634865645</v>
       </c>
       <c r="F58">
-        <v>0.0112358947154313</v>
+        <v>0.01123589471543154</v>
       </c>
       <c r="G58">
-        <v>0.02972060357908247</v>
+        <v>0.02972060357908212</v>
       </c>
       <c r="H58">
         <v>-2</v>
@@ -2292,22 +2292,22 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.01158577834914813</v>
+        <v>0.01158577834914817</v>
       </c>
       <c r="C59">
-        <v>0.006798563357246373</v>
+        <v>0.006798563357246377</v>
       </c>
       <c r="D59">
-        <v>1.704150971366505</v>
+        <v>1.704150971366509</v>
       </c>
       <c r="E59">
-        <v>0.119172174538233</v>
+        <v>0.1191721745382322</v>
       </c>
       <c r="F59">
-        <v>-0.003562364804822749</v>
+        <v>-0.003562364804822724</v>
       </c>
       <c r="G59">
-        <v>0.02673392150311901</v>
+        <v>0.02673392150311906</v>
       </c>
       <c r="H59">
         <v>-5</v>
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="B60">
-        <v>-0.0003028693446606402</v>
+        <v>-0.0003028693446606272</v>
       </c>
       <c r="C60">
         <v>0.01010486796919496</v>
       </c>
       <c r="D60">
-        <v>-0.02997261771098325</v>
+        <v>-0.02997261771098195</v>
       </c>
       <c r="E60">
-        <v>0.9766786472801212</v>
+        <v>0.9766786472801222</v>
       </c>
       <c r="F60">
         <v>-0.02281791826101557</v>
       </c>
       <c r="G60">
-        <v>0.02221217957169429</v>
+        <v>0.02221217957169431</v>
       </c>
       <c r="H60">
         <v>-4</v>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>-0.001846411016764208</v>
+        <v>-0.001846411016764176</v>
       </c>
       <c r="C61">
-        <v>0.008348791780301248</v>
+        <v>0.008348791780301252</v>
       </c>
       <c r="D61">
-        <v>-0.2211590689230944</v>
+        <v>-0.2211590689230905</v>
       </c>
       <c r="E61">
-        <v>0.8294190330107839</v>
+        <v>0.8294190330107869</v>
       </c>
       <c r="F61">
-        <v>-0.02044867834959707</v>
+        <v>-0.02044867834959705</v>
       </c>
       <c r="G61">
-        <v>0.01675585631606866</v>
+        <v>0.0167558563160687</v>
       </c>
       <c r="H61">
         <v>-3</v>
@@ -2391,22 +2391,22 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.01230940789872701</v>
+        <v>0.012309407898727</v>
       </c>
       <c r="C62">
-        <v>0.006852759807372174</v>
+        <v>0.006852759807372168</v>
       </c>
       <c r="D62">
         <v>1.796270151696342</v>
       </c>
       <c r="E62">
-        <v>0.1026739979951089</v>
+        <v>0.1026739979951088</v>
       </c>
       <c r="F62">
-        <v>-0.002959492471408908</v>
+        <v>-0.002959492471408903</v>
       </c>
       <c r="G62">
-        <v>0.02757830826886292</v>
+        <v>0.0275783082688629</v>
       </c>
       <c r="H62">
         <v>-2</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B63">
-        <v>-0.01830486905400184</v>
+        <v>-0.01830486905400202</v>
       </c>
       <c r="C63">
-        <v>0.02237181504408026</v>
+        <v>0.02237181504408024</v>
       </c>
       <c r="D63">
-        <v>-0.8182111741016488</v>
+        <v>-0.8182111741016578</v>
       </c>
       <c r="E63">
-        <v>0.4323010791564247</v>
+        <v>0.4323010791564198</v>
       </c>
       <c r="F63">
-        <v>-0.06815237934316809</v>
+        <v>-0.0681523793431682</v>
       </c>
       <c r="G63">
-        <v>0.03154264123516441</v>
+        <v>0.03154264123516417</v>
       </c>
       <c r="H63">
         <v>-5</v>
@@ -2457,19 +2457,19 @@
         </is>
       </c>
       <c r="B64">
-        <v>-0.005782958248535505</v>
+        <v>-0.005782958248535633</v>
       </c>
       <c r="C64">
-        <v>0.01880651085015984</v>
+        <v>0.01880651085015991</v>
       </c>
       <c r="D64">
-        <v>-0.3074976690046869</v>
+        <v>-0.3074976690046927</v>
       </c>
       <c r="E64">
-        <v>0.7647732174306419</v>
+        <v>0.7647732174306378</v>
       </c>
       <c r="F64">
-        <v>-0.04768647574407806</v>
+        <v>-0.04768647574407833</v>
       </c>
       <c r="G64">
         <v>0.03612055924700706</v>
@@ -2490,22 +2490,22 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.001429738890429217</v>
+        <v>0.001429738890429265</v>
       </c>
       <c r="C65">
-        <v>0.0206189822034343</v>
+        <v>0.02061898220343435</v>
       </c>
       <c r="D65">
-        <v>0.06934090520680886</v>
+        <v>0.06934090520681105</v>
       </c>
       <c r="E65">
-        <v>0.9460852678271148</v>
+        <v>0.9460852678271131</v>
       </c>
       <c r="F65">
-        <v>-0.0445122164454563</v>
+        <v>-0.04451221644545636</v>
       </c>
       <c r="G65">
-        <v>0.04737169422631474</v>
+        <v>0.04737169422631489</v>
       </c>
       <c r="H65">
         <v>-3</v>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.01194911395311831</v>
+        <v>0.01194911395311827</v>
       </c>
       <c r="C66">
-        <v>0.02822724830701961</v>
+        <v>0.02822724830701958</v>
       </c>
       <c r="D66">
-        <v>0.4233184128736622</v>
+        <v>0.4233184128736614</v>
       </c>
       <c r="E66">
-        <v>0.681022970468097</v>
+        <v>0.6810229704680976</v>
       </c>
       <c r="F66">
-        <v>-0.05094511468441586</v>
+        <v>-0.05094511468441582</v>
       </c>
       <c r="G66">
-        <v>0.07484334259065248</v>
+        <v>0.07484334259065237</v>
       </c>
       <c r="H66">
         <v>-2</v>
@@ -2556,22 +2556,22 @@
         </is>
       </c>
       <c r="B67">
-        <v>-0.007042286538151628</v>
+        <v>-0.00704228653815171</v>
       </c>
       <c r="C67">
-        <v>0.002206302748020446</v>
+        <v>0.002206302748020466</v>
       </c>
       <c r="D67">
-        <v>-3.191894922158872</v>
+        <v>-3.19189492215888</v>
       </c>
       <c r="E67">
-        <v>0.02421359861433724</v>
+        <v>0.02421359861433702</v>
       </c>
       <c r="F67">
-        <v>-0.01271376830612747</v>
+        <v>-0.0127137683061276</v>
       </c>
       <c r="G67">
-        <v>-0.001370804770175787</v>
+        <v>-0.001370804770175817</v>
       </c>
       <c r="H67">
         <v>-5</v>
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.01094567281471533</v>
+        <v>0.01094567281471537</v>
       </c>
       <c r="C68">
-        <v>0.004492807190772008</v>
+        <v>0.004492807190772007</v>
       </c>
       <c r="D68">
-        <v>2.436265868964323</v>
+        <v>2.436265868964333</v>
       </c>
       <c r="E68">
-        <v>0.05892402950270791</v>
+        <v>0.05892402950270718</v>
       </c>
       <c r="F68">
-        <v>-0.0006034557408994123</v>
+        <v>-0.0006034557408993689</v>
       </c>
       <c r="G68">
-        <v>0.02249480137033007</v>
+        <v>0.02249480137033011</v>
       </c>
       <c r="H68">
         <v>-4</v>
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.0008991928858357358</v>
+        <v>0.0008991928858357423</v>
       </c>
       <c r="C69">
-        <v>0.003539188373536553</v>
+        <v>0.003539188373536554</v>
       </c>
       <c r="D69">
-        <v>0.2540675406144636</v>
+        <v>0.2540675406144654</v>
       </c>
       <c r="E69">
-        <v>0.8095607700703309</v>
+        <v>0.8095607700703297</v>
       </c>
       <c r="F69">
-        <v>-0.008198580460072557</v>
+        <v>-0.008198580460072553</v>
       </c>
       <c r="G69">
-        <v>0.00999696623174403</v>
+        <v>0.009996966231744037</v>
       </c>
       <c r="H69">
         <v>-3</v>
@@ -2655,22 +2655,22 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.001667344139628273</v>
+        <v>-0.001667344139628396</v>
       </c>
       <c r="C70">
-        <v>0.001879225862374568</v>
+        <v>0.001879225862374588</v>
       </c>
       <c r="D70">
-        <v>-0.8872505285348916</v>
+        <v>-0.8872505285349478</v>
       </c>
       <c r="E70">
-        <v>0.4155770966900152</v>
+        <v>0.4155770966899875</v>
       </c>
       <c r="F70">
-        <v>-0.006498048006506324</v>
+        <v>-0.0064980480065065</v>
       </c>
       <c r="G70">
-        <v>0.003163359727249779</v>
+        <v>0.003163359727249707</v>
       </c>
       <c r="H70">
         <v>-2</v>
@@ -2754,22 +2754,22 @@
         </is>
       </c>
       <c r="B73">
-        <v>-0.00425849315389043</v>
+        <v>-0.004258493153890404</v>
       </c>
       <c r="C73">
-        <v>0.01088671467742498</v>
+        <v>0.01088671467742499</v>
       </c>
       <c r="D73">
-        <v>-0.391164210698106</v>
+        <v>-0.3911642106981035</v>
       </c>
       <c r="E73">
-        <v>0.699616389293913</v>
+        <v>0.6996163892939149</v>
       </c>
       <c r="F73">
-        <v>-0.02689865572066347</v>
+        <v>-0.02689865572066345</v>
       </c>
       <c r="G73">
-        <v>0.01838166941288261</v>
+        <v>0.01838166941288264</v>
       </c>
       <c r="H73">
         <v>-5</v>
@@ -2787,19 +2787,19 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.00280545769466029</v>
+        <v>0.002805457694660288</v>
       </c>
       <c r="C74">
         <v>0.005648442488321481</v>
       </c>
       <c r="D74">
-        <v>0.4966781020539299</v>
+        <v>0.4966781020539295</v>
       </c>
       <c r="E74">
-        <v>0.6245754895622468</v>
+        <v>0.6245754895622471</v>
       </c>
       <c r="F74">
-        <v>-0.008941121505201127</v>
+        <v>-0.008941121505201129</v>
       </c>
       <c r="G74">
         <v>0.01455203689452171</v>
@@ -2820,22 +2820,22 @@
         </is>
       </c>
       <c r="B75">
-        <v>-0.01342608627325812</v>
+        <v>-0.01342608627325809</v>
       </c>
       <c r="C75">
-        <v>0.006620115347199812</v>
+        <v>0.00662011534719981</v>
       </c>
       <c r="D75">
-        <v>-2.028074371685549</v>
+        <v>-2.028074371685546</v>
       </c>
       <c r="E75">
-        <v>0.05542726693879076</v>
+        <v>0.05542726693879116</v>
       </c>
       <c r="F75">
-        <v>-0.02719336980298904</v>
+        <v>-0.02719336980298901</v>
       </c>
       <c r="G75">
-        <v>0.0003411972564728045</v>
+        <v>0.0003411972564728253</v>
       </c>
       <c r="H75">
         <v>-3</v>
@@ -2853,22 +2853,22 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.003128701455233045</v>
+        <v>0.00312870145523312</v>
       </c>
       <c r="C76">
-        <v>0.008874872680447836</v>
+        <v>0.008874872680447825</v>
       </c>
       <c r="D76">
-        <v>0.3525347988513529</v>
+        <v>0.3525347988513617</v>
       </c>
       <c r="E76">
-        <v>0.7279507990990831</v>
+        <v>0.7279507990990766</v>
       </c>
       <c r="F76">
-        <v>-0.01532760664122173</v>
+        <v>-0.01532760664122163</v>
       </c>
       <c r="G76">
-        <v>0.02158500955168782</v>
+        <v>0.02158500955168787</v>
       </c>
       <c r="H76">
         <v>-2</v>
@@ -2886,22 +2886,22 @@
         </is>
       </c>
       <c r="B77">
-        <v>-0.0001043112369119874</v>
+        <v>-0.0001043112369120257</v>
       </c>
       <c r="C77">
-        <v>0.008371457691242357</v>
+        <v>0.008371457691242345</v>
       </c>
       <c r="D77">
-        <v>-0.01246034331883569</v>
+        <v>-0.01246034331884029</v>
       </c>
       <c r="E77">
-        <v>0.9903301816563554</v>
+        <v>0.9903301816563518</v>
       </c>
       <c r="F77">
-        <v>-0.01904186421621801</v>
+        <v>-0.01904186421621802</v>
       </c>
       <c r="G77">
-        <v>0.01883324174239404</v>
+        <v>0.01883324174239397</v>
       </c>
       <c r="H77">
         <v>-5</v>
@@ -2919,19 +2919,19 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.02372009345974141</v>
+        <v>0.02372009345974145</v>
       </c>
       <c r="C78">
-        <v>0.01741747692830664</v>
+        <v>0.01741747692830662</v>
       </c>
       <c r="D78">
-        <v>1.361855885176564</v>
+        <v>1.361855885176567</v>
       </c>
       <c r="E78">
-        <v>0.2063538698184815</v>
+        <v>0.2063538698184805</v>
       </c>
       <c r="F78">
-        <v>-0.01568097673149993</v>
+        <v>-0.01568097673149985</v>
       </c>
       <c r="G78">
         <v>0.06312116365098275</v>
@@ -2952,22 +2952,22 @@
         </is>
       </c>
       <c r="B79">
-        <v>0.01044834230324469</v>
+        <v>0.01044834230324466</v>
       </c>
       <c r="C79">
-        <v>0.02289344398146882</v>
+        <v>0.0228934439814688</v>
       </c>
       <c r="D79">
-        <v>0.4563901487125371</v>
+        <v>0.4563901487125362</v>
       </c>
       <c r="E79">
-        <v>0.6589234787503362</v>
+        <v>0.6589234787503369</v>
       </c>
       <c r="F79">
-        <v>-0.04134022598055446</v>
+        <v>-0.04134022598055444</v>
       </c>
       <c r="G79">
-        <v>0.06223691058704384</v>
+        <v>0.06223691058704377</v>
       </c>
       <c r="H79">
         <v>-3</v>
@@ -2985,22 +2985,22 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.02701278527359261</v>
+        <v>0.02701278527359259</v>
       </c>
       <c r="C80">
-        <v>0.01694039031389793</v>
+        <v>0.01694039031389796</v>
       </c>
       <c r="D80">
-        <v>1.594578682843646</v>
+        <v>1.594578682843641</v>
       </c>
       <c r="E80">
-        <v>0.1452707749684151</v>
+        <v>0.1452707749684161</v>
       </c>
       <c r="F80">
-        <v>-0.01130904001558892</v>
+        <v>-0.01130904001558902</v>
       </c>
       <c r="G80">
-        <v>0.06533461056277415</v>
+        <v>0.0653346105627742</v>
       </c>
       <c r="H80">
         <v>-2</v>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B81">
-        <v>-0.0062466517697208</v>
+        <v>-0.006246651769720825</v>
       </c>
       <c r="C81">
-        <v>0.007751388184074386</v>
+        <v>0.007751388184074393</v>
       </c>
       <c r="D81">
-        <v>-0.8058752343941253</v>
+        <v>-0.805875234394128</v>
       </c>
       <c r="E81">
-        <v>0.4276242844607089</v>
+        <v>0.4276242844607072</v>
       </c>
       <c r="F81">
-        <v>-0.02217985837243422</v>
+        <v>-0.02217985837243426</v>
       </c>
       <c r="G81">
-        <v>0.009686554832992619</v>
+        <v>0.009686554832992609</v>
       </c>
       <c r="H81">
         <v>-5</v>
@@ -3051,22 +3051,22 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.003452165281274341</v>
+        <v>0.003452165281274352</v>
       </c>
       <c r="C82">
-        <v>0.004768279111036854</v>
+        <v>0.00476827911103686</v>
       </c>
       <c r="D82">
-        <v>0.7239855723386278</v>
+        <v>0.7239855723386294</v>
       </c>
       <c r="E82">
-        <v>0.4755389826253377</v>
+        <v>0.4755389826253368</v>
       </c>
       <c r="F82">
-        <v>-0.00634917280312778</v>
+        <v>-0.006349172803127781</v>
       </c>
       <c r="G82">
-        <v>0.01325350336567646</v>
+        <v>0.01325350336567648</v>
       </c>
       <c r="H82">
         <v>-4</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="B83">
-        <v>-0.004673061609673779</v>
+        <v>-0.004673061609673821</v>
       </c>
       <c r="C83">
-        <v>0.006448635823084861</v>
+        <v>0.006448635823084862</v>
       </c>
       <c r="D83">
-        <v>-0.7246589414997089</v>
+        <v>-0.7246589414997152</v>
       </c>
       <c r="E83">
-        <v>0.4751326424465403</v>
+        <v>0.4751326424465365</v>
       </c>
       <c r="F83">
-        <v>-0.01792842238311172</v>
+        <v>-0.01792842238311176</v>
       </c>
       <c r="G83">
-        <v>0.008582299163764164</v>
+        <v>0.008582299163764124</v>
       </c>
       <c r="H83">
         <v>-3</v>
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.009425285469423452</v>
+        <v>0.009425285469423414</v>
       </c>
       <c r="C84">
-        <v>0.008368068114956273</v>
+        <v>0.00836806811495627</v>
       </c>
       <c r="D84">
-        <v>1.126339477636136</v>
+        <v>1.126339477636132</v>
       </c>
       <c r="E84">
-        <v>0.2703109348701891</v>
+        <v>0.2703109348701905</v>
       </c>
       <c r="F84">
-        <v>-0.007775524885437939</v>
+        <v>-0.00777552488543797</v>
       </c>
       <c r="G84">
-        <v>0.02662609582428484</v>
+        <v>0.0266260958242848</v>
       </c>
       <c r="H84">
         <v>-2</v>
@@ -3150,22 +3150,22 @@
         </is>
       </c>
       <c r="B85">
-        <v>-0.01073470998564993</v>
+        <v>-0.01073470998564998</v>
       </c>
       <c r="C85">
-        <v>0.006094425279728733</v>
+        <v>0.006094425279728731</v>
       </c>
       <c r="D85">
-        <v>-1.76139824395841</v>
+        <v>-1.761398243958419</v>
       </c>
       <c r="E85">
-        <v>0.1120152147541554</v>
+        <v>0.1120152147541538</v>
       </c>
       <c r="F85">
-        <v>-0.02452125778532674</v>
+        <v>-0.02452125778532679</v>
       </c>
       <c r="G85">
-        <v>0.003051837814026875</v>
+        <v>0.003051837814026818</v>
       </c>
       <c r="H85">
         <v>-5</v>
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="B86">
-        <v>-0.008997092885080708</v>
+        <v>-0.008997092885080681</v>
       </c>
       <c r="C86">
-        <v>0.004596303002265075</v>
+        <v>0.00459630300226507</v>
       </c>
       <c r="D86">
-        <v>-1.957462961133526</v>
+        <v>-1.957462961133522</v>
       </c>
       <c r="E86">
-        <v>0.08197797450881036</v>
+        <v>0.08197797450881091</v>
       </c>
       <c r="F86">
-        <v>-0.01939465264404554</v>
+        <v>-0.0193946526440455</v>
       </c>
       <c r="G86">
-        <v>0.001400466873884124</v>
+        <v>0.00140046687388414</v>
       </c>
       <c r="H86">
         <v>-4</v>
@@ -3216,22 +3216,22 @@
         </is>
       </c>
       <c r="B87">
-        <v>-0.00489320041009319</v>
+        <v>-0.004893200410093175</v>
       </c>
       <c r="C87">
-        <v>0.007124047435016856</v>
+        <v>0.007124047435016847</v>
       </c>
       <c r="D87">
-        <v>-0.6868567980108644</v>
+        <v>-0.6868567980108633</v>
       </c>
       <c r="E87">
-        <v>0.5094818617041337</v>
+        <v>0.5094818617041343</v>
       </c>
       <c r="F87">
-        <v>-0.02100891534333075</v>
+        <v>-0.02100891534333071</v>
       </c>
       <c r="G87">
-        <v>0.01122251452314437</v>
+        <v>0.01122251452314436</v>
       </c>
       <c r="H87">
         <v>-3</v>
@@ -3249,22 +3249,22 @@
         </is>
       </c>
       <c r="B88">
-        <v>-0.0131956745419177</v>
+        <v>-0.01319567454191763</v>
       </c>
       <c r="C88">
-        <v>0.009587207838863741</v>
+        <v>0.009587207838863746</v>
       </c>
       <c r="D88">
-        <v>-1.376383485546885</v>
+        <v>-1.376383485546877</v>
       </c>
       <c r="E88">
-        <v>0.2019759606803251</v>
+        <v>0.2019759606803276</v>
       </c>
       <c r="F88">
-        <v>-0.03488344542583841</v>
+        <v>-0.03488344542583835</v>
       </c>
       <c r="G88">
-        <v>0.00849209634200301</v>
+        <v>0.008492096342003094</v>
       </c>
       <c r="H88">
         <v>-2</v>
@@ -3282,22 +3282,22 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.008453241935939639</v>
+        <v>0.008453241935939659</v>
       </c>
       <c r="C89">
-        <v>0.01259633728763977</v>
+        <v>0.01259633728763974</v>
       </c>
       <c r="D89">
-        <v>0.6710872964821635</v>
+        <v>0.6710872964821664</v>
       </c>
       <c r="E89">
-        <v>0.5069804652587373</v>
+        <v>0.5069804652587353</v>
       </c>
       <c r="F89">
-        <v>-0.01720465749072357</v>
+        <v>-0.01720465749072351</v>
       </c>
       <c r="G89">
-        <v>0.03411114136260285</v>
+        <v>0.03411114136260283</v>
       </c>
       <c r="H89">
         <v>-5</v>
@@ -3315,22 +3315,22 @@
         </is>
       </c>
       <c r="B90">
-        <v>-0.005447504276043858</v>
+        <v>-0.005447504276043863</v>
       </c>
       <c r="C90">
-        <v>0.004685022936880273</v>
+        <v>0.00468502293688027</v>
       </c>
       <c r="D90">
-        <v>-1.162748688626766</v>
+        <v>-1.162748688626768</v>
       </c>
       <c r="E90">
-        <v>0.2535296150995975</v>
+        <v>0.2535296150995969</v>
       </c>
       <c r="F90">
         <v>-0.01499058371105065</v>
       </c>
       <c r="G90">
-        <v>0.00409557515896294</v>
+        <v>0.004095575158962929</v>
       </c>
       <c r="H90">
         <v>-4</v>
@@ -3348,22 +3348,22 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.007353903644056413</v>
+        <v>0.007353903644056422</v>
       </c>
       <c r="C91">
-        <v>0.009886717208721141</v>
+        <v>0.009886717208721129</v>
       </c>
       <c r="D91">
-        <v>0.7438165256278882</v>
+        <v>0.7438165256278901</v>
       </c>
       <c r="E91">
-        <v>0.4624144908593509</v>
+        <v>0.4624144908593497</v>
       </c>
       <c r="F91">
-        <v>-0.01278468029574847</v>
+        <v>-0.01278468029574843</v>
       </c>
       <c r="G91">
-        <v>0.02749248758386129</v>
+        <v>0.02749248758386127</v>
       </c>
       <c r="H91">
         <v>-3</v>
@@ -3381,19 +3381,19 @@
         </is>
       </c>
       <c r="B92">
-        <v>-0.001254427304343555</v>
+        <v>-0.001254427304343548</v>
       </c>
       <c r="C92">
-        <v>0.006743226341403822</v>
+        <v>0.006743226341403819</v>
       </c>
       <c r="D92">
-        <v>-0.1860277619099473</v>
+        <v>-0.1860277619099464</v>
       </c>
       <c r="E92">
-        <v>0.8535972440962577</v>
+        <v>0.8535972440962584</v>
       </c>
       <c r="F92">
-        <v>-0.01498992988164747</v>
+        <v>-0.01498992988164746</v>
       </c>
       <c r="G92">
         <v>0.01248107527296036</v>
@@ -3414,22 +3414,22 @@
         </is>
       </c>
       <c r="B93">
-        <v>0.001220962474142679</v>
+        <v>0.001220962474142659</v>
       </c>
       <c r="C93">
-        <v>0.002262001849644805</v>
+        <v>0.002262001849644807</v>
       </c>
       <c r="D93">
-        <v>0.5397707673556513</v>
+        <v>0.5397707673556419</v>
       </c>
       <c r="E93">
-        <v>0.5927730323841994</v>
+        <v>0.5927730323842056</v>
       </c>
       <c r="F93">
-        <v>-0.00337114541453818</v>
+        <v>-0.003371145414538203</v>
       </c>
       <c r="G93">
-        <v>0.005813070362823538</v>
+        <v>0.00581307036282352</v>
       </c>
       <c r="H93">
         <v>-5</v>
@@ -3447,22 +3447,22 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.002327258447867461</v>
+        <v>0.00232725844786747</v>
       </c>
       <c r="C94">
-        <v>0.001651224125932394</v>
+        <v>0.001651224125932391</v>
       </c>
       <c r="D94">
-        <v>1.409414028851675</v>
+        <v>1.409414028851683</v>
       </c>
       <c r="E94">
-        <v>0.1675366793158157</v>
+        <v>0.1675366793158132</v>
       </c>
       <c r="F94">
-        <v>-0.001024904741506135</v>
+        <v>-0.001024904741506119</v>
       </c>
       <c r="G94">
-        <v>0.005679421637241056</v>
+        <v>0.005679421637241059</v>
       </c>
       <c r="H94">
         <v>-4</v>
@@ -3480,22 +3480,22 @@
         </is>
       </c>
       <c r="B95">
-        <v>0.002552865364466752</v>
+        <v>0.002552865364466798</v>
       </c>
       <c r="C95">
-        <v>0.003313179372213002</v>
+        <v>0.003313179372212997</v>
       </c>
       <c r="D95">
-        <v>0.7705183081474982</v>
+        <v>0.770518308147513</v>
       </c>
       <c r="E95">
-        <v>0.446162738890338</v>
+        <v>0.4461627388903292</v>
       </c>
       <c r="F95">
-        <v>-0.004173246346778355</v>
+        <v>-0.004173246346778301</v>
       </c>
       <c r="G95">
-        <v>0.009278977075711859</v>
+        <v>0.009278977075711896</v>
       </c>
       <c r="H95">
         <v>-3</v>
@@ -3513,22 +3513,22 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.001433899716045448</v>
+        <v>0.001433899716045455</v>
       </c>
       <c r="C96">
-        <v>0.002918201949438388</v>
+        <v>0.002918201949438386</v>
       </c>
       <c r="D96">
-        <v>0.4913641142352756</v>
+        <v>0.4913641142352783</v>
       </c>
       <c r="E96">
-        <v>0.626236262111722</v>
+        <v>0.6262362621117201</v>
       </c>
       <c r="F96">
-        <v>-0.004490365197745028</v>
+        <v>-0.004490365197745017</v>
       </c>
       <c r="G96">
-        <v>0.007358164629835923</v>
+        <v>0.007358164629835926</v>
       </c>
       <c r="H96">
         <v>-2</v>
@@ -3546,22 +3546,22 @@
         </is>
       </c>
       <c r="B97">
-        <v>0.005795380173592749</v>
+        <v>0.005795380173592693</v>
       </c>
       <c r="C97">
-        <v>0.00415841149886367</v>
+        <v>0.004158411498863673</v>
       </c>
       <c r="D97">
-        <v>1.39365240192713</v>
+        <v>1.393652401927115</v>
       </c>
       <c r="E97">
-        <v>0.1867908355380615</v>
+        <v>0.1867908355380659</v>
       </c>
       <c r="F97">
-        <v>-0.003188321689226782</v>
+        <v>-0.003188321689226845</v>
       </c>
       <c r="G97">
-        <v>0.01477908203641228</v>
+        <v>0.01477908203641223</v>
       </c>
       <c r="H97">
         <v>-5</v>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B98">
-        <v>-0.01399791155414691</v>
+        <v>-0.01399791155414692</v>
       </c>
       <c r="C98">
-        <v>0.00443815791834395</v>
+        <v>0.004438157918343945</v>
       </c>
       <c r="D98">
-        <v>-3.153991320653609</v>
+        <v>-3.153991320653615</v>
       </c>
       <c r="E98">
-        <v>0.007612912111374445</v>
+        <v>0.007612912111374359</v>
       </c>
       <c r="F98">
         <v>-0.02358596881336933</v>
       </c>
       <c r="G98">
-        <v>-0.004409854294924487</v>
+        <v>-0.004409854294924508</v>
       </c>
       <c r="H98">
         <v>-4</v>
@@ -3612,22 +3612,22 @@
         </is>
       </c>
       <c r="B99">
-        <v>-0.006484696749050767</v>
+        <v>-0.006484696749050773</v>
       </c>
       <c r="C99">
-        <v>0.005165412915801794</v>
+        <v>0.005165412915801796</v>
       </c>
       <c r="D99">
-        <v>-1.255407235540276</v>
+        <v>-1.255407235540277</v>
       </c>
       <c r="E99">
-        <v>0.2314282368404855</v>
+        <v>0.2314282368404853</v>
       </c>
       <c r="F99">
-        <v>-0.01764389291003704</v>
+        <v>-0.01764389291003705</v>
       </c>
       <c r="G99">
-        <v>0.004674499411935507</v>
+        <v>0.004674499411935505</v>
       </c>
       <c r="H99">
         <v>-3</v>
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="B100">
-        <v>-0.01186260652501699</v>
+        <v>-0.01186260652501702</v>
       </c>
       <c r="C100">
-        <v>0.005447592753593095</v>
+        <v>0.005447592753593107</v>
       </c>
       <c r="D100">
-        <v>-2.17758688315912</v>
+        <v>-2.177586883159119</v>
       </c>
       <c r="E100">
-        <v>0.04844896168589069</v>
+        <v>0.0484489616858908</v>
       </c>
       <c r="F100">
-        <v>-0.02363141516305335</v>
+        <v>-0.0236314151630534</v>
       </c>
       <c r="G100">
-        <v>-9.379788698063961e-05</v>
+        <v>-9.37978869806344e-05</v>
       </c>
       <c r="H100">
         <v>-2</v>
@@ -3678,22 +3678,22 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.001241694363003062</v>
+        <v>0.001241694363003071</v>
       </c>
       <c r="C101">
         <v>0.003689684708258137</v>
       </c>
       <c r="D101">
-        <v>0.336531292287371</v>
+        <v>0.3365312922873734</v>
       </c>
       <c r="E101">
-        <v>0.738000738102798</v>
+        <v>0.7380007381027964</v>
       </c>
       <c r="F101">
-        <v>-0.006185255747650057</v>
+        <v>-0.006185255747650048</v>
       </c>
       <c r="G101">
-        <v>0.008668644473656182</v>
+        <v>0.00866864447365619</v>
       </c>
       <c r="H101">
         <v>-5</v>
@@ -3711,22 +3711,22 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.003308620397729838</v>
+        <v>0.00330862039772986</v>
       </c>
       <c r="C102">
-        <v>0.004082901457544054</v>
+        <v>0.00408290145754405</v>
       </c>
       <c r="D102">
-        <v>0.8103600912572695</v>
+        <v>0.8103600912572755</v>
       </c>
       <c r="E102">
-        <v>0.4219059293986174</v>
+        <v>0.4219059293986137</v>
       </c>
       <c r="F102">
-        <v>-0.004909833976982308</v>
+        <v>-0.00490983397698228</v>
       </c>
       <c r="G102">
-        <v>0.01152707477244199</v>
+        <v>0.011527074772442</v>
       </c>
       <c r="H102">
         <v>-4</v>
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="B103">
-        <v>-0.0005974468507180717</v>
+        <v>-0.0005974468507180699</v>
       </c>
       <c r="C103">
-        <v>0.003782564659254256</v>
+        <v>0.003782564659254252</v>
       </c>
       <c r="D103">
-        <v>-0.1579475579502348</v>
+        <v>-0.1579475579502345</v>
       </c>
       <c r="E103">
-        <v>0.8751894527724873</v>
+        <v>0.8751894527724875</v>
       </c>
       <c r="F103">
-        <v>-0.008211354605959131</v>
+        <v>-0.008211354605959122</v>
       </c>
       <c r="G103">
-        <v>0.007016460904522988</v>
+        <v>0.007016460904522983</v>
       </c>
       <c r="H103">
         <v>-3</v>
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B104">
-        <v>-0.002762106418544671</v>
+        <v>-0.002762106418544666</v>
       </c>
       <c r="C104">
-        <v>0.00442968580770763</v>
+        <v>0.004429685807707629</v>
       </c>
       <c r="D104">
-        <v>-0.623544544341863</v>
+        <v>-0.6235445443418619</v>
       </c>
       <c r="E104">
-        <v>0.5360065750626661</v>
+        <v>0.5360065750626669</v>
       </c>
       <c r="F104">
         <v>-0.01167860148547521</v>
       </c>
       <c r="G104">
-        <v>0.006154388648385871</v>
+        <v>0.006154388648385875</v>
       </c>
       <c r="H104">
         <v>-2</v>
@@ -3810,22 +3810,22 @@
         </is>
       </c>
       <c r="B105">
-        <v>-0.004162519730486884</v>
+        <v>-0.004162519730486868</v>
       </c>
       <c r="C105">
-        <v>0.007547531178612284</v>
+        <v>0.007547531178612295</v>
       </c>
       <c r="D105">
-        <v>-0.5515074574693205</v>
+        <v>-0.5515074574693175</v>
       </c>
       <c r="E105">
-        <v>0.5923124333442071</v>
+        <v>0.5923124333442091</v>
       </c>
       <c r="F105">
-        <v>-0.02077452384994147</v>
+        <v>-0.02077452384994148</v>
       </c>
       <c r="G105">
-        <v>0.01244948438896771</v>
+        <v>0.01244948438896775</v>
       </c>
       <c r="H105">
         <v>-5</v>
@@ -3843,22 +3843,22 @@
         </is>
       </c>
       <c r="B106">
-        <v>-0.01017940522435549</v>
+        <v>-0.01017940522435542</v>
       </c>
       <c r="C106">
-        <v>0.01441511502842172</v>
+        <v>0.01441511502842174</v>
       </c>
       <c r="D106">
-        <v>-0.7061619143714882</v>
+        <v>-0.7061619143714823</v>
       </c>
       <c r="E106">
-        <v>0.4947725282258656</v>
+        <v>0.494772528225869</v>
       </c>
       <c r="F106">
-        <v>-0.04190685948292567</v>
+        <v>-0.04190685948292562</v>
       </c>
       <c r="G106">
-        <v>0.02154804903421468</v>
+        <v>0.02154804903421478</v>
       </c>
       <c r="H106">
         <v>-4</v>
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="B107">
-        <v>0.001084106685158426</v>
+        <v>0.00108410668515842</v>
       </c>
       <c r="C107">
-        <v>0.005333187992747481</v>
+        <v>0.005333187992747482</v>
       </c>
       <c r="D107">
-        <v>0.2032755430021753</v>
+        <v>0.2032755430021742</v>
       </c>
       <c r="E107">
-        <v>0.8426310867842279</v>
+        <v>0.8426310867842287</v>
       </c>
       <c r="F107">
-        <v>-0.01065416094285769</v>
+        <v>-0.0106541609428577</v>
       </c>
       <c r="G107">
-        <v>0.01282237431317455</v>
+        <v>0.01282237431317454</v>
       </c>
       <c r="H107">
         <v>-3</v>
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="B108">
-        <v>0.00494826636848365</v>
+        <v>0.004948266368483719</v>
       </c>
       <c r="C108">
-        <v>0.003563819623755322</v>
+        <v>0.003563819623755324</v>
       </c>
       <c r="D108">
-        <v>1.38847273175669</v>
+        <v>1.388472731756708</v>
       </c>
       <c r="E108">
-        <v>0.1924672471671145</v>
+        <v>0.192467247167109</v>
       </c>
       <c r="F108">
-        <v>-0.002895647736645182</v>
+        <v>-0.002895647736645116</v>
       </c>
       <c r="G108">
-        <v>0.01279218047361248</v>
+        <v>0.01279218047361255</v>
       </c>
       <c r="H108">
         <v>-2</v>
@@ -3942,22 +3942,22 @@
         </is>
       </c>
       <c r="B109">
-        <v>0.001848221088703871</v>
+        <v>0.001848221088703861</v>
       </c>
       <c r="C109">
-        <v>0.003432577183630344</v>
+        <v>0.003432577183630342</v>
       </c>
       <c r="D109">
-        <v>0.5384354057697153</v>
+        <v>0.5384354057697128</v>
       </c>
       <c r="E109">
-        <v>0.5952356254514364</v>
+        <v>0.5952356254514382</v>
       </c>
       <c r="F109">
-        <v>-0.005236270023267976</v>
+        <v>-0.005236270023267979</v>
       </c>
       <c r="G109">
-        <v>0.008932712200675718</v>
+        <v>0.008932712200675702</v>
       </c>
       <c r="H109">
         <v>-5</v>
@@ -3975,22 +3975,22 @@
         </is>
       </c>
       <c r="B110">
-        <v>0.00152942324761595</v>
+        <v>0.00152942324761594</v>
       </c>
       <c r="C110">
-        <v>0.002700003486416478</v>
+        <v>0.002700003486416474</v>
       </c>
       <c r="D110">
-        <v>0.5664523232323098</v>
+        <v>0.5664523232323068</v>
       </c>
       <c r="E110">
-        <v>0.5763457113223136</v>
+        <v>0.5763457113223156</v>
       </c>
       <c r="F110">
-        <v>-0.004043110064389673</v>
+        <v>-0.004043110064389675</v>
       </c>
       <c r="G110">
-        <v>0.007101956559621573</v>
+        <v>0.007101956559621555</v>
       </c>
       <c r="H110">
         <v>-4</v>
@@ -4008,19 +4008,19 @@
         </is>
       </c>
       <c r="B111">
-        <v>0.005676074807625885</v>
+        <v>0.005676074807625894</v>
       </c>
       <c r="C111">
-        <v>0.002891465619177258</v>
+        <v>0.002891465619177253</v>
       </c>
       <c r="D111">
-        <v>1.96304419806346</v>
+        <v>1.963044198063466</v>
       </c>
       <c r="E111">
-        <v>0.06133131820272684</v>
+        <v>0.06133131820272611</v>
       </c>
       <c r="F111">
-        <v>-0.000291616924790945</v>
+        <v>-0.0002916169247909276</v>
       </c>
       <c r="G111">
         <v>0.01164376654004272</v>
@@ -4044,16 +4044,16 @@
         <v>0.007738420116904138</v>
       </c>
       <c r="C112">
-        <v>0.002091455195524417</v>
+        <v>0.002091455195524415</v>
       </c>
       <c r="D112">
-        <v>3.700017161956839</v>
+        <v>3.700017161956842</v>
       </c>
       <c r="E112">
-        <v>0.001120255442303434</v>
+        <v>0.001120255442303424</v>
       </c>
       <c r="F112">
-        <v>0.003421868747151834</v>
+        <v>0.003421868747151838</v>
       </c>
       <c r="G112">
         <v>0.01205497148665644</v>
@@ -4074,22 +4074,22 @@
         </is>
       </c>
       <c r="B113">
-        <v>-0.004568964314043435</v>
+        <v>-0.004568964314043478</v>
       </c>
       <c r="C113">
-        <v>0.004928907824758341</v>
+        <v>0.004928907824758339</v>
       </c>
       <c r="D113">
-        <v>-0.9269729677420873</v>
+        <v>-0.9269729677420964</v>
       </c>
       <c r="E113">
-        <v>0.3669148205844291</v>
+        <v>0.3669148205844246</v>
       </c>
       <c r="F113">
-        <v>-0.01496805082442311</v>
+        <v>-0.01496805082442315</v>
       </c>
       <c r="G113">
-        <v>0.005830122196336239</v>
+        <v>0.005830122196336191</v>
       </c>
       <c r="H113">
         <v>-5</v>
@@ -4107,22 +4107,22 @@
         </is>
       </c>
       <c r="B114">
-        <v>-0.0001744279579718997</v>
+        <v>-0.0001744279579719043</v>
       </c>
       <c r="C114">
-        <v>0.002718607050547947</v>
+        <v>0.00271860705054795</v>
       </c>
       <c r="D114">
-        <v>-0.06416078334555302</v>
+        <v>-0.06416078334555463</v>
       </c>
       <c r="E114">
-        <v>0.9495906240930498</v>
+        <v>0.9495906240930486</v>
       </c>
       <c r="F114">
-        <v>-0.005910187463225445</v>
+        <v>-0.005910187463225455</v>
       </c>
       <c r="G114">
-        <v>0.005561331547281645</v>
+        <v>0.005561331547281646</v>
       </c>
       <c r="H114">
         <v>-4</v>
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="B115">
-        <v>0.003343988526398681</v>
+        <v>0.003343988526398699</v>
       </c>
       <c r="C115">
-        <v>0.005225855930206251</v>
+        <v>0.005225855930206255</v>
       </c>
       <c r="D115">
-        <v>0.6398929804149236</v>
+        <v>0.6398929804149267</v>
       </c>
       <c r="E115">
-        <v>0.530772246144237</v>
+        <v>0.530772246144235</v>
       </c>
       <c r="F115">
-        <v>-0.007681603722663084</v>
+        <v>-0.007681603722663074</v>
       </c>
       <c r="G115">
-        <v>0.01436958077546045</v>
+        <v>0.01436958077546047</v>
       </c>
       <c r="H115">
         <v>-3</v>
@@ -4173,22 +4173,22 @@
         </is>
       </c>
       <c r="B116">
-        <v>0.01079057507820933</v>
+        <v>0.01079057507820934</v>
       </c>
       <c r="C116">
         <v>0.006224541145367867</v>
       </c>
       <c r="D116">
-        <v>1.733553498355358</v>
+        <v>1.733553498355359</v>
       </c>
       <c r="E116">
-        <v>0.1010945773461605</v>
+        <v>0.1010945773461604</v>
       </c>
       <c r="F116">
-        <v>-0.00234205879515223</v>
+        <v>-0.002342058795152223</v>
       </c>
       <c r="G116">
-        <v>0.02392320895157089</v>
+        <v>0.0239232089515709</v>
       </c>
       <c r="H116">
         <v>-2</v>
@@ -4206,22 +4206,22 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.01013502623148396</v>
+        <v>0.01013502623148399</v>
       </c>
       <c r="C117">
-        <v>0.005372239189455534</v>
+        <v>0.005372239189455529</v>
       </c>
       <c r="D117">
-        <v>1.886555284317325</v>
+        <v>1.886555284317331</v>
       </c>
       <c r="E117">
-        <v>0.09184014101836659</v>
+        <v>0.09184014101836567</v>
       </c>
       <c r="F117">
-        <v>-0.002017823131208097</v>
+        <v>-0.002017823131208062</v>
       </c>
       <c r="G117">
-        <v>0.02228787559417602</v>
+        <v>0.02228787559417603</v>
       </c>
       <c r="H117">
         <v>-5</v>
@@ -4239,22 +4239,22 @@
         </is>
       </c>
       <c r="B118">
-        <v>0.003353136987576735</v>
+        <v>0.003353136987576711</v>
       </c>
       <c r="C118">
-        <v>0.006491490170431385</v>
+        <v>0.006491490170431372</v>
       </c>
       <c r="D118">
-        <v>0.5165434899447604</v>
+        <v>0.5165434899447577</v>
       </c>
       <c r="E118">
-        <v>0.6179265263077718</v>
+        <v>0.6179265263077736</v>
       </c>
       <c r="F118">
         <v>-0.01133163399869876</v>
       </c>
       <c r="G118">
-        <v>0.01803790797385223</v>
+        <v>0.01803790797385218</v>
       </c>
       <c r="H118">
         <v>-4</v>
@@ -4272,22 +4272,22 @@
         </is>
       </c>
       <c r="B119">
-        <v>-0.006663446661547978</v>
+        <v>-0.006663446661547986</v>
       </c>
       <c r="C119">
-        <v>0.00351838406157978</v>
+        <v>0.003518384061579782</v>
       </c>
       <c r="D119">
-        <v>-1.89389405616965</v>
+        <v>-1.893894056169651</v>
       </c>
       <c r="E119">
-        <v>0.0907697245713944</v>
+        <v>0.0907697245713943</v>
       </c>
       <c r="F119">
-        <v>-0.01462258436792572</v>
+        <v>-0.01462258436792573</v>
       </c>
       <c r="G119">
-        <v>0.001295691044829761</v>
+        <v>0.001295691044829758</v>
       </c>
       <c r="H119">
         <v>-3</v>
@@ -4311,13 +4311,13 @@
         <v>0.003747631844877738</v>
       </c>
       <c r="D120">
-        <v>3.090874147889405</v>
+        <v>3.090874147889406</v>
       </c>
       <c r="E120">
-        <v>0.01291123779825659</v>
+        <v>0.01291123779825658</v>
       </c>
       <c r="F120">
-        <v>0.003105726163718852</v>
+        <v>0.003105726163718854</v>
       </c>
       <c r="G120">
         <v>0.0200611906065605</v>
@@ -4338,22 +4338,22 @@
         </is>
       </c>
       <c r="B121">
-        <v>-0.004939669032374559</v>
+        <v>-0.00493966903237456</v>
       </c>
       <c r="C121">
-        <v>0.002950111760783565</v>
+        <v>0.002950111760783563</v>
       </c>
       <c r="D121">
-        <v>-1.674400644083585</v>
+        <v>-1.674400644083586</v>
       </c>
       <c r="E121">
-        <v>0.1179263622537787</v>
+        <v>0.1179263622537784</v>
       </c>
       <c r="F121">
         <v>-0.01131299801343363</v>
       </c>
       <c r="G121">
-        <v>0.001433659948684512</v>
+        <v>0.001433659948684506</v>
       </c>
       <c r="H121">
         <v>-5</v>
@@ -4371,22 +4371,22 @@
         </is>
       </c>
       <c r="B122">
-        <v>0.01023344311538337</v>
+        <v>0.01023344311538327</v>
       </c>
       <c r="C122">
-        <v>0.004369023844559916</v>
+        <v>0.004369023844559918</v>
       </c>
       <c r="D122">
-        <v>2.342272205294902</v>
+        <v>2.342272205294878</v>
       </c>
       <c r="E122">
-        <v>0.03573698532704955</v>
+        <v>0.03573698532705123</v>
       </c>
       <c r="F122">
-        <v>0.0007947409422575605</v>
+        <v>0.0007947409422574547</v>
       </c>
       <c r="G122">
-        <v>0.01967214528850917</v>
+        <v>0.01967214528850908</v>
       </c>
       <c r="H122">
         <v>-4</v>
@@ -4404,22 +4404,22 @@
         </is>
       </c>
       <c r="B123">
-        <v>0.01242729419012301</v>
+        <v>0.01242729419012302</v>
       </c>
       <c r="C123">
-        <v>0.002786819137938869</v>
+        <v>0.002786819137938868</v>
       </c>
       <c r="D123">
-        <v>4.459311342075194</v>
+        <v>4.459311342075199</v>
       </c>
       <c r="E123">
-        <v>0.0006435276027913483</v>
+        <v>0.0006435276027913439</v>
       </c>
       <c r="F123">
-        <v>0.006406737473289225</v>
+        <v>0.006406737473289235</v>
       </c>
       <c r="G123">
-        <v>0.0184478509069568</v>
+        <v>0.01844785090695681</v>
       </c>
       <c r="H123">
         <v>-3</v>
@@ -4437,22 +4437,22 @@
         </is>
       </c>
       <c r="B124">
-        <v>0.02733511032569547</v>
+        <v>0.02733511032569531</v>
       </c>
       <c r="C124">
-        <v>0.006053350836547013</v>
+        <v>0.006053350836547018</v>
       </c>
       <c r="D124">
-        <v>4.515699001065683</v>
+        <v>4.515699001065653</v>
       </c>
       <c r="E124">
-        <v>0.0005803825691341727</v>
+        <v>0.0005803825691342049</v>
       </c>
       <c r="F124">
-        <v>0.01425764091184648</v>
+        <v>0.01425764091184631</v>
       </c>
       <c r="G124">
-        <v>0.04041257973954446</v>
+        <v>0.0404125797395443</v>
       </c>
       <c r="H124">
         <v>-2</v>
@@ -4470,22 +4470,22 @@
         </is>
       </c>
       <c r="B125">
-        <v>0.02079291628523551</v>
+        <v>0.02079291628523552</v>
       </c>
       <c r="C125">
-        <v>0.01162450986443872</v>
+        <v>0.01162450986443873</v>
       </c>
       <c r="D125">
         <v>1.788713376109254</v>
       </c>
       <c r="E125">
-        <v>0.08231972680047414</v>
+        <v>0.0823197268004741</v>
       </c>
       <c r="F125">
         <v>-0.002806093352585852</v>
       </c>
       <c r="G125">
-        <v>0.04439192592305687</v>
+        <v>0.04439192592305689</v>
       </c>
       <c r="H125">
         <v>-5</v>
@@ -4503,22 +4503,22 @@
         </is>
       </c>
       <c r="B126">
-        <v>0.008845040249376927</v>
+        <v>0.008845040249376943</v>
       </c>
       <c r="C126">
         <v>0.01193838609660827</v>
       </c>
       <c r="D126">
-        <v>0.7408907852201085</v>
+        <v>0.7408907852201096</v>
       </c>
       <c r="E126">
-        <v>0.4637016760217024</v>
+        <v>0.4637016760217018</v>
       </c>
       <c r="F126">
-        <v>-0.01539117201586118</v>
+        <v>-0.01539117201586117</v>
       </c>
       <c r="G126">
-        <v>0.03308125251461504</v>
+        <v>0.03308125251461506</v>
       </c>
       <c r="H126">
         <v>-4</v>
@@ -4536,22 +4536,22 @@
         </is>
       </c>
       <c r="B127">
-        <v>0.002363036380145143</v>
+        <v>0.002363036380145174</v>
       </c>
       <c r="C127">
-        <v>0.008763307421257614</v>
+        <v>0.008763307421257615</v>
       </c>
       <c r="D127">
-        <v>0.2696512020579127</v>
+        <v>0.2696512020579162</v>
       </c>
       <c r="E127">
-        <v>0.7890120932420472</v>
+        <v>0.7890120932420446</v>
       </c>
       <c r="F127">
-        <v>-0.015427423493445</v>
+        <v>-0.01542742349344497</v>
       </c>
       <c r="G127">
-        <v>0.02015349625373529</v>
+        <v>0.02015349625373532</v>
       </c>
       <c r="H127">
         <v>-3</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="B128">
-        <v>0.01789069378297792</v>
+        <v>0.01789069378297795</v>
       </c>
       <c r="C128">
         <v>0.02245941290988378</v>
       </c>
       <c r="D128">
-        <v>0.7965788711736411</v>
+        <v>0.7965788711736419</v>
       </c>
       <c r="E128">
-        <v>0.4310660941017328</v>
+        <v>0.4310660941017324</v>
       </c>
       <c r="F128">
-        <v>-0.02770433842922523</v>
+        <v>-0.02770433842922522</v>
       </c>
       <c r="G128">
-        <v>0.06348572599518108</v>
+        <v>0.06348572599518111</v>
       </c>
       <c r="H128">
         <v>-2</v>
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="B129">
-        <v>-0.004415492972468065</v>
+        <v>-0.004415492972468031</v>
       </c>
       <c r="C129">
-        <v>0.002106126886051405</v>
+        <v>0.002106126886051408</v>
       </c>
       <c r="D129">
-        <v>-2.096499029432311</v>
+        <v>-2.096499029432291</v>
       </c>
       <c r="E129">
-        <v>0.09015292928113508</v>
+        <v>0.09015292928113726</v>
       </c>
       <c r="F129">
-        <v>-0.009829464489297078</v>
+        <v>-0.009829464489297052</v>
       </c>
       <c r="G129">
-        <v>0.0009984785443609484</v>
+        <v>0.0009984785443609909</v>
       </c>
       <c r="H129">
         <v>-5</v>
@@ -4635,22 +4635,22 @@
         </is>
       </c>
       <c r="B130">
-        <v>-0.006078044605520961</v>
+        <v>-0.00607804460552099</v>
       </c>
       <c r="C130">
-        <v>0.005964667852107053</v>
+        <v>0.005964667852107058</v>
       </c>
       <c r="D130">
-        <v>-1.019008058155972</v>
+        <v>-1.019008058155976</v>
       </c>
       <c r="E130">
-        <v>0.3549452947732404</v>
+        <v>0.3549452947732386</v>
       </c>
       <c r="F130">
-        <v>-0.02141071144175122</v>
+        <v>-0.02141071144175126</v>
       </c>
       <c r="G130">
-        <v>0.009254622230709296</v>
+        <v>0.00925462223070928</v>
       </c>
       <c r="H130">
         <v>-4</v>
@@ -4668,22 +4668,22 @@
         </is>
       </c>
       <c r="B131">
-        <v>-0.0009544199524968318</v>
+        <v>-0.0009544199524968273</v>
       </c>
       <c r="C131">
-        <v>0.002065875288355406</v>
+        <v>0.002065875288355405</v>
       </c>
       <c r="D131">
-        <v>-0.4619930147170805</v>
+        <v>-0.4619930147170785</v>
       </c>
       <c r="E131">
-        <v>0.6634915696801156</v>
+        <v>0.6634915696801168</v>
       </c>
       <c r="F131">
-        <v>-0.006264921443433169</v>
+        <v>-0.006264921443433161</v>
       </c>
       <c r="G131">
-        <v>0.004356081538439505</v>
+        <v>0.004356081538439508</v>
       </c>
       <c r="H131">
         <v>-3</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B132">
-        <v>0.0004620467558551116</v>
+        <v>0.0004620467558551359</v>
       </c>
       <c r="C132">
-        <v>0.002995391795437933</v>
+        <v>0.002995391795437916</v>
       </c>
       <c r="D132">
-        <v>0.1542525276856343</v>
+        <v>0.1542525276856433</v>
       </c>
       <c r="E132">
-        <v>0.8834435547286142</v>
+        <v>0.8834435547286075</v>
       </c>
       <c r="F132">
-        <v>-0.007237852984111683</v>
+        <v>-0.007237852984111615</v>
       </c>
       <c r="G132">
-        <v>0.008161946495821906</v>
+        <v>0.008161946495821887</v>
       </c>
       <c r="H132">
         <v>-2</v>
@@ -4734,22 +4734,22 @@
         </is>
       </c>
       <c r="B133">
-        <v>0.002315013725389234</v>
+        <v>0.002315013725389282</v>
       </c>
       <c r="C133">
-        <v>0.005464249051048906</v>
+        <v>0.005464249051048882</v>
       </c>
       <c r="D133">
-        <v>0.423665485185901</v>
+        <v>0.4236654851859116</v>
       </c>
       <c r="E133">
-        <v>0.6817552169547805</v>
+        <v>0.6817552169547729</v>
       </c>
       <c r="F133">
-        <v>-0.01004597640475434</v>
+        <v>-0.01004597640475424</v>
       </c>
       <c r="G133">
-        <v>0.01467600385553281</v>
+        <v>0.0146760038555328</v>
       </c>
       <c r="H133">
         <v>-5</v>
@@ -4767,22 +4767,22 @@
         </is>
       </c>
       <c r="B134">
-        <v>-0.0007007297260451265</v>
+        <v>-0.0007007297260451322</v>
       </c>
       <c r="C134">
-        <v>0.002733307227876455</v>
+        <v>0.002733307227876487</v>
       </c>
       <c r="D134">
-        <v>-0.256366982422804</v>
+        <v>-0.2563669824228031</v>
       </c>
       <c r="E134">
-        <v>0.8034314242044922</v>
+        <v>0.8034314242044929</v>
       </c>
       <c r="F134">
-        <v>-0.006883900249713955</v>
+        <v>-0.006883900249714033</v>
       </c>
       <c r="G134">
-        <v>0.005482440797623702</v>
+        <v>0.005482440797623769</v>
       </c>
       <c r="H134">
         <v>-4</v>
@@ -4800,22 +4800,22 @@
         </is>
       </c>
       <c r="B135">
-        <v>-0.02667051369657285</v>
+        <v>-0.02667051369657259</v>
       </c>
       <c r="C135">
-        <v>0.01179060299646603</v>
+        <v>0.011790602996466</v>
       </c>
       <c r="D135">
-        <v>-2.262014394392445</v>
+        <v>-2.262014394392429</v>
       </c>
       <c r="E135">
-        <v>0.05001166886042265</v>
+        <v>0.05001166886042389</v>
       </c>
       <c r="F135">
-        <v>-0.05334271071873846</v>
+        <v>-0.05334271071873811</v>
       </c>
       <c r="G135">
-        <v>1.683325592756468e-06</v>
+        <v>1.683325592940349e-06</v>
       </c>
       <c r="H135">
         <v>-3</v>
@@ -4833,22 +4833,22 @@
         </is>
       </c>
       <c r="B136">
-        <v>0.0007600760124043477</v>
+        <v>0.0007600760124043789</v>
       </c>
       <c r="C136">
-        <v>0.004074318942176596</v>
+        <v>0.004074318942176577</v>
       </c>
       <c r="D136">
-        <v>0.1865528995622266</v>
+        <v>0.1865528995622351</v>
       </c>
       <c r="E136">
-        <v>0.8561485397841362</v>
+        <v>0.8561485397841297</v>
       </c>
       <c r="F136">
-        <v>-0.008456673766164845</v>
+        <v>-0.008456673766164768</v>
       </c>
       <c r="G136">
-        <v>0.009976825790973538</v>
+        <v>0.009976825790973528</v>
       </c>
       <c r="H136">
         <v>-2</v>
@@ -4866,22 +4866,22 @@
         </is>
       </c>
       <c r="B137">
-        <v>-0.009431752558943891</v>
+        <v>-0.009431752558943768</v>
       </c>
       <c r="C137">
         <v>0.00866719401099569</v>
       </c>
       <c r="D137">
-        <v>-1.088212926464809</v>
+        <v>-1.088212926464795</v>
       </c>
       <c r="E137">
-        <v>0.2888330566452171</v>
+        <v>0.2888330566452232</v>
       </c>
       <c r="F137">
-        <v>-0.02745616921915136</v>
+        <v>-0.02745616921915124</v>
       </c>
       <c r="G137">
-        <v>0.008592664101263579</v>
+        <v>0.008592664101263702</v>
       </c>
       <c r="H137">
         <v>-5</v>
@@ -4899,22 +4899,22 @@
         </is>
       </c>
       <c r="B138">
-        <v>0.0086655000778698</v>
+        <v>0.008665500077869901</v>
       </c>
       <c r="C138">
         <v>0.005958980135238633</v>
       </c>
       <c r="D138">
-        <v>1.454191804840239</v>
+        <v>1.454191804840256</v>
       </c>
       <c r="E138">
-        <v>0.1606768905999804</v>
+        <v>0.1606768905999757</v>
       </c>
       <c r="F138">
-        <v>-0.003726877511829683</v>
+        <v>-0.003726877511829582</v>
       </c>
       <c r="G138">
-        <v>0.02105787766756928</v>
+        <v>0.02105787766756938</v>
       </c>
       <c r="H138">
         <v>-4</v>
@@ -4932,22 +4932,22 @@
         </is>
       </c>
       <c r="B139">
-        <v>-0.0006271474445962381</v>
+        <v>-0.0006271474445961715</v>
       </c>
       <c r="C139">
-        <v>0.009467273506299181</v>
+        <v>0.009467273506299178</v>
       </c>
       <c r="D139">
-        <v>-0.06624372309292183</v>
+        <v>-0.06624372309291482</v>
       </c>
       <c r="E139">
-        <v>0.9478104036808449</v>
+        <v>0.9478104036808505</v>
       </c>
       <c r="F139">
-        <v>-0.02031542050011959</v>
+        <v>-0.02031542050011951</v>
       </c>
       <c r="G139">
-        <v>0.01906112561092711</v>
+        <v>0.01906112561092717</v>
       </c>
       <c r="H139">
         <v>-3</v>
@@ -4965,22 +4965,22 @@
         </is>
       </c>
       <c r="B140">
-        <v>-0.003031855829179337</v>
+        <v>-0.003031855829179157</v>
       </c>
       <c r="C140">
-        <v>0.006680547552124751</v>
+        <v>0.006680547552124752</v>
       </c>
       <c r="D140">
-        <v>-0.453833432892047</v>
+        <v>-0.45383343289202</v>
       </c>
       <c r="E140">
-        <v>0.6546040959759589</v>
+        <v>0.654604095975978</v>
       </c>
       <c r="F140">
-        <v>-0.01692481500893958</v>
+        <v>-0.0169248150089394</v>
       </c>
       <c r="G140">
-        <v>0.01086110335058091</v>
+        <v>0.01086110335058109</v>
       </c>
       <c r="H140">
         <v>-2</v>
@@ -4998,22 +4998,22 @@
         </is>
       </c>
       <c r="B141">
-        <v>-0.002457345321620079</v>
+        <v>-0.002457345321620113</v>
       </c>
       <c r="C141">
-        <v>0.009342857859323149</v>
+        <v>0.009342857859323154</v>
       </c>
       <c r="D141">
-        <v>-0.2630185922359846</v>
+        <v>-0.263018592235988</v>
       </c>
       <c r="E141">
-        <v>0.7978759096841362</v>
+        <v>0.7978759096841337</v>
       </c>
       <c r="F141">
-        <v>-0.0232745299065633</v>
+        <v>-0.02327452990656334</v>
       </c>
       <c r="G141">
-        <v>0.01835983926332314</v>
+        <v>0.01835983926332312</v>
       </c>
       <c r="H141">
         <v>-5</v>
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="B142">
-        <v>-0.00773732731839176</v>
+        <v>-0.007737327318391811</v>
       </c>
       <c r="C142">
-        <v>0.00518452739791859</v>
+        <v>0.005184527397918579</v>
       </c>
       <c r="D142">
-        <v>-1.492388162804971</v>
+        <v>-1.492388162804984</v>
       </c>
       <c r="E142">
-        <v>0.1664574738421109</v>
+        <v>0.1664574738421075</v>
       </c>
       <c r="F142">
-        <v>-0.01928917424288147</v>
+        <v>-0.0192891742428815</v>
       </c>
       <c r="G142">
-        <v>0.003814519606097952</v>
+        <v>0.003814519606097875</v>
       </c>
       <c r="H142">
         <v>-4</v>
@@ -5064,22 +5064,22 @@
         </is>
       </c>
       <c r="B143">
-        <v>0.000741540161194343</v>
+        <v>0.0007415401611943098</v>
       </c>
       <c r="C143">
         <v>0.007967376836534024</v>
       </c>
       <c r="D143">
-        <v>0.09307205827067777</v>
+        <v>0.09307205827067359</v>
       </c>
       <c r="E143">
-        <v>0.9276845966756354</v>
+        <v>0.9276845966756386</v>
       </c>
       <c r="F143">
-        <v>-0.01701088171670261</v>
+        <v>-0.01701088171670264</v>
       </c>
       <c r="G143">
-        <v>0.01849396203909129</v>
+        <v>0.01849396203909126</v>
       </c>
       <c r="H143">
         <v>-3</v>
@@ -5097,22 +5097,22 @@
         </is>
       </c>
       <c r="B144">
-        <v>-0.01210342637137666</v>
+        <v>-0.01210342637137667</v>
       </c>
       <c r="C144">
-        <v>0.002765582307669552</v>
+        <v>0.002765582307669551</v>
       </c>
       <c r="D144">
-        <v>-4.376447715119981</v>
+        <v>-4.376447715119988</v>
       </c>
       <c r="E144">
-        <v>0.001385065894297544</v>
+        <v>0.001385065894297531</v>
       </c>
       <c r="F144">
-        <v>-0.01826552775946104</v>
+        <v>-0.01826552775946105</v>
       </c>
       <c r="G144">
-        <v>-0.005941324983292269</v>
+        <v>-0.005941324983292287</v>
       </c>
       <c r="H144">
         <v>-2</v>
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="B145">
-        <v>0.009704607011253074</v>
+        <v>0.009704607011253146</v>
       </c>
       <c r="C145">
-        <v>0.004710483431347082</v>
+        <v>0.004710483431347065</v>
       </c>
       <c r="D145">
-        <v>2.060214657941764</v>
+        <v>2.060214657941787</v>
       </c>
       <c r="E145">
-        <v>0.0617474286281549</v>
+        <v>0.06174742862815235</v>
       </c>
       <c r="F145">
-        <v>-0.0005586547229008577</v>
+        <v>-0.0005586547229007484</v>
       </c>
       <c r="G145">
-        <v>0.01996786874540701</v>
+        <v>0.01996786874540704</v>
       </c>
       <c r="H145">
         <v>-5</v>
@@ -5163,22 +5163,22 @@
         </is>
       </c>
       <c r="B146">
-        <v>-0.006907967853984369</v>
+        <v>-0.006907967853984216</v>
       </c>
       <c r="C146">
-        <v>0.00708271112919822</v>
+        <v>0.007082711129198237</v>
       </c>
       <c r="D146">
-        <v>-0.9753281939604344</v>
+        <v>-0.9753281939604105</v>
       </c>
       <c r="E146">
-        <v>0.3486496646900564</v>
+        <v>0.3486496646900678</v>
       </c>
       <c r="F146">
-        <v>-0.02233986973110831</v>
+        <v>-0.0223398697311082</v>
       </c>
       <c r="G146">
-        <v>0.008523934023139576</v>
+        <v>0.008523934023139765</v>
       </c>
       <c r="H146">
         <v>-4</v>
@@ -5196,22 +5196,22 @@
         </is>
       </c>
       <c r="B147">
-        <v>-0.009502224762400533</v>
+        <v>-0.009502224762400417</v>
       </c>
       <c r="C147">
-        <v>0.004707135738720818</v>
+        <v>0.004707135738720832</v>
       </c>
       <c r="D147">
-        <v>-2.01868509638152</v>
+        <v>-2.01868509638149</v>
       </c>
       <c r="E147">
-        <v>0.06643830118408592</v>
+        <v>0.06643830118408948</v>
       </c>
       <c r="F147">
-        <v>-0.01975819250091058</v>
+        <v>-0.01975819250091049</v>
       </c>
       <c r="G147">
-        <v>0.0007537429761095126</v>
+        <v>0.0007537429761096583</v>
       </c>
       <c r="H147">
         <v>-3</v>
@@ -5229,22 +5229,22 @@
         </is>
       </c>
       <c r="B148">
-        <v>-0.0009203933337762094</v>
+        <v>-0.0009203933337761897</v>
       </c>
       <c r="C148">
-        <v>0.002838359966790219</v>
+        <v>0.002838359966790216</v>
       </c>
       <c r="D148">
-        <v>-0.3242694177430367</v>
+        <v>-0.3242694177430301</v>
       </c>
       <c r="E148">
-        <v>0.751316577676623</v>
+        <v>0.7513165776766279</v>
       </c>
       <c r="F148">
-        <v>-0.007104648444632587</v>
+        <v>-0.007104648444632562</v>
       </c>
       <c r="G148">
-        <v>0.005263861777080168</v>
+        <v>0.005263861777080183</v>
       </c>
       <c r="H148">
         <v>-2</v>
@@ -5262,22 +5262,22 @@
         </is>
       </c>
       <c r="B149">
-        <v>-5.709650831963505e-05</v>
+        <v>-5.70965083196498e-05</v>
       </c>
       <c r="C149">
-        <v>0.003607244886008462</v>
+        <v>0.003607244886008465</v>
       </c>
       <c r="D149">
-        <v>-0.0158282872729537</v>
+        <v>-0.01582828727295777</v>
       </c>
       <c r="E149">
-        <v>0.987487766157088</v>
+        <v>0.9874877661570847</v>
       </c>
       <c r="F149">
-        <v>-0.007458551645849244</v>
+        <v>-0.007458551645849266</v>
       </c>
       <c r="G149">
-        <v>0.007344358629209974</v>
+        <v>0.007344358629209967</v>
       </c>
       <c r="H149">
         <v>-5</v>
@@ -5295,22 +5295,22 @@
         </is>
       </c>
       <c r="B150">
-        <v>-0.00340995186496494</v>
+        <v>-0.003409951864964926</v>
       </c>
       <c r="C150">
-        <v>0.00327931359029406</v>
+        <v>0.003279313590294057</v>
       </c>
       <c r="D150">
-        <v>-1.039837079033105</v>
+        <v>-1.039837079033102</v>
       </c>
       <c r="E150">
-        <v>0.3076381997375752</v>
+        <v>0.3076381997375765</v>
       </c>
       <c r="F150">
-        <v>-0.01013854756263882</v>
+        <v>-0.0101385475626388</v>
       </c>
       <c r="G150">
-        <v>0.00331864383270894</v>
+        <v>0.003318643832708947</v>
       </c>
       <c r="H150">
         <v>-4</v>
@@ -5328,22 +5328,22 @@
         </is>
       </c>
       <c r="B151">
-        <v>0.007254236275418203</v>
+        <v>0.007254236275418245</v>
       </c>
       <c r="C151">
-        <v>0.002304636732246394</v>
+        <v>0.002304636732246399</v>
       </c>
       <c r="D151">
-        <v>3.147670161599522</v>
+        <v>3.147670161599535</v>
       </c>
       <c r="E151">
-        <v>0.003988406181444017</v>
+        <v>0.003988406181443889</v>
       </c>
       <c r="F151">
-        <v>0.002525512298793648</v>
+        <v>0.002525512298793681</v>
       </c>
       <c r="G151">
-        <v>0.01198296025204276</v>
+        <v>0.01198296025204281</v>
       </c>
       <c r="H151">
         <v>-3</v>
@@ -5361,22 +5361,22 @@
         </is>
       </c>
       <c r="B152">
-        <v>0.008869018996212254</v>
+        <v>0.008869018996212268</v>
       </c>
       <c r="C152">
-        <v>0.004745940053504747</v>
+        <v>0.004745940053504755</v>
       </c>
       <c r="D152">
         <v>1.868759170201218</v>
       </c>
       <c r="E152">
-        <v>0.0725419858975342</v>
+        <v>0.07254198589753423</v>
       </c>
       <c r="F152">
-        <v>-0.000868845634954863</v>
+        <v>-0.0008688456349548648</v>
       </c>
       <c r="G152">
-        <v>0.01860688362737937</v>
+        <v>0.0186068836273794</v>
       </c>
       <c r="H152">
         <v>-2</v>
@@ -5394,22 +5394,22 @@
         </is>
       </c>
       <c r="B153">
-        <v>0.009455798684950048</v>
+        <v>0.00945579868495007</v>
       </c>
       <c r="C153">
-        <v>0.01456082930593606</v>
+        <v>0.01456082930593607</v>
       </c>
       <c r="D153">
-        <v>0.6493997344708362</v>
+        <v>0.6493997344708373</v>
       </c>
       <c r="E153">
-        <v>0.5283145741581855</v>
+        <v>0.5283145741581849</v>
       </c>
       <c r="F153">
         <v>-0.022269523017418</v>
       </c>
       <c r="G153">
-        <v>0.0411811203873181</v>
+        <v>0.04118112038731814</v>
       </c>
       <c r="H153">
         <v>-2</v>
@@ -5427,22 +5427,22 @@
         </is>
       </c>
       <c r="B154">
-        <v>0.01168669485310458</v>
+        <v>0.01168669485310439</v>
       </c>
       <c r="C154">
-        <v>0.01354653241622219</v>
+        <v>0.01354653241622217</v>
       </c>
       <c r="D154">
-        <v>0.8627074807062485</v>
+        <v>0.8627074807062366</v>
       </c>
       <c r="E154">
-        <v>0.41341146759225</v>
+        <v>0.413411467592256</v>
       </c>
       <c r="F154">
-        <v>-0.01955166491638108</v>
+        <v>-0.0195516649163812</v>
       </c>
       <c r="G154">
-        <v>0.04292505462259023</v>
+        <v>0.04292505462258998</v>
       </c>
       <c r="H154">
         <v>-5</v>
@@ -5460,22 +5460,22 @@
         </is>
       </c>
       <c r="B155">
-        <v>-0.0391361522583757</v>
+        <v>-0.03913615225837556</v>
       </c>
       <c r="C155">
-        <v>0.01195135163477212</v>
+        <v>0.0119513516347721</v>
       </c>
       <c r="D155">
-        <v>-3.274621436500134</v>
+        <v>-3.274621436500128</v>
       </c>
       <c r="E155">
-        <v>0.01127805809220958</v>
+        <v>0.01127805809220968</v>
       </c>
       <c r="F155">
-        <v>-0.06669601854943927</v>
+        <v>-0.06669601854943909</v>
       </c>
       <c r="G155">
-        <v>-0.01157628596731212</v>
+        <v>-0.01157628596731204</v>
       </c>
       <c r="H155">
         <v>-4</v>
@@ -5493,22 +5493,22 @@
         </is>
       </c>
       <c r="B156">
-        <v>0.06407000401657877</v>
+        <v>0.06407000401657903</v>
       </c>
       <c r="C156">
-        <v>0.009905117651502449</v>
+        <v>0.009905117651502456</v>
       </c>
       <c r="D156">
-        <v>6.468373851860343</v>
+        <v>6.468373851860365</v>
       </c>
       <c r="E156">
-        <v>0.0001944906328600284</v>
+        <v>0.0001944906328600239</v>
       </c>
       <c r="F156">
-        <v>0.04122876175253035</v>
+        <v>0.0412287617525306</v>
       </c>
       <c r="G156">
-        <v>0.08691124628062719</v>
+        <v>0.08691124628062746</v>
       </c>
       <c r="H156">
         <v>-3</v>
@@ -5526,22 +5526,22 @@
         </is>
       </c>
       <c r="B157">
-        <v>0.009236058056969051</v>
+        <v>0.009236058056969292</v>
       </c>
       <c r="C157">
-        <v>0.008412111948823048</v>
+        <v>0.008412111948823088</v>
       </c>
       <c r="D157">
-        <v>1.097947591895907</v>
+        <v>1.09794759189593</v>
       </c>
       <c r="E157">
-        <v>0.3041708596602288</v>
+        <v>0.3041708596602194</v>
       </c>
       <c r="F157">
-        <v>-0.01016230688281727</v>
+        <v>-0.01016230688281712</v>
       </c>
       <c r="G157">
-        <v>0.02863442299675537</v>
+        <v>0.02863442299675571</v>
       </c>
       <c r="H157">
         <v>-2</v>
@@ -5559,22 +5559,22 @@
         </is>
       </c>
       <c r="B158">
-        <v>0.007881874125841501</v>
+        <v>0.00788187412584143</v>
       </c>
       <c r="C158">
-        <v>0.006930769642693874</v>
+        <v>0.006930769642693878</v>
       </c>
       <c r="D158">
-        <v>1.137229273541105</v>
+        <v>1.137229273541094</v>
       </c>
       <c r="E158">
-        <v>0.2721874794688504</v>
+        <v>0.2721874794688548</v>
       </c>
       <c r="F158">
-        <v>-0.006810701167387041</v>
+        <v>-0.00681070116738712</v>
       </c>
       <c r="G158">
-        <v>0.02257444941907004</v>
+        <v>0.02257444941906998</v>
       </c>
       <c r="H158">
         <v>-5</v>
@@ -5592,22 +5592,22 @@
         </is>
       </c>
       <c r="B159">
-        <v>0.0009301895497869162</v>
+        <v>0.0009301895497869264</v>
       </c>
       <c r="C159">
-        <v>0.006077878584740544</v>
+        <v>0.006077878584740554</v>
       </c>
       <c r="D159">
-        <v>0.1530451023030143</v>
+        <v>0.1530451023030157</v>
       </c>
       <c r="E159">
-        <v>0.8802762103385182</v>
+        <v>0.8802762103385171</v>
       </c>
       <c r="F159">
-        <v>-0.01195433747002794</v>
+        <v>-0.01195433747002795</v>
       </c>
       <c r="G159">
-        <v>0.01381471656960177</v>
+        <v>0.0138147165696018</v>
       </c>
       <c r="H159">
         <v>-4</v>
@@ -5625,22 +5625,22 @@
         </is>
       </c>
       <c r="B160">
-        <v>0.005045469712999262</v>
+        <v>0.005045469712999294</v>
       </c>
       <c r="C160">
-        <v>0.007763524453701123</v>
+        <v>0.007763524453701133</v>
       </c>
       <c r="D160">
-        <v>0.6498942256302064</v>
+        <v>0.6498942256302096</v>
       </c>
       <c r="E160">
-        <v>0.5249823493492338</v>
+        <v>0.5249823493492317</v>
       </c>
       <c r="F160">
-        <v>-0.01141246691703554</v>
+        <v>-0.01141246691703553</v>
       </c>
       <c r="G160">
-        <v>0.02150340634303406</v>
+        <v>0.02150340634303412</v>
       </c>
       <c r="H160">
         <v>-3</v>
@@ -5658,22 +5658,22 @@
         </is>
       </c>
       <c r="B161">
-        <v>-0.001103759613178285</v>
+        <v>-0.001103759613178234</v>
       </c>
       <c r="C161">
-        <v>0.007857559388214402</v>
+        <v>0.007857559388214409</v>
       </c>
       <c r="D161">
-        <v>-0.1404710494245606</v>
+        <v>-0.1404710494245539</v>
       </c>
       <c r="E161">
-        <v>0.8900410488234596</v>
+        <v>0.8900410488234647</v>
       </c>
       <c r="F161">
-        <v>-0.01776104139919971</v>
+        <v>-0.01776104139919968</v>
       </c>
       <c r="G161">
-        <v>0.01555352217284314</v>
+        <v>0.01555352217284321</v>
       </c>
       <c r="H161">
         <v>-2</v>
@@ -5691,22 +5691,22 @@
         </is>
       </c>
       <c r="B162">
-        <v>0.02148830093003954</v>
+        <v>0.02148830093003972</v>
       </c>
       <c r="C162">
-        <v>0.01162736058459731</v>
+        <v>0.0116273605845973</v>
       </c>
       <c r="D162">
-        <v>1.848080720787567</v>
+        <v>1.848080720787584</v>
       </c>
       <c r="E162">
-        <v>0.1382967327736221</v>
+        <v>0.1382967327736194</v>
       </c>
       <c r="F162">
-        <v>-0.01079442745143541</v>
+        <v>-0.01079442745143521</v>
       </c>
       <c r="G162">
-        <v>0.05377102931151449</v>
+        <v>0.05377102931151465</v>
       </c>
       <c r="H162">
         <v>-5</v>
@@ -5724,22 +5724,22 @@
         </is>
       </c>
       <c r="B163">
-        <v>0.01934195084015066</v>
+        <v>0.01934195084015068</v>
       </c>
       <c r="C163">
-        <v>0.01147879444173962</v>
+        <v>0.01147879444173965</v>
       </c>
       <c r="D163">
-        <v>1.685015873253966</v>
+        <v>1.685015873253963</v>
       </c>
       <c r="E163">
-        <v>0.1672677565576783</v>
+        <v>0.1672677565576789</v>
       </c>
       <c r="F163">
-        <v>-0.01252829180118894</v>
+        <v>-0.01252829180118902</v>
       </c>
       <c r="G163">
-        <v>0.05121219348149027</v>
+        <v>0.05121219348149038</v>
       </c>
       <c r="H163">
         <v>-4</v>
@@ -5757,22 +5757,22 @@
         </is>
       </c>
       <c r="B164">
-        <v>0.02943580793195883</v>
+        <v>0.02943580793195897</v>
       </c>
       <c r="C164">
-        <v>0.006322344977985929</v>
+        <v>0.006322344977985939</v>
       </c>
       <c r="D164">
-        <v>4.655837040600087</v>
+        <v>4.655837040600101</v>
       </c>
       <c r="E164">
-        <v>0.009619411616479594</v>
+        <v>0.009619411616479494</v>
       </c>
       <c r="F164">
-        <v>0.01188216416445795</v>
+        <v>0.01188216416445806</v>
       </c>
       <c r="G164">
-        <v>0.04698945169945971</v>
+        <v>0.04698945169945988</v>
       </c>
       <c r="H164">
         <v>-3</v>
@@ -5790,22 +5790,22 @@
         </is>
       </c>
       <c r="B165">
-        <v>0.01429637807250742</v>
+        <v>0.01429637807250729</v>
       </c>
       <c r="C165">
-        <v>0.004254755595283021</v>
+        <v>0.004254755595282975</v>
       </c>
       <c r="D165">
-        <v>3.36009384143167</v>
+        <v>3.360093841431676</v>
       </c>
       <c r="E165">
-        <v>0.02830238045854224</v>
+        <v>0.02830238045854206</v>
       </c>
       <c r="F165">
         <v>0.00248328272617095</v>
       </c>
       <c r="G165">
-        <v>0.02610947341884388</v>
+        <v>0.02610947341884363</v>
       </c>
       <c r="H165">
         <v>-2</v>
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="B166">
-        <v>0.006544482737374498</v>
+        <v>0.006544482737374224</v>
       </c>
       <c r="C166">
-        <v>0.01123623404124255</v>
+        <v>0.01123623404124244</v>
       </c>
       <c r="D166">
-        <v>0.5824445017212174</v>
+        <v>0.5824445017211988</v>
       </c>
       <c r="E166">
-        <v>0.5814784194833538</v>
+        <v>0.5814784194833655</v>
       </c>
       <c r="F166">
         <v>-0.02094959150038042</v>
       </c>
       <c r="G166">
-        <v>0.03403855697512942</v>
+        <v>0.03403855697512887</v>
       </c>
       <c r="H166">
         <v>-5</v>
@@ -5856,22 +5856,22 @@
         </is>
       </c>
       <c r="B167">
-        <v>0.005028661785049382</v>
+        <v>0.005028661785049214</v>
       </c>
       <c r="C167">
-        <v>0.01036424499606837</v>
+        <v>0.0103642449960685</v>
       </c>
       <c r="D167">
-        <v>0.4851932569094016</v>
+        <v>0.4851932569093794</v>
       </c>
       <c r="E167">
-        <v>0.644745517448461</v>
+        <v>0.6447455174484759</v>
       </c>
       <c r="F167">
-        <v>-0.02033173212400026</v>
+        <v>-0.02033173212400075</v>
       </c>
       <c r="G167">
-        <v>0.03038905569409902</v>
+        <v>0.03038905569409917</v>
       </c>
       <c r="H167">
         <v>-4</v>
@@ -5889,22 +5889,22 @@
         </is>
       </c>
       <c r="B168">
-        <v>0.003338620190227042</v>
+        <v>0.003338620190226719</v>
       </c>
       <c r="C168">
-        <v>0.009023781139245519</v>
+        <v>0.009023781139245396</v>
       </c>
       <c r="D168">
-        <v>0.3699801822217272</v>
+        <v>0.3699801822216965</v>
       </c>
       <c r="E168">
-        <v>0.7241055028737355</v>
+        <v>0.7241055028737573</v>
       </c>
       <c r="F168">
-        <v>-0.01874177682153126</v>
+        <v>-0.01874177682153129</v>
       </c>
       <c r="G168">
-        <v>0.02541901720198535</v>
+        <v>0.02541901720198473</v>
       </c>
       <c r="H168">
         <v>-3</v>
@@ -5922,22 +5922,22 @@
         </is>
       </c>
       <c r="B169">
-        <v>0.0003528963082124461</v>
+        <v>0.0003528963082123197</v>
       </c>
       <c r="C169">
-        <v>0.005383135520305102</v>
+        <v>0.005383135520305131</v>
       </c>
       <c r="D169">
-        <v>0.06555590266701011</v>
+        <v>0.06555590266698627</v>
       </c>
       <c r="E169">
-        <v>0.9498611078160448</v>
+        <v>0.949861107816063</v>
       </c>
       <c r="F169">
-        <v>-0.01281916179274155</v>
+        <v>-0.01281916179274174</v>
       </c>
       <c r="G169">
-        <v>0.01352495440916644</v>
+        <v>0.01352495440916638</v>
       </c>
       <c r="H169">
         <v>-2</v>
@@ -6087,22 +6087,22 @@
         </is>
       </c>
       <c r="B174">
-        <v>0.003320549454842554</v>
+        <v>0.003320549454842526</v>
       </c>
       <c r="C174">
-        <v>0.003627582668341781</v>
+        <v>0.003627582668341779</v>
       </c>
       <c r="D174">
-        <v>0.9153614840596932</v>
+        <v>0.915361484059686</v>
       </c>
       <c r="E174">
-        <v>0.4117919024081789</v>
+        <v>0.411791902408182</v>
       </c>
       <c r="F174">
-        <v>-0.006751234688375333</v>
+        <v>-0.006751234688375356</v>
       </c>
       <c r="G174">
-        <v>0.01339233359806044</v>
+        <v>0.01339233359806041</v>
       </c>
       <c r="H174">
         <v>-5</v>
@@ -6120,22 +6120,22 @@
         </is>
       </c>
       <c r="B175">
-        <v>0.003944242737061279</v>
+        <v>0.003944242737061281</v>
       </c>
       <c r="C175">
-        <v>0.003298907030841809</v>
+        <v>0.003298907030841816</v>
       </c>
       <c r="D175">
-        <v>1.195621064851529</v>
+        <v>1.195621064851527</v>
       </c>
       <c r="E175">
-        <v>0.2978776623126457</v>
+        <v>0.2978776623126465</v>
       </c>
       <c r="F175">
-        <v>-0.005214991541222047</v>
+        <v>-0.005214991541222066</v>
       </c>
       <c r="G175">
-        <v>0.0131034770153446</v>
+        <v>0.01310347701534463</v>
       </c>
       <c r="H175">
         <v>-4</v>
@@ -6153,22 +6153,22 @@
         </is>
       </c>
       <c r="B176">
-        <v>-0.00414788924600203</v>
+        <v>-0.004147889246002036</v>
       </c>
       <c r="C176">
-        <v>0.003169295490817417</v>
+        <v>0.003169295490817403</v>
       </c>
       <c r="D176">
-        <v>-1.308773277222004</v>
+        <v>-1.308773277222012</v>
       </c>
       <c r="E176">
-        <v>0.2607388076960802</v>
+        <v>0.2607388076960781</v>
       </c>
       <c r="F176">
-        <v>-0.01294726419840748</v>
+        <v>-0.01294726419840745</v>
       </c>
       <c r="G176">
-        <v>0.004651485706403425</v>
+        <v>0.00465148570640338</v>
       </c>
       <c r="H176">
         <v>-3</v>
@@ -6186,22 +6186,22 @@
         </is>
       </c>
       <c r="B177">
-        <v>-0.005589409941351125</v>
+        <v>-0.00558940994135114</v>
       </c>
       <c r="C177">
         <v>0.001551084954072615</v>
       </c>
       <c r="D177">
-        <v>-3.603548552692268</v>
+        <v>-3.603548552692277</v>
       </c>
       <c r="E177">
-        <v>0.02268637975416725</v>
+        <v>0.02268637975416707</v>
       </c>
       <c r="F177">
-        <v>-0.009895912169831982</v>
+        <v>-0.009895912169831999</v>
       </c>
       <c r="G177">
-        <v>-0.001282907712870269</v>
+        <v>-0.001282907712870283</v>
       </c>
       <c r="H177">
         <v>-2</v>
@@ -6351,22 +6351,22 @@
         </is>
       </c>
       <c r="B182">
-        <v>-0.004023561986545528</v>
+        <v>-0.004023561986545376</v>
       </c>
       <c r="C182">
-        <v>0.003772082120440768</v>
+        <v>0.003772082120440775</v>
       </c>
       <c r="D182">
-        <v>-1.066668714538848</v>
+        <v>-1.066668714538806</v>
       </c>
       <c r="E182">
-        <v>0.3055309435831215</v>
+        <v>0.3055309435831397</v>
       </c>
       <c r="F182">
-        <v>-0.01217264996914947</v>
+        <v>-0.01217264996914933</v>
       </c>
       <c r="G182">
-        <v>0.004125525996058413</v>
+        <v>0.00412552599605858</v>
       </c>
       <c r="H182">
         <v>-5</v>
@@ -6384,22 +6384,22 @@
         </is>
       </c>
       <c r="B183">
-        <v>0.0004383996999457775</v>
+        <v>0.0004383996999458547</v>
       </c>
       <c r="C183">
-        <v>0.004139946721195869</v>
+        <v>0.00413994672119599</v>
       </c>
       <c r="D183">
-        <v>0.1058950101220484</v>
+        <v>0.1058950101220639</v>
       </c>
       <c r="E183">
-        <v>0.917282246037663</v>
+        <v>0.9172822460376509</v>
       </c>
       <c r="F183">
-        <v>-0.008505411435951682</v>
+        <v>-0.008505411435951866</v>
       </c>
       <c r="G183">
-        <v>0.009382210835843237</v>
+        <v>0.009382210835843577</v>
       </c>
       <c r="H183">
         <v>-4</v>
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="B184">
-        <v>0.004280064492635134</v>
+        <v>0.00428006449263518</v>
       </c>
       <c r="C184">
-        <v>0.004706670804367879</v>
+        <v>0.004706670804367912</v>
       </c>
       <c r="D184">
-        <v>0.9093613448943898</v>
+        <v>0.9093613448943932</v>
       </c>
       <c r="E184">
-        <v>0.3797103245374849</v>
+        <v>0.3797103245374832</v>
       </c>
       <c r="F184">
-        <v>-0.005888079589409748</v>
+        <v>-0.005888079589409773</v>
       </c>
       <c r="G184">
-        <v>0.01444820857468002</v>
+        <v>0.01444820857468013</v>
       </c>
       <c r="H184">
         <v>-3</v>
@@ -6450,22 +6450,22 @@
         </is>
       </c>
       <c r="B185">
-        <v>-0.009871770526236541</v>
+        <v>-0.009871770526236306</v>
       </c>
       <c r="C185">
-        <v>0.006540102382834208</v>
+        <v>0.006540102382834217</v>
       </c>
       <c r="D185">
-        <v>-1.509421404800475</v>
+        <v>-1.509421404800436</v>
       </c>
       <c r="E185">
-        <v>0.1551076201455545</v>
+        <v>0.1551076201455641</v>
       </c>
       <c r="F185">
-        <v>-0.02400080272416918</v>
+        <v>-0.02400080272416897</v>
       </c>
       <c r="G185">
-        <v>0.0042572616716961</v>
+        <v>0.004257261671696355</v>
       </c>
       <c r="H185">
         <v>-2</v>
@@ -6483,22 +6483,22 @@
         </is>
       </c>
       <c r="B186">
-        <v>0.007808681658001633</v>
+        <v>0.007808681658001751</v>
       </c>
       <c r="C186">
-        <v>0.01123567555953032</v>
+        <v>0.01123567555953033</v>
       </c>
       <c r="D186">
-        <v>0.6949899555775401</v>
+        <v>0.6949899555775505</v>
       </c>
       <c r="E186">
-        <v>0.4992959958293826</v>
+        <v>0.4992959958293762</v>
       </c>
       <c r="F186">
-        <v>-0.01646451965499272</v>
+        <v>-0.0164645196549926</v>
       </c>
       <c r="G186">
-        <v>0.03208188297099598</v>
+        <v>0.0320818829709961</v>
       </c>
       <c r="H186">
         <v>-2</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B187">
-        <v>-0.00185574467711065</v>
+        <v>-0.001855744677110619</v>
       </c>
       <c r="C187">
-        <v>0.01639313039467005</v>
+        <v>0.01639313039467008</v>
       </c>
       <c r="D187">
-        <v>-0.1132025813516383</v>
+        <v>-0.1132025813516362</v>
       </c>
       <c r="E187">
-        <v>0.9112781626362116</v>
+        <v>0.9112781626362133</v>
       </c>
       <c r="F187">
-        <v>-0.03660762867159669</v>
+        <v>-0.03660762867159672</v>
       </c>
       <c r="G187">
-        <v>0.03289613931737539</v>
+        <v>0.03289613931737548</v>
       </c>
       <c r="H187">
         <v>-5</v>
@@ -6549,22 +6549,22 @@
         </is>
       </c>
       <c r="B188">
-        <v>-0.01261304804487611</v>
+        <v>-0.0126130480448761</v>
       </c>
       <c r="C188">
-        <v>0.01362334748352218</v>
+        <v>0.01362334748352219</v>
       </c>
       <c r="D188">
-        <v>-0.9258405880149464</v>
+        <v>-0.9258405880149442</v>
       </c>
       <c r="E188">
-        <v>0.3682837352048891</v>
+        <v>0.3682837352048901</v>
       </c>
       <c r="F188">
-        <v>-0.04149325456832732</v>
+        <v>-0.04149325456832734</v>
       </c>
       <c r="G188">
-        <v>0.01626715847857509</v>
+        <v>0.01626715847857514</v>
       </c>
       <c r="H188">
         <v>-4</v>
@@ -6582,22 +6582,22 @@
         </is>
       </c>
       <c r="B189">
-        <v>-0.02823506803641901</v>
+        <v>-0.02823506803641875</v>
       </c>
       <c r="C189">
-        <v>0.01690125681805589</v>
+        <v>0.01690125681805592</v>
       </c>
       <c r="D189">
-        <v>-1.670589846682587</v>
+        <v>-1.670589846682569</v>
       </c>
       <c r="E189">
-        <v>0.1142449907111331</v>
+        <v>0.1142449907111367</v>
       </c>
       <c r="F189">
-        <v>-0.06406413192851504</v>
+        <v>-0.06406413192851484</v>
       </c>
       <c r="G189">
-        <v>0.007593995855677015</v>
+        <v>0.007593995855677341</v>
       </c>
       <c r="H189">
         <v>-3</v>
@@ -6615,22 +6615,22 @@
         </is>
       </c>
       <c r="B190">
-        <v>-0.03180538743649341</v>
+        <v>-0.03180538743649344</v>
       </c>
       <c r="C190">
         <v>0.02285091369637655</v>
       </c>
       <c r="D190">
-        <v>-1.391865019451575</v>
+        <v>-1.391865019451576</v>
       </c>
       <c r="E190">
-        <v>0.1830108016693158</v>
+        <v>0.1830108016693155</v>
       </c>
       <c r="F190">
-        <v>-0.08024716047348959</v>
+        <v>-0.08024716047348962</v>
       </c>
       <c r="G190">
-        <v>0.01663638560050278</v>
+        <v>0.01663638560050275</v>
       </c>
       <c r="H190">
         <v>-2</v>
@@ -6648,22 +6648,22 @@
         </is>
       </c>
       <c r="B191">
-        <v>0.01102445518837303</v>
+        <v>0.01102445518837301</v>
       </c>
       <c r="C191">
         <v>0.01423081238603378</v>
       </c>
       <c r="D191">
-        <v>0.7746890963999015</v>
+        <v>0.7746890963998992</v>
       </c>
       <c r="E191">
-        <v>0.4467701507127319</v>
+        <v>0.4467701507127331</v>
       </c>
       <c r="F191">
-        <v>-0.01848844335341745</v>
+        <v>-0.01848844335341748</v>
       </c>
       <c r="G191">
-        <v>0.04053735373016353</v>
+        <v>0.0405373537301635</v>
       </c>
       <c r="H191">
         <v>-5</v>
@@ -6681,22 +6681,22 @@
         </is>
       </c>
       <c r="B192">
-        <v>0.003928766312268894</v>
+        <v>0.003928766312268931</v>
       </c>
       <c r="C192">
-        <v>0.01183683260476382</v>
+        <v>0.01183683260476383</v>
       </c>
       <c r="D192">
-        <v>0.3319102705471845</v>
+        <v>0.3319102705471872</v>
       </c>
       <c r="E192">
-        <v>0.7430983710746174</v>
+        <v>0.7430983710746154</v>
       </c>
       <c r="F192">
-        <v>-0.02061932203603905</v>
+        <v>-0.02061932203603904</v>
       </c>
       <c r="G192">
-        <v>0.02847685466057684</v>
+        <v>0.0284768546605769</v>
       </c>
       <c r="H192">
         <v>-4</v>
@@ -6714,22 +6714,22 @@
         </is>
       </c>
       <c r="B193">
-        <v>0.0201238878726361</v>
+        <v>0.02012388787263602</v>
       </c>
       <c r="C193">
         <v>0.01807814710773448</v>
       </c>
       <c r="D193">
-        <v>1.113160975663616</v>
+        <v>1.113160975663612</v>
       </c>
       <c r="E193">
-        <v>0.2776546213274923</v>
+        <v>0.2776546213274939</v>
       </c>
       <c r="F193">
-        <v>-0.0173678945317015</v>
+        <v>-0.01736789453170157</v>
       </c>
       <c r="G193">
-        <v>0.05761567027697369</v>
+        <v>0.05761567027697362</v>
       </c>
       <c r="H193">
         <v>-3</v>
@@ -6747,22 +6747,22 @@
         </is>
       </c>
       <c r="B194">
-        <v>-0.001142532620648107</v>
+        <v>-0.001142532620648149</v>
       </c>
       <c r="C194">
-        <v>0.01909985455037786</v>
+        <v>0.01909985455037784</v>
       </c>
       <c r="D194">
-        <v>-0.05981891734487079</v>
+        <v>-0.05981891734487303</v>
       </c>
       <c r="E194">
-        <v>0.9528399298739926</v>
+        <v>0.9528399298739909</v>
       </c>
       <c r="F194">
         <v>-0.04075320657356091</v>
       </c>
       <c r="G194">
-        <v>0.0384681413322647</v>
+        <v>0.03846814133226462</v>
       </c>
       <c r="H194">
         <v>-2</v>
@@ -6912,22 +6912,22 @@
         </is>
       </c>
       <c r="B199">
-        <v>-0.002071068567353381</v>
+        <v>-0.00207106856735338</v>
       </c>
       <c r="C199">
-        <v>0.006735291376297122</v>
+        <v>0.006735291376297114</v>
       </c>
       <c r="D199">
-        <v>-0.3074950216173123</v>
+        <v>-0.3074950216173126</v>
       </c>
       <c r="E199">
-        <v>0.7593076765187978</v>
+        <v>0.7593076765187977</v>
       </c>
       <c r="F199">
-        <v>-0.01548556391950027</v>
+        <v>-0.01548556391950026</v>
       </c>
       <c r="G199">
-        <v>0.01134342678479351</v>
+        <v>0.0113434267847935</v>
       </c>
       <c r="H199">
         <v>-5</v>
@@ -6945,22 +6945,22 @@
         </is>
       </c>
       <c r="B200">
-        <v>-0.006269587767296916</v>
+        <v>-0.006269587767296947</v>
       </c>
       <c r="C200">
-        <v>0.00502374291956267</v>
+        <v>0.005023742919562671</v>
       </c>
       <c r="D200">
-        <v>-1.247991361755967</v>
+        <v>-1.247991361755973</v>
       </c>
       <c r="E200">
-        <v>0.2158655781755129</v>
+        <v>0.2158655781755109</v>
       </c>
       <c r="F200">
-        <v>-0.0162752389380862</v>
+        <v>-0.01627523893808624</v>
       </c>
       <c r="G200">
-        <v>0.003736063403492372</v>
+        <v>0.003736063403492342</v>
       </c>
       <c r="H200">
         <v>-4</v>
@@ -6981,10 +6981,10 @@
         <v>0.002555471378737014</v>
       </c>
       <c r="C201">
-        <v>0.007240887322503243</v>
+        <v>0.007240887322503245</v>
       </c>
       <c r="D201">
-        <v>0.3529224064563352</v>
+        <v>0.3529224064563351</v>
       </c>
       <c r="E201">
         <v>0.7251235782494458</v>
@@ -6993,7 +6993,7 @@
         <v>-0.01186600557101599</v>
       </c>
       <c r="G201">
-        <v>0.01697694832849001</v>
+        <v>0.01697694832849002</v>
       </c>
       <c r="H201">
         <v>-3</v>
@@ -7011,22 +7011,22 @@
         </is>
       </c>
       <c r="B202">
-        <v>-0.005808796453438429</v>
+        <v>-0.005808796453438433</v>
       </c>
       <c r="C202">
         <v>0.005518994592607965</v>
       </c>
       <c r="D202">
-        <v>-1.05250990120893</v>
+        <v>-1.052509901208931</v>
       </c>
       <c r="E202">
-        <v>0.2959006048039005</v>
+        <v>0.2959006048039002</v>
       </c>
       <c r="F202">
-        <v>-0.01680082681631272</v>
+        <v>-0.01680082681631273</v>
       </c>
       <c r="G202">
-        <v>0.005183233909435868</v>
+        <v>0.005183233909435863</v>
       </c>
       <c r="H202">
         <v>-2</v>
@@ -7044,22 +7044,22 @@
         </is>
       </c>
       <c r="B203">
-        <v>-0.001951516504014698</v>
+        <v>-0.001951516504014714</v>
       </c>
       <c r="C203">
-        <v>0.002699258296488622</v>
+        <v>0.002699258296488626</v>
       </c>
       <c r="D203">
-        <v>-0.7229824972857777</v>
+        <v>-0.7229824972857827</v>
       </c>
       <c r="E203">
-        <v>0.5097041351296522</v>
+        <v>0.5097041351296498</v>
       </c>
       <c r="F203">
-        <v>-0.009445858988965068</v>
+        <v>-0.009445858988965094</v>
       </c>
       <c r="G203">
-        <v>0.005542825980935671</v>
+        <v>0.005542825980935665</v>
       </c>
       <c r="H203">
         <v>-5</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B204">
-        <v>-0.005699804382883249</v>
+        <v>-0.005699804382883242</v>
       </c>
       <c r="C204">
-        <v>0.002316829862823719</v>
+        <v>0.00231682986282371</v>
       </c>
       <c r="D204">
-        <v>-2.460173910196586</v>
+        <v>-2.460173910196592</v>
       </c>
       <c r="E204">
-        <v>0.06967840629648842</v>
+        <v>0.06967840629648797</v>
       </c>
       <c r="F204">
-        <v>-0.01213235531509624</v>
+        <v>-0.01213235531509621</v>
       </c>
       <c r="G204">
-        <v>0.0007327465493297399</v>
+        <v>0.0007327465493297226</v>
       </c>
       <c r="H204">
         <v>-4</v>
@@ -7110,22 +7110,22 @@
         </is>
       </c>
       <c r="B205">
-        <v>-0.006318120973485262</v>
+        <v>-0.006318120973485324</v>
       </c>
       <c r="C205">
-        <v>0.005103867649084941</v>
+        <v>0.00510386764908493</v>
       </c>
       <c r="D205">
-        <v>-1.237908466262447</v>
+        <v>-1.237908466262462</v>
       </c>
       <c r="E205">
-        <v>0.2834433925924225</v>
+        <v>0.2834433925924174</v>
       </c>
       <c r="F205">
-        <v>-0.02048872932536451</v>
+        <v>-0.02048872932536454</v>
       </c>
       <c r="G205">
-        <v>0.007852487378393991</v>
+        <v>0.007852487378393898</v>
       </c>
       <c r="H205">
         <v>-3</v>
@@ -7143,22 +7143,22 @@
         </is>
       </c>
       <c r="B206">
-        <v>0.00724478798336259</v>
+        <v>0.007244787983362554</v>
       </c>
       <c r="C206">
-        <v>0.006228845713842458</v>
+        <v>0.006228845713842455</v>
       </c>
       <c r="D206">
-        <v>1.163102814902348</v>
+        <v>1.163102814902343</v>
       </c>
       <c r="E206">
-        <v>0.309444126339897</v>
+        <v>0.309444126339899</v>
       </c>
       <c r="F206">
-        <v>-0.01004926020986756</v>
+        <v>-0.01004926020986759</v>
       </c>
       <c r="G206">
-        <v>0.02453883617659273</v>
+        <v>0.02453883617659269</v>
       </c>
       <c r="H206">
         <v>-2</v>
@@ -7176,22 +7176,22 @@
         </is>
       </c>
       <c r="B207">
-        <v>-0.002372411408901464</v>
+        <v>-0.002372411408901503</v>
       </c>
       <c r="C207">
-        <v>0.008100107993599857</v>
+        <v>0.00810010799359987</v>
       </c>
       <c r="D207">
-        <v>-0.2928863924747643</v>
+        <v>-0.2928863924747688</v>
       </c>
       <c r="E207">
-        <v>0.7746119182687108</v>
+        <v>0.7746119182687075</v>
       </c>
       <c r="F207">
-        <v>-0.0200210306270469</v>
+        <v>-0.02002103062704697</v>
       </c>
       <c r="G207">
-        <v>0.01527620780924398</v>
+        <v>0.01527620780924396</v>
       </c>
       <c r="H207">
         <v>-5</v>
@@ -7209,22 +7209,22 @@
         </is>
       </c>
       <c r="B208">
-        <v>0.001411238444016734</v>
+        <v>0.001411238444016721</v>
       </c>
       <c r="C208">
-        <v>0.006849104235626298</v>
+        <v>0.006849104235626289</v>
       </c>
       <c r="D208">
-        <v>0.2060471552872618</v>
+        <v>0.2060471552872602</v>
       </c>
       <c r="E208">
-        <v>0.8402084362612586</v>
+        <v>0.8402084362612599</v>
       </c>
       <c r="F208">
-        <v>-0.013511677736294</v>
+        <v>-0.01351167773629399</v>
       </c>
       <c r="G208">
-        <v>0.01633415462432747</v>
+        <v>0.01633415462432744</v>
       </c>
       <c r="H208">
         <v>-4</v>
@@ -7242,22 +7242,22 @@
         </is>
       </c>
       <c r="B209">
-        <v>0.002814955576307711</v>
+        <v>0.002814955576307697</v>
       </c>
       <c r="C209">
-        <v>0.006635818352130078</v>
+        <v>0.006635818352130072</v>
       </c>
       <c r="D209">
-        <v>0.4242062435907576</v>
+        <v>0.4242062435907559</v>
       </c>
       <c r="E209">
-        <v>0.678920960637841</v>
+        <v>0.6789209606378422</v>
       </c>
       <c r="F209">
         <v>-0.01164325058465455</v>
       </c>
       <c r="G209">
-        <v>0.01727316173726997</v>
+        <v>0.01727316173726995</v>
       </c>
       <c r="H209">
         <v>-3</v>
@@ -7275,22 +7275,22 @@
         </is>
       </c>
       <c r="B210">
-        <v>0.002318489383395354</v>
+        <v>0.002318489383395373</v>
       </c>
       <c r="C210">
-        <v>0.005128030419389962</v>
+        <v>0.005128030419389963</v>
       </c>
       <c r="D210">
-        <v>0.4521208327136182</v>
+        <v>0.4521208327136217</v>
       </c>
       <c r="E210">
-        <v>0.6592458925208327</v>
+        <v>0.6592458925208302</v>
       </c>
       <c r="F210">
-        <v>-0.008854529085295312</v>
+        <v>-0.008854529085295297</v>
       </c>
       <c r="G210">
-        <v>0.01349150785208602</v>
+        <v>0.01349150785208604</v>
       </c>
       <c r="H210">
         <v>-2</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B211">
-        <v>-0.01738688974212949</v>
+        <v>-0.01738688974212946</v>
       </c>
       <c r="C211">
         <v>0.005257888666760966</v>
       </c>
       <c r="D211">
-        <v>-3.30681968449522</v>
+        <v>-3.306819684495214</v>
       </c>
       <c r="E211">
-        <v>0.002522112027445796</v>
+        <v>0.002522112027445835</v>
       </c>
       <c r="F211">
-        <v>-0.02814047949842261</v>
+        <v>-0.02814047949842259</v>
       </c>
       <c r="G211">
-        <v>-0.006633299985836359</v>
+        <v>-0.006633299985836333</v>
       </c>
       <c r="H211">
         <v>-5</v>
@@ -7341,22 +7341,22 @@
         </is>
       </c>
       <c r="B212">
-        <v>0.0007500578159916582</v>
+        <v>0.000750057815991685</v>
       </c>
       <c r="C212">
-        <v>0.005620786187583586</v>
+        <v>0.00562078618758358</v>
       </c>
       <c r="D212">
-        <v>0.13344357727902</v>
+        <v>0.1334435772790249</v>
       </c>
       <c r="E212">
-        <v>0.8947643062575739</v>
+        <v>0.8947643062575699</v>
       </c>
       <c r="F212">
-        <v>-0.01074574070694436</v>
+        <v>-0.01074574070694432</v>
       </c>
       <c r="G212">
-        <v>0.01224585633892768</v>
+        <v>0.01224585633892769</v>
       </c>
       <c r="H212">
         <v>-4</v>
@@ -7374,22 +7374,22 @@
         </is>
       </c>
       <c r="B213">
-        <v>-0.0009879376978509545</v>
+        <v>-0.0009879376978509337</v>
       </c>
       <c r="C213">
-        <v>0.004636241898287999</v>
+        <v>0.004636241898288</v>
       </c>
       <c r="D213">
-        <v>-0.2130901966559953</v>
+        <v>-0.2130901966559907</v>
       </c>
       <c r="E213">
-        <v>0.8327475324655079</v>
+        <v>0.8327475324655114</v>
       </c>
       <c r="F213">
-        <v>-0.01047011705632716</v>
+        <v>-0.01047011705632715</v>
       </c>
       <c r="G213">
-        <v>0.008494241660625255</v>
+        <v>0.008494241660625276</v>
       </c>
       <c r="H213">
         <v>-3</v>
@@ -7407,22 +7407,22 @@
         </is>
       </c>
       <c r="B214">
-        <v>0.002786867822307211</v>
+        <v>0.002786867822307232</v>
       </c>
       <c r="C214">
-        <v>0.005023940713349384</v>
+        <v>0.005023940713349388</v>
       </c>
       <c r="D214">
-        <v>0.5547174979398293</v>
+        <v>0.554717497939833</v>
       </c>
       <c r="E214">
-        <v>0.5833413298444445</v>
+        <v>0.5833413298444421</v>
       </c>
       <c r="F214">
-        <v>-0.007488244644952268</v>
+        <v>-0.007488244644952255</v>
       </c>
       <c r="G214">
-        <v>0.01306198028956669</v>
+        <v>0.01306198028956672</v>
       </c>
       <c r="H214">
         <v>-2</v>
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="B215">
-        <v>-0.0273334505944518</v>
+        <v>-0.02733345059445168</v>
       </c>
       <c r="C215">
-        <v>0.01790363094168099</v>
+        <v>0.01790363094168098</v>
       </c>
       <c r="D215">
-        <v>-1.526698728514197</v>
+        <v>-1.526698728514191</v>
       </c>
       <c r="E215">
-        <v>0.1324646637703577</v>
+        <v>0.1324646637703592</v>
       </c>
       <c r="F215">
-        <v>-0.06319873311205185</v>
+        <v>-0.06319873311205171</v>
       </c>
       <c r="G215">
-        <v>0.008531831923148235</v>
+        <v>0.008531831923148343</v>
       </c>
       <c r="H215">
         <v>-5</v>
@@ -7473,22 +7473,22 @@
         </is>
       </c>
       <c r="B216">
-        <v>-0.01716260409792643</v>
+        <v>-0.01716260409792639</v>
       </c>
       <c r="C216">
-        <v>0.01522928603883706</v>
+        <v>0.01522928603883704</v>
       </c>
       <c r="D216">
         <v>-1.126947386381679</v>
       </c>
       <c r="E216">
-        <v>0.2645705997203154</v>
+        <v>0.2645705997203155</v>
       </c>
       <c r="F216">
-        <v>-0.04767053000990625</v>
+        <v>-0.04767053000990616</v>
       </c>
       <c r="G216">
-        <v>0.0133453218140534</v>
+        <v>0.01334532181405338</v>
       </c>
       <c r="H216">
         <v>-4</v>
@@ -7506,22 +7506,22 @@
         </is>
       </c>
       <c r="B217">
-        <v>0.004875443729994524</v>
+        <v>0.004875443729994619</v>
       </c>
       <c r="C217">
         <v>0.01538863197809453</v>
       </c>
       <c r="D217">
-        <v>0.3168211272408516</v>
+        <v>0.3168211272408576</v>
       </c>
       <c r="E217">
-        <v>0.7525574304189193</v>
+        <v>0.7525574304189147</v>
       </c>
       <c r="F217">
-        <v>-0.02595169045588891</v>
+        <v>-0.02595169045588883</v>
       </c>
       <c r="G217">
-        <v>0.03570257791587796</v>
+        <v>0.03570257791587807</v>
       </c>
       <c r="H217">
         <v>-3</v>
@@ -7542,19 +7542,19 @@
         <v>-0.01185538232287611</v>
       </c>
       <c r="C218">
-        <v>0.009840724448969895</v>
+        <v>0.009840724448969908</v>
       </c>
       <c r="D218">
-        <v>-1.204726581295253</v>
+        <v>-1.204726581295251</v>
       </c>
       <c r="E218">
-        <v>0.2333756634137505</v>
+        <v>0.2333756634137512</v>
       </c>
       <c r="F218">
-        <v>-0.0315687222420144</v>
+        <v>-0.03156872224201442</v>
       </c>
       <c r="G218">
-        <v>0.00785795759626217</v>
+        <v>0.007857957596262198</v>
       </c>
       <c r="H218">
         <v>-2</v>
@@ -7572,22 +7572,22 @@
         </is>
       </c>
       <c r="B219">
-        <v>0.01256613450367899</v>
+        <v>0.01256613450367901</v>
       </c>
       <c r="C219">
-        <v>0.01372551384297255</v>
+        <v>0.01372551384297256</v>
       </c>
       <c r="D219">
-        <v>0.9155310793783389</v>
+        <v>0.9155310793783393</v>
       </c>
       <c r="E219">
-        <v>0.3765831737754559</v>
+        <v>0.3765831737754557</v>
       </c>
       <c r="F219">
-        <v>-0.01708603539652507</v>
+        <v>-0.01708603539652508</v>
       </c>
       <c r="G219">
-        <v>0.04221830440388306</v>
+        <v>0.04221830440388309</v>
       </c>
       <c r="H219">
         <v>-5</v>
@@ -7605,22 +7605,22 @@
         </is>
       </c>
       <c r="B220">
-        <v>0.004967556618964855</v>
+        <v>0.004967556618964822</v>
       </c>
       <c r="C220">
-        <v>0.01013151588920055</v>
+        <v>0.01013151588920056</v>
       </c>
       <c r="D220">
-        <v>0.4903073412992328</v>
+        <v>0.4903073412992291</v>
       </c>
       <c r="E220">
-        <v>0.6320877063404327</v>
+        <v>0.6320877063404352</v>
       </c>
       <c r="F220">
-        <v>-0.01692025275051877</v>
+        <v>-0.01692025275051882</v>
       </c>
       <c r="G220">
-        <v>0.02685536598844848</v>
+        <v>0.02685536598844846</v>
       </c>
       <c r="H220">
         <v>-4</v>
@@ -7638,22 +7638,22 @@
         </is>
       </c>
       <c r="B221">
-        <v>0.006532107114314251</v>
+        <v>0.006532107114314203</v>
       </c>
       <c r="C221">
-        <v>0.006132160056265734</v>
+        <v>0.006132160056265754</v>
       </c>
       <c r="D221">
-        <v>1.06522123597212</v>
+        <v>1.065221235972109</v>
       </c>
       <c r="E221">
-        <v>0.306161138585577</v>
+        <v>0.306161138585582</v>
       </c>
       <c r="F221">
-        <v>-0.006715619267655348</v>
+        <v>-0.00671561926765544</v>
       </c>
       <c r="G221">
-        <v>0.01977983349628385</v>
+        <v>0.01977983349628384</v>
       </c>
       <c r="H221">
         <v>-3</v>
@@ -7671,22 +7671,22 @@
         </is>
       </c>
       <c r="B222">
-        <v>-0.003319630976234296</v>
+        <v>-0.003319630976234343</v>
       </c>
       <c r="C222">
-        <v>0.008092466035541221</v>
+        <v>0.008092466035541208</v>
       </c>
       <c r="D222">
-        <v>-0.4102125312179059</v>
+        <v>-0.4102125312179122</v>
       </c>
       <c r="E222">
-        <v>0.6883301656367952</v>
+        <v>0.6883301656367906</v>
       </c>
       <c r="F222">
-        <v>-0.02080234095290726</v>
+        <v>-0.02080234095290728</v>
       </c>
       <c r="G222">
-        <v>0.01416307900043867</v>
+        <v>0.01416307900043859</v>
       </c>
       <c r="H222">
         <v>-2</v>
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="B223">
-        <v>0.00569914540319975</v>
+        <v>0.005699145403199725</v>
       </c>
       <c r="C223">
-        <v>0.004783808186539692</v>
+        <v>0.00478380818653971</v>
       </c>
       <c r="D223">
-        <v>1.19134070200297</v>
+        <v>1.19134070200296</v>
       </c>
       <c r="E223">
-        <v>0.2676628061001728</v>
+        <v>0.2676628061001763</v>
       </c>
       <c r="F223">
-        <v>-0.005332336056984323</v>
+        <v>-0.005332336056984387</v>
       </c>
       <c r="G223">
-        <v>0.01673062686338382</v>
+        <v>0.01673062686338384</v>
       </c>
       <c r="H223">
         <v>-5</v>
@@ -7737,22 +7737,22 @@
         </is>
       </c>
       <c r="B224">
-        <v>0.001656033212501257</v>
+        <v>0.001656033212501227</v>
       </c>
       <c r="C224">
-        <v>0.003274203728939669</v>
+        <v>0.00327420372893965</v>
       </c>
       <c r="D224">
-        <v>0.5057819700906494</v>
+        <v>0.5057819700906433</v>
       </c>
       <c r="E224">
-        <v>0.6266487228565225</v>
+        <v>0.6266487228565266</v>
       </c>
       <c r="F224">
-        <v>-0.00589429412593452</v>
+        <v>-0.005894294125934506</v>
       </c>
       <c r="G224">
-        <v>0.009206360550937032</v>
+        <v>0.009206360550936959</v>
       </c>
       <c r="H224">
         <v>-4</v>
@@ -7770,22 +7770,22 @@
         </is>
       </c>
       <c r="B225">
-        <v>0.002933229819111136</v>
+        <v>0.0029332298191111</v>
       </c>
       <c r="C225">
-        <v>0.003745043284825255</v>
+        <v>0.003745043284825252</v>
       </c>
       <c r="D225">
-        <v>0.7832298844172109</v>
+        <v>0.7832298844172019</v>
       </c>
       <c r="E225">
-        <v>0.4560507871062461</v>
+        <v>0.4560507871062509</v>
       </c>
       <c r="F225">
-        <v>-0.005702855482214495</v>
+        <v>-0.005702855482214524</v>
       </c>
       <c r="G225">
-        <v>0.01156931512043677</v>
+        <v>0.01156931512043672</v>
       </c>
       <c r="H225">
         <v>-3</v>
@@ -7803,22 +7803,22 @@
         </is>
       </c>
       <c r="B226">
-        <v>-0.002727609929529562</v>
+        <v>-0.002727609929529543</v>
       </c>
       <c r="C226">
-        <v>0.003540808893199066</v>
+        <v>0.00354080889319908</v>
       </c>
       <c r="D226">
-        <v>-0.7703352572257036</v>
+        <v>-0.7703352572256952</v>
       </c>
       <c r="E226">
-        <v>0.4632403513732223</v>
+        <v>0.4632403513732272</v>
       </c>
       <c r="F226">
-        <v>-0.01089272987921429</v>
+        <v>-0.01089272987921431</v>
       </c>
       <c r="G226">
-        <v>0.005437510020155171</v>
+        <v>0.005437510020155223</v>
       </c>
       <c r="H226">
         <v>-2</v>
@@ -7836,22 +7836,22 @@
         </is>
       </c>
       <c r="B227">
-        <v>-0.02122129729264322</v>
+        <v>-0.02122129729264326</v>
       </c>
       <c r="C227">
-        <v>0.009821239384648734</v>
+        <v>0.009821239384648718</v>
       </c>
       <c r="D227">
-        <v>-2.160755528046038</v>
+        <v>-2.160755528046045</v>
       </c>
       <c r="E227">
-        <v>0.05899486320545209</v>
+        <v>0.05899486320545147</v>
       </c>
       <c r="F227">
         <v>-0.04343848431418219</v>
       </c>
       <c r="G227">
-        <v>0.0009958897288957456</v>
+        <v>0.0009958897288956763</v>
       </c>
       <c r="H227">
         <v>-5</v>
@@ -7869,22 +7869,22 @@
         </is>
       </c>
       <c r="B228">
-        <v>0.001252668059290415</v>
+        <v>0.001252668059290371</v>
       </c>
       <c r="C228">
-        <v>0.005041304451049025</v>
+        <v>0.005041304451049038</v>
       </c>
       <c r="D228">
-        <v>0.248480938109134</v>
+        <v>0.2484809381091246</v>
       </c>
       <c r="E228">
-        <v>0.8093394111556331</v>
+        <v>0.8093394111556401</v>
       </c>
       <c r="F228">
-        <v>-0.01015155491449661</v>
+        <v>-0.01015155491449668</v>
       </c>
       <c r="G228">
-        <v>0.01265689103307744</v>
+        <v>0.01265689103307743</v>
       </c>
       <c r="H228">
         <v>-4</v>
@@ -7905,19 +7905,19 @@
         <v>-0.001110844514610673</v>
       </c>
       <c r="C229">
-        <v>0.005391173807674737</v>
+        <v>0.00539117380767474</v>
       </c>
       <c r="D229">
-        <v>-0.2060487296902399</v>
+        <v>-0.2060487296902398</v>
       </c>
       <c r="E229">
         <v>0.8413384439049244</v>
       </c>
       <c r="F229">
-        <v>-0.01330652695953215</v>
+        <v>-0.01330652695953216</v>
       </c>
       <c r="G229">
-        <v>0.0110848379303108</v>
+        <v>0.01108483793031081</v>
       </c>
       <c r="H229">
         <v>-3</v>
@@ -7935,22 +7935,22 @@
         </is>
       </c>
       <c r="B230">
-        <v>-0.008749692544153089</v>
+        <v>-0.008749692544153087</v>
       </c>
       <c r="C230">
-        <v>0.006542837882217763</v>
+        <v>0.006542837882217755</v>
       </c>
       <c r="D230">
-        <v>-1.337293190151196</v>
+        <v>-1.337293190151198</v>
       </c>
       <c r="E230">
-        <v>0.2139395082346636</v>
+        <v>0.2139395082346631</v>
       </c>
       <c r="F230">
-        <v>-0.02355062012443944</v>
+        <v>-0.02355062012443942</v>
       </c>
       <c r="G230">
-        <v>0.00605123503613326</v>
+        <v>0.006051235036133244</v>
       </c>
       <c r="H230">
         <v>-2</v>
@@ -7968,22 +7968,22 @@
         </is>
       </c>
       <c r="B231">
-        <v>0.005158565636646187</v>
+        <v>0.00515856563664621</v>
       </c>
       <c r="C231">
-        <v>0.00259674889038605</v>
+        <v>0.00259674889038607</v>
       </c>
       <c r="D231">
-        <v>1.986547738884093</v>
+        <v>1.986547738884088</v>
       </c>
       <c r="E231">
-        <v>0.07823042886932782</v>
+        <v>0.07823042886932857</v>
       </c>
       <c r="F231">
-        <v>-0.0007156884657289076</v>
+        <v>-0.0007156884657289284</v>
       </c>
       <c r="G231">
-        <v>0.01103281973902128</v>
+        <v>0.01103281973902135</v>
       </c>
       <c r="H231">
         <v>-5</v>
@@ -8001,22 +8001,22 @@
         </is>
       </c>
       <c r="B232">
-        <v>-0.004705591904512399</v>
+        <v>-0.004705591904512484</v>
       </c>
       <c r="C232">
-        <v>0.003442735467991447</v>
+        <v>0.003442735467991461</v>
       </c>
       <c r="D232">
-        <v>-1.366817737889611</v>
+        <v>-1.36681773788963</v>
       </c>
       <c r="E232">
-        <v>0.2048496004343583</v>
+        <v>0.2048496004343527</v>
       </c>
       <c r="F232">
-        <v>-0.01249360060304868</v>
+        <v>-0.0124936006030488</v>
       </c>
       <c r="G232">
-        <v>0.003082416794023882</v>
+        <v>0.003082416794023829</v>
       </c>
       <c r="H232">
         <v>-4</v>
@@ -8034,22 +8034,22 @@
         </is>
       </c>
       <c r="B233">
-        <v>0.008437876638864651</v>
+        <v>0.008437876638864594</v>
       </c>
       <c r="C233">
-        <v>0.002603483874597115</v>
+        <v>0.002603483874597092</v>
       </c>
       <c r="D233">
-        <v>3.240994392627225</v>
+        <v>3.240994392627232</v>
       </c>
       <c r="E233">
-        <v>0.010142499249104</v>
+        <v>0.01014249924910388</v>
       </c>
       <c r="F233">
-        <v>0.002548386943715164</v>
+        <v>0.00254838694371516</v>
       </c>
       <c r="G233">
-        <v>0.01432736633401414</v>
+        <v>0.01432736633401403</v>
       </c>
       <c r="H233">
         <v>-3</v>
@@ -8067,22 +8067,22 @@
         </is>
       </c>
       <c r="B234">
-        <v>0.006130972956709211</v>
+        <v>0.006130972956709147</v>
       </c>
       <c r="C234">
-        <v>0.005296646134645904</v>
+        <v>0.00529664613464592</v>
       </c>
       <c r="D234">
-        <v>1.157519834411042</v>
+        <v>1.157519834411026</v>
       </c>
       <c r="E234">
-        <v>0.2768555858934563</v>
+        <v>0.2768555858934624</v>
       </c>
       <c r="F234">
-        <v>-0.005850873035587447</v>
+        <v>-0.005850873035587545</v>
       </c>
       <c r="G234">
-        <v>0.01811281894900587</v>
+        <v>0.01811281894900584</v>
       </c>
       <c r="H234">
         <v>-2</v>

--- a/results/es_results.xlsx
+++ b/results/es_results.xlsx
@@ -411,22 +411,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.01015895311330453</v>
+        <v>-0.009562817538748606</v>
       </c>
       <c r="C2">
-        <v>0.006304858718634915</v>
+        <v>0.006278006909187318</v>
       </c>
       <c r="D2">
-        <v>-1.611289573115775</v>
+        <v>-1.523225073988729</v>
       </c>
       <c r="E2">
-        <v>0.1166415131813992</v>
+        <v>0.1372289432554611</v>
       </c>
       <c r="F2">
-        <v>-0.02298628462462409</v>
+        <v>-0.02233551863298285</v>
       </c>
       <c r="G2">
-        <v>0.002668378398015042</v>
+        <v>0.003209883555485632</v>
       </c>
       <c r="H2">
         <v>-5</v>
@@ -444,22 +444,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.01277221062067005</v>
+        <v>-0.0118797654357468</v>
       </c>
       <c r="C3">
-        <v>0.005015918527134026</v>
+        <v>0.004995723160891591</v>
       </c>
       <c r="D3">
-        <v>-2.546335342485673</v>
+        <v>-2.377987140829999</v>
       </c>
       <c r="E3">
-        <v>0.01573728734198807</v>
+        <v>0.02335401143494133</v>
       </c>
       <c r="F3">
-        <v>-0.02297717359488378</v>
+        <v>-0.0220436406284027</v>
       </c>
       <c r="G3">
-        <v>-0.002567247646456321</v>
+        <v>-0.001715890243090894</v>
       </c>
       <c r="H3">
         <v>-4</v>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.005871362239813158</v>
+        <v>-0.00516780152990897</v>
       </c>
       <c r="C4">
-        <v>0.006868764264721167</v>
+        <v>0.006752428499997708</v>
       </c>
       <c r="D4">
-        <v>-0.854791635515752</v>
+        <v>-0.7653248797689193</v>
       </c>
       <c r="E4">
-        <v>0.3988298912646585</v>
+        <v>0.449517331852493</v>
       </c>
       <c r="F4">
-        <v>-0.01984596821096173</v>
+        <v>-0.0189057206080872</v>
       </c>
       <c r="G4">
-        <v>0.008103243731335412</v>
+        <v>0.008570117548269255</v>
       </c>
       <c r="H4">
         <v>-3</v>
@@ -510,22 +510,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.01438905315643876</v>
+        <v>-0.01305589186089756</v>
       </c>
       <c r="C5">
-        <v>0.005023780749046084</v>
+        <v>0.004802447351937742</v>
       </c>
       <c r="D5">
-        <v>-2.864188123490651</v>
+        <v>-2.718591356473618</v>
       </c>
       <c r="E5">
-        <v>0.007215713632740713</v>
+        <v>0.01036829335803621</v>
       </c>
       <c r="F5">
-        <v>-0.02461001194140451</v>
+        <v>-0.02282654446360997</v>
       </c>
       <c r="G5">
-        <v>-0.004168094371473006</v>
+        <v>-0.003285239258185158</v>
       </c>
       <c r="H5">
         <v>-2</v>
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.01117610064006521</v>
+        <v>-0.01182548693426778</v>
       </c>
       <c r="C6">
-        <v>0.008272386784756777</v>
+        <v>0.008089990338381063</v>
       </c>
       <c r="D6">
-        <v>-1.351012825060235</v>
+        <v>-1.461743023123839</v>
       </c>
       <c r="E6">
-        <v>0.1943997332938721</v>
+        <v>0.1620509284319947</v>
       </c>
       <c r="F6">
-        <v>-0.02862931114440752</v>
+        <v>-0.02889387457470517</v>
       </c>
       <c r="G6">
-        <v>0.006277109864277104</v>
+        <v>0.005242900706169611</v>
       </c>
       <c r="H6">
         <v>-5</v>
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.007641774383004197</v>
+        <v>-0.008628409119642307</v>
       </c>
       <c r="C7">
-        <v>0.01022330097910413</v>
+        <v>0.01009801127703219</v>
       </c>
       <c r="D7">
-        <v>-0.7474860026740451</v>
+        <v>-0.8544661798177555</v>
       </c>
       <c r="E7">
-        <v>0.4649849309873539</v>
+        <v>0.404727651557807</v>
       </c>
       <c r="F7">
-        <v>-0.02921105404559669</v>
+        <v>-0.02993335061706131</v>
       </c>
       <c r="G7">
-        <v>0.01392750527958829</v>
+        <v>0.0126765323777767</v>
       </c>
       <c r="H7">
         <v>-4</v>
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.007100733765830809</v>
+        <v>0.006292871865088277</v>
       </c>
       <c r="C8">
-        <v>0.01429267399071384</v>
+        <v>0.01411369258665376</v>
       </c>
       <c r="D8">
-        <v>0.4968093283625064</v>
+        <v>0.4458699823913528</v>
       </c>
       <c r="E8">
-        <v>0.6256868061942149</v>
+        <v>0.6613175976873311</v>
       </c>
       <c r="F8">
-        <v>-0.02305417246867033</v>
+        <v>-0.02348441661498441</v>
       </c>
       <c r="G8">
-        <v>0.03725564000033195</v>
+        <v>0.03607016034516097</v>
       </c>
       <c r="H8">
         <v>-3</v>
@@ -642,22 +642,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.000453915908690249</v>
+        <v>-0.0004525462179855097</v>
       </c>
       <c r="C9">
-        <v>0.007349405869907257</v>
+        <v>0.007353024644968756</v>
       </c>
       <c r="D9">
-        <v>-0.0617622589805313</v>
+        <v>-0.06154558699802</v>
       </c>
       <c r="E9">
-        <v>0.9514724946027562</v>
+        <v>0.9516425090877452</v>
       </c>
       <c r="F9">
-        <v>-0.0159598069008402</v>
+        <v>-0.01596607215813288</v>
       </c>
       <c r="G9">
-        <v>0.0150519750834597</v>
+        <v>0.01506097972216186</v>
       </c>
       <c r="H9">
         <v>-2</v>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.01040886543300714</v>
+        <v>-0.01022946611562503</v>
       </c>
       <c r="C10">
-        <v>0.01095035407412683</v>
+        <v>0.01076511919804723</v>
       </c>
       <c r="D10">
-        <v>-0.9505505815196328</v>
+        <v>-0.9502417880779838</v>
       </c>
       <c r="E10">
-        <v>0.3642404186996729</v>
+        <v>0.3643897704028261</v>
       </c>
       <c r="F10">
-        <v>-0.03480777478857531</v>
+        <v>-0.03421564644705739</v>
       </c>
       <c r="G10">
-        <v>0.01399004392256103</v>
+        <v>0.01375671421580733</v>
       </c>
       <c r="H10">
         <v>-5</v>
@@ -708,22 +708,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.001827662666351429</v>
+        <v>0.001987912538310572</v>
       </c>
       <c r="C11">
-        <v>0.00833610964942119</v>
+        <v>0.008346015832141786</v>
       </c>
       <c r="D11">
-        <v>0.219246476259862</v>
+        <v>0.2381870078241185</v>
       </c>
       <c r="E11">
-        <v>0.8308683679162621</v>
+        <v>0.8165457138877126</v>
       </c>
       <c r="F11">
-        <v>-0.0167463471179416</v>
+        <v>-0.0166081695965771</v>
       </c>
       <c r="G11">
-        <v>0.02040167245064446</v>
+        <v>0.02058399467319824</v>
       </c>
       <c r="H11">
         <v>-4</v>
@@ -741,22 +741,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.01276558809573953</v>
+        <v>-0.01282045239919205</v>
       </c>
       <c r="C12">
-        <v>0.008318809501701828</v>
+        <v>0.0087069738039403</v>
       </c>
       <c r="D12">
-        <v>-1.53454506839326</v>
+        <v>-1.472434934097334</v>
       </c>
       <c r="E12">
-        <v>0.1559048138737145</v>
+        <v>0.1716649143939765</v>
       </c>
       <c r="F12">
-        <v>-0.03130105074875394</v>
+        <v>-0.03222079901497815</v>
       </c>
       <c r="G12">
-        <v>0.005769874557274887</v>
+        <v>0.006579894216594046</v>
       </c>
       <c r="H12">
         <v>-3</v>
@@ -774,22 +774,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>8.117323235938383e-05</v>
+        <v>0.0007335972356212637</v>
       </c>
       <c r="C13">
-        <v>0.00279832266712994</v>
+        <v>0.002792382140156834</v>
       </c>
       <c r="D13">
-        <v>0.02900781718737175</v>
+        <v>0.2627137686749641</v>
       </c>
       <c r="E13">
-        <v>0.9774291121606207</v>
+        <v>0.7981043121787368</v>
       </c>
       <c r="F13">
-        <v>-0.006153878222666689</v>
+        <v>-0.005488217900454759</v>
       </c>
       <c r="G13">
-        <v>0.006316224687385456</v>
+        <v>0.006955412371697287</v>
       </c>
       <c r="H13">
         <v>-2</v>
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.005643449459958827</v>
+        <v>0.005656099056032907</v>
       </c>
       <c r="C14">
-        <v>0.003334733592222315</v>
+        <v>0.003360807959057562</v>
       </c>
       <c r="D14">
-        <v>1.692323930499633</v>
+        <v>1.682958123444516</v>
       </c>
       <c r="E14">
-        <v>0.1099630931574356</v>
+        <v>0.1117909645041842</v>
       </c>
       <c r="F14">
-        <v>-0.001425869953684387</v>
+        <v>-0.001468495546038186</v>
       </c>
       <c r="G14">
-        <v>0.01271276887360204</v>
+        <v>0.012780693658104</v>
       </c>
       <c r="H14">
         <v>-5</v>
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.001776121060389631</v>
+        <v>-0.001564758481036548</v>
       </c>
       <c r="C15">
-        <v>0.002208688804455671</v>
+        <v>0.002181938405878075</v>
       </c>
       <c r="D15">
-        <v>-0.8041517921431917</v>
+        <v>-0.7171414540489031</v>
       </c>
       <c r="E15">
-        <v>0.4330956126515614</v>
+        <v>0.4836255711310451</v>
       </c>
       <c r="F15">
-        <v>-0.006458332161285865</v>
+        <v>-0.006190261270231855</v>
       </c>
       <c r="G15">
-        <v>0.002906090040506602</v>
+        <v>0.003060744308158758</v>
       </c>
       <c r="H15">
         <v>-4</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>-0.006449294305967582</v>
+        <v>-0.006061812332794373</v>
       </c>
       <c r="C16">
-        <v>0.004114592420636282</v>
+        <v>0.004170883848522897</v>
       </c>
       <c r="D16">
-        <v>-1.567419964519903</v>
+        <v>-1.453363975825206</v>
       </c>
       <c r="E16">
-        <v>0.1365789155911367</v>
+        <v>0.1654550779660414</v>
       </c>
       <c r="F16">
-        <v>-0.01517184058261004</v>
+        <v>-0.0149036911057144</v>
       </c>
       <c r="G16">
-        <v>0.002273251970674879</v>
+        <v>0.002780066440125654</v>
       </c>
       <c r="H16">
         <v>-3</v>
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>-0.003586517389527026</v>
+        <v>-0.003094207070796095</v>
       </c>
       <c r="C17">
-        <v>0.002778818795240257</v>
+        <v>0.00273983878144026</v>
       </c>
       <c r="D17">
-        <v>-1.290662563413724</v>
+        <v>-1.12933910263492</v>
       </c>
       <c r="E17">
-        <v>0.2151601395587537</v>
+        <v>0.2754027535889719</v>
       </c>
       <c r="F17">
-        <v>-0.00947735007913247</v>
+        <v>-0.008902405822583207</v>
       </c>
       <c r="G17">
-        <v>0.002304315300078417</v>
+        <v>0.002713991680991016</v>
       </c>
       <c r="H17">
         <v>-2</v>
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>-0.0145915230219299</v>
+        <v>-0.01454671352828641</v>
       </c>
       <c r="C18">
-        <v>0.0092468808366632</v>
+        <v>0.008729666493051302</v>
       </c>
       <c r="D18">
-        <v>-1.57799405871822</v>
+        <v>-1.666353868142087</v>
       </c>
       <c r="E18">
-        <v>0.1405509562962572</v>
+        <v>0.1238322208724984</v>
       </c>
       <c r="F18">
-        <v>-0.03473874562325571</v>
+        <v>-0.03376057993204154</v>
       </c>
       <c r="G18">
-        <v>0.005555699579395919</v>
+        <v>0.004667152875468726</v>
       </c>
       <c r="H18">
         <v>-5</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.01126064417946698</v>
+        <v>0.01050839265202425</v>
       </c>
       <c r="C19">
-        <v>0.007974052451591255</v>
+        <v>0.006063388252137585</v>
       </c>
       <c r="D19">
-        <v>1.412160786228573</v>
+        <v>1.733089192881492</v>
       </c>
       <c r="E19">
-        <v>0.1833065228209559</v>
+        <v>0.1109825405212579</v>
       </c>
       <c r="F19">
-        <v>-0.006113323606499459</v>
+        <v>-0.002837034910804561</v>
       </c>
       <c r="G19">
-        <v>0.02863461196543342</v>
+        <v>0.02385382021485305</v>
       </c>
       <c r="H19">
         <v>-4</v>
@@ -1005,22 +1005,22 @@
         </is>
       </c>
       <c r="B20">
-        <v>-0.006315719837495285</v>
+        <v>-0.006784801235603936</v>
       </c>
       <c r="C20">
-        <v>0.008784001314185077</v>
+        <v>0.008112535468190265</v>
       </c>
       <c r="D20">
-        <v>-0.7190026061694889</v>
+        <v>-0.8363354788657067</v>
       </c>
       <c r="E20">
-        <v>0.4859054698408452</v>
+        <v>0.4207630253658685</v>
       </c>
       <c r="F20">
-        <v>-0.02545441459665553</v>
+        <v>-0.02464037141180778</v>
       </c>
       <c r="G20">
-        <v>0.01282297492166495</v>
+        <v>0.01107076894059991</v>
       </c>
       <c r="H20">
         <v>-3</v>
@@ -1038,22 +1038,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.006045200314046542</v>
+        <v>0.005442856483556322</v>
       </c>
       <c r="C21">
-        <v>0.01737491386308316</v>
+        <v>0.01811387116961788</v>
       </c>
       <c r="D21">
-        <v>0.3479269227855514</v>
+        <v>0.3004800261959211</v>
       </c>
       <c r="E21">
-        <v>0.733922034136216</v>
+        <v>0.769413840174352</v>
       </c>
       <c r="F21">
-        <v>-0.03181148492520204</v>
+        <v>-0.03442550515258441</v>
       </c>
       <c r="G21">
-        <v>0.04390188555329512</v>
+        <v>0.04531121811969706</v>
       </c>
       <c r="H21">
         <v>-2</v>
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>-0.000678996276975213</v>
+        <v>-0.0007167174719030442</v>
       </c>
       <c r="C22">
-        <v>0.007865333057874152</v>
+        <v>0.007702903316942704</v>
       </c>
       <c r="D22">
-        <v>-0.08632772089612345</v>
+        <v>-0.09304510811223717</v>
       </c>
       <c r="E22">
-        <v>0.9326296250649804</v>
+        <v>0.9274031296143732</v>
       </c>
       <c r="F22">
-        <v>-0.01781608485307719</v>
+        <v>-0.01749990204454406</v>
       </c>
       <c r="G22">
-        <v>0.01645809229912677</v>
+        <v>0.01606646710073797</v>
       </c>
       <c r="H22">
         <v>-5</v>
@@ -1104,22 +1104,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>-0.007693710103175998</v>
+        <v>-0.007879114797960959</v>
       </c>
       <c r="C23">
-        <v>0.007647968804934926</v>
+        <v>0.007613337631319362</v>
       </c>
       <c r="D23">
-        <v>-1.005980842679635</v>
+        <v>-1.034909415490554</v>
       </c>
       <c r="E23">
-        <v>0.3342794960778607</v>
+        <v>0.3211174564524849</v>
       </c>
       <c r="F23">
-        <v>-0.02435720265626296</v>
+        <v>-0.0244671525056679</v>
       </c>
       <c r="G23">
-        <v>0.008969782449910958</v>
+        <v>0.008708922909745976</v>
       </c>
       <c r="H23">
         <v>-4</v>
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.007501311010714953</v>
+        <v>-0.007620950191899844</v>
       </c>
       <c r="C24">
-        <v>0.005475999350921326</v>
+        <v>0.005278882523429777</v>
       </c>
       <c r="D24">
-        <v>-1.369852428754009</v>
+        <v>-1.443667321270182</v>
       </c>
       <c r="E24">
-        <v>0.1958196161514288</v>
+        <v>0.174428255511146</v>
       </c>
       <c r="F24">
-        <v>-0.01943248865175175</v>
+        <v>-0.01912264716025476</v>
       </c>
       <c r="G24">
-        <v>0.004429866630321848</v>
+        <v>0.003880746776455069</v>
       </c>
       <c r="H24">
         <v>-3</v>
@@ -1170,22 +1170,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.006929292527980254</v>
+        <v>-0.00707459089543631</v>
       </c>
       <c r="C25">
-        <v>0.007850730281482421</v>
+        <v>0.007814213853808975</v>
       </c>
       <c r="D25">
-        <v>-0.8826303133002074</v>
+        <v>-0.9053490252238051</v>
       </c>
       <c r="E25">
-        <v>0.3947735851691686</v>
+        <v>0.3830981892152143</v>
       </c>
       <c r="F25">
-        <v>-0.02403456438753116</v>
+        <v>-0.0241003002938787</v>
       </c>
       <c r="G25">
-        <v>0.01017597933157066</v>
+        <v>0.00995111850300608</v>
       </c>
       <c r="H25">
         <v>-2</v>
@@ -1203,22 +1203,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.00693513516995806</v>
+        <v>0.008223910165365245</v>
       </c>
       <c r="C26">
-        <v>0.008659431449956461</v>
+        <v>0.008556971078718858</v>
       </c>
       <c r="D26">
-        <v>0.8008765021164211</v>
+        <v>0.9610772421351367</v>
       </c>
       <c r="E26">
-        <v>0.4537399732974694</v>
+        <v>0.3736275400795822</v>
       </c>
       <c r="F26">
-        <v>-0.01425373026911787</v>
+        <v>-0.01271424377705667</v>
       </c>
       <c r="G26">
-        <v>0.02812400060903399</v>
+        <v>0.02916206410778716</v>
       </c>
       <c r="H26">
         <v>-5</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.01424292033179695</v>
+        <v>0.0147148481873523</v>
       </c>
       <c r="C27">
-        <v>0.009858547100457204</v>
+        <v>0.009897977232583854</v>
       </c>
       <c r="D27">
-        <v>1.444728131504937</v>
+        <v>1.48665205441284</v>
       </c>
       <c r="E27">
-        <v>0.1986570222296719</v>
+        <v>0.1876611493825981</v>
       </c>
       <c r="F27">
-        <v>-0.009880075403382656</v>
+        <v>-0.009504629605420213</v>
       </c>
       <c r="G27">
-        <v>0.03836591606697655</v>
+        <v>0.03893432598012481</v>
       </c>
       <c r="H27">
         <v>-4</v>
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.001466602874535045</v>
+        <v>-0.0008865724536982157</v>
       </c>
       <c r="C28">
-        <v>0.007455114592587517</v>
+        <v>0.007558997255026018</v>
       </c>
       <c r="D28">
-        <v>-0.196724390526909</v>
+        <v>-0.1172870453298192</v>
       </c>
       <c r="E28">
-        <v>0.8505376446559076</v>
+        <v>0.9104602106818879</v>
       </c>
       <c r="F28">
-        <v>-0.01970861112278124</v>
+        <v>-0.01938277241979367</v>
       </c>
       <c r="G28">
-        <v>0.01677540537371115</v>
+        <v>0.01760962751239723</v>
       </c>
       <c r="H28">
         <v>-3</v>
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.01635932321447872</v>
+        <v>0.01742362799177238</v>
       </c>
       <c r="C29">
-        <v>0.004234311313821119</v>
+        <v>0.004191651639214175</v>
       </c>
       <c r="D29">
-        <v>3.863514513229254</v>
+        <v>4.156745238265759</v>
       </c>
       <c r="E29">
-        <v>0.008328270504148763</v>
+        <v>0.005966014666810803</v>
       </c>
       <c r="F29">
-        <v>0.005998336679252604</v>
+        <v>0.007167025919907984</v>
       </c>
       <c r="G29">
-        <v>0.02672030974970484</v>
+        <v>0.02768023006363678</v>
       </c>
       <c r="H29">
         <v>-2</v>
@@ -1335,22 +1335,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>-0.006742281569720394</v>
+        <v>-0.006520858643991071</v>
       </c>
       <c r="C30">
-        <v>0.003069269663253424</v>
+        <v>0.003062081994239993</v>
       </c>
       <c r="D30">
-        <v>-2.196705506343023</v>
+        <v>-2.129550631321205</v>
       </c>
       <c r="E30">
-        <v>0.05563867080530243</v>
+        <v>0.0658390146581295</v>
       </c>
       <c r="F30">
-        <v>-0.01368545192300836</v>
+        <v>-0.01358203238504271</v>
       </c>
       <c r="G30">
-        <v>0.0002008887835675734</v>
+        <v>0.0005403150970605718</v>
       </c>
       <c r="H30">
         <v>-5</v>
@@ -1368,22 +1368,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.009108890351000766</v>
+        <v>-0.00886581626426183</v>
       </c>
       <c r="C31">
-        <v>0.003999133790431555</v>
+        <v>0.003806872705249948</v>
       </c>
       <c r="D31">
-        <v>-2.277715832562282</v>
+        <v>-2.328897483762784</v>
       </c>
       <c r="E31">
-        <v>0.04874422083297407</v>
+        <v>0.04824465172564927</v>
       </c>
       <c r="F31">
-        <v>-0.01815555950001384</v>
+        <v>-0.01764448046476408</v>
       </c>
       <c r="G31">
-        <v>-6.222120198768818e-05</v>
+        <v>-8.715206375957928e-05</v>
       </c>
       <c r="H31">
         <v>-4</v>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>-0.004668828965710838</v>
+        <v>-0.004496662693818635</v>
       </c>
       <c r="C32">
-        <v>0.00326295138722177</v>
+        <v>0.003208789161492138</v>
       </c>
       <c r="D32">
-        <v>-1.430860718303897</v>
+        <v>-1.401358103480883</v>
       </c>
       <c r="E32">
-        <v>0.186260717948072</v>
+        <v>0.1986879026163548</v>
       </c>
       <c r="F32">
-        <v>-0.0120501378181769</v>
+        <v>-0.01189614376921781</v>
       </c>
       <c r="G32">
-        <v>0.002712479886755228</v>
+        <v>0.002902818381580543</v>
       </c>
       <c r="H32">
         <v>-3</v>
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.006084875376528719</v>
+        <v>-0.006037632829881555</v>
       </c>
       <c r="C33">
-        <v>0.002526651008394632</v>
+        <v>0.002261972640339561</v>
       </c>
       <c r="D33">
-        <v>-2.408276946959481</v>
+        <v>-2.669189150305196</v>
       </c>
       <c r="E33">
-        <v>0.03936007303750099</v>
+        <v>0.02839792653127772</v>
       </c>
       <c r="F33">
-        <v>-0.01180055705305994</v>
+        <v>-0.01125375109222327</v>
       </c>
       <c r="G33">
-        <v>-0.0003691936999974943</v>
+        <v>-0.0008215145675398413</v>
       </c>
       <c r="H33">
         <v>-2</v>
@@ -1467,22 +1467,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>-0.01459174052701108</v>
+        <v>-0.01371600823895832</v>
       </c>
       <c r="C34">
-        <v>0.01106285419164003</v>
+        <v>0.01143487190102534</v>
       </c>
       <c r="D34">
-        <v>-1.31898516189771</v>
+        <v>-1.199489452761464</v>
       </c>
       <c r="E34">
-        <v>0.2099364147276961</v>
+        <v>0.2517434008370006</v>
       </c>
       <c r="F34">
-        <v>-0.03849158397364821</v>
+        <v>-0.03841954708460056</v>
       </c>
       <c r="G34">
-        <v>0.009308102919626048</v>
+        <v>0.01098753060668392</v>
       </c>
       <c r="H34">
         <v>-5</v>
@@ -1500,22 +1500,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>-0.01610846495959986</v>
+        <v>-0.01476505555996934</v>
       </c>
       <c r="C35">
-        <v>0.02145433931566946</v>
+        <v>0.02180982366947815</v>
       </c>
       <c r="D35">
-        <v>-0.7508254960727145</v>
+        <v>-0.6769910561281779</v>
       </c>
       <c r="E35">
-        <v>0.4661319198263882</v>
+        <v>0.510279436638378</v>
       </c>
       <c r="F35">
-        <v>-0.06245774716228954</v>
+        <v>-0.06188231501849024</v>
       </c>
       <c r="G35">
-        <v>0.03024081724308981</v>
+        <v>0.03235220389855156</v>
       </c>
       <c r="H35">
         <v>-4</v>
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.03806248314371156</v>
+        <v>0.03727393131700382</v>
       </c>
       <c r="C36">
-        <v>0.01637775497371289</v>
+        <v>0.01683586867151542</v>
       </c>
       <c r="D36">
-        <v>2.324035449596343</v>
+        <v>2.213959495898629</v>
       </c>
       <c r="E36">
-        <v>0.03697078171092832</v>
+        <v>0.0453197073443458</v>
       </c>
       <c r="F36">
-        <v>0.002680494635274651</v>
+        <v>0.0009022483347380303</v>
       </c>
       <c r="G36">
-        <v>0.07344447165214849</v>
+        <v>0.07364561429926961</v>
       </c>
       <c r="H36">
         <v>-3</v>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>-0.009491440073797448</v>
+        <v>-0.009878965694873032</v>
       </c>
       <c r="C37">
-        <v>0.01443427890859524</v>
+        <v>0.0144737792319962</v>
       </c>
       <c r="D37">
-        <v>-0.6575624687524596</v>
+        <v>-0.6825422397651523</v>
       </c>
       <c r="E37">
-        <v>0.5222924988449602</v>
+        <v>0.5068769263713981</v>
       </c>
       <c r="F37">
-        <v>-0.04067480380656857</v>
+        <v>-0.04114766468823972</v>
       </c>
       <c r="G37">
-        <v>0.02169192365897367</v>
+        <v>0.02138973329849366</v>
       </c>
       <c r="H37">
         <v>-2</v>
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>-0.0004746334086380378</v>
+        <v>-0.0006647943418463984</v>
       </c>
       <c r="C38">
-        <v>0.01316353271344185</v>
+        <v>0.01171635295878426</v>
       </c>
       <c r="D38">
-        <v>-0.03605668926194632</v>
+        <v>-0.05674072334497</v>
       </c>
       <c r="E38">
-        <v>0.9719467661758557</v>
+        <v>0.9559914740479363</v>
       </c>
       <c r="F38">
-        <v>-0.02980481207685012</v>
+        <v>-0.02716902610943215</v>
       </c>
       <c r="G38">
-        <v>0.02885554525957405</v>
+        <v>0.02583943742573936</v>
       </c>
       <c r="H38">
         <v>-5</v>
@@ -1632,22 +1632,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>-0.005988230851416933</v>
+        <v>-0.005854019197040995</v>
       </c>
       <c r="C39">
-        <v>0.01170054391979868</v>
+        <v>0.01180638870759497</v>
       </c>
       <c r="D39">
-        <v>-0.5117908101079089</v>
+        <v>-0.4958348689023887</v>
       </c>
       <c r="E39">
-        <v>0.6199085196135539</v>
+        <v>0.6318930661685025</v>
       </c>
       <c r="F39">
-        <v>-0.03205866734849214</v>
+        <v>-0.0325619259787068</v>
       </c>
       <c r="G39">
-        <v>0.02008220564565827</v>
+        <v>0.02085388758462481</v>
       </c>
       <c r="H39">
         <v>-4</v>
@@ -1665,22 +1665,22 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.002360548714743069</v>
+        <v>0.002466727365757351</v>
       </c>
       <c r="C40">
-        <v>0.01653537453985414</v>
+        <v>0.01816817959116621</v>
       </c>
       <c r="D40">
-        <v>0.142757499024506</v>
+        <v>0.135771850634762</v>
       </c>
       <c r="E40">
-        <v>0.8893171636158914</v>
+        <v>0.8949899395358254</v>
       </c>
       <c r="F40">
-        <v>-0.0344825617296506</v>
+        <v>-0.03863255023140345</v>
       </c>
       <c r="G40">
-        <v>0.03920365915913673</v>
+        <v>0.04356600496291815</v>
       </c>
       <c r="H40">
         <v>-3</v>
@@ -1698,22 +1698,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>-0.01885276256088746</v>
+        <v>-0.01852345138452152</v>
       </c>
       <c r="C41">
-        <v>0.0177048754161254</v>
+        <v>0.0169041225365405</v>
       </c>
       <c r="D41">
-        <v>-1.064834522569788</v>
+        <v>-1.095794907099178</v>
       </c>
       <c r="E41">
-        <v>0.3119861985144683</v>
+        <v>0.3016235399623306</v>
       </c>
       <c r="F41">
-        <v>-0.0583016833451331</v>
+        <v>-0.05676323326137517</v>
       </c>
       <c r="G41">
-        <v>0.02059615822335819</v>
+        <v>0.01971633049233213</v>
       </c>
       <c r="H41">
         <v>-2</v>
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.02816066090734244</v>
+        <v>0.02863370407638734</v>
       </c>
       <c r="C42">
-        <v>0.009293762454929319</v>
+        <v>0.008858146774106599</v>
       </c>
       <c r="D42">
-        <v>3.030060327441047</v>
+        <v>3.232471171067859</v>
       </c>
       <c r="E42">
-        <v>0.004810212420491037</v>
+        <v>0.003431335034030716</v>
       </c>
       <c r="F42">
-        <v>0.009229886276699299</v>
+        <v>0.01039000928916754</v>
       </c>
       <c r="G42">
-        <v>0.04709143553798557</v>
+        <v>0.04687739886360714</v>
       </c>
       <c r="H42">
         <v>-4</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.02452068763161984</v>
+        <v>-0.02213104227318804</v>
       </c>
       <c r="C43">
-        <v>0.007789239682873078</v>
+        <v>0.008085574863708719</v>
       </c>
       <c r="D43">
-        <v>-3.148020683653598</v>
+        <v>-2.737101893956975</v>
       </c>
       <c r="E43">
-        <v>0.003546659877854827</v>
+        <v>0.01124691667630104</v>
       </c>
       <c r="F43">
-        <v>-0.0403868496618666</v>
+        <v>-0.03878359542616914</v>
       </c>
       <c r="G43">
-        <v>-0.00865452560137308</v>
+        <v>-0.005478489120206945</v>
       </c>
       <c r="H43">
         <v>-3</v>
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.008592397638830497</v>
+        <v>0.01111425959978255</v>
       </c>
       <c r="C44">
-        <v>0.01449073947249426</v>
+        <v>0.01414210350194677</v>
       </c>
       <c r="D44">
-        <v>0.592957844224599</v>
+        <v>0.7858986181406878</v>
       </c>
       <c r="E44">
-        <v>0.5573771033946766</v>
+        <v>0.4393126406334723</v>
       </c>
       <c r="F44">
-        <v>-0.0209242727640865</v>
+        <v>-0.01801194777950424</v>
       </c>
       <c r="G44">
-        <v>0.03810906804174749</v>
+        <v>0.04024046697906934</v>
       </c>
       <c r="H44">
         <v>-2</v>
@@ -1830,22 +1830,22 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.02968791249150072</v>
+        <v>0.02819020930571367</v>
       </c>
       <c r="C45">
-        <v>0.02757592234307956</v>
+        <v>0.02748260055653693</v>
       </c>
       <c r="D45">
-        <v>1.076588196113454</v>
+        <v>1.025747517878487</v>
       </c>
       <c r="E45">
-        <v>0.3047092439632887</v>
+        <v>0.3270390367411438</v>
       </c>
       <c r="F45">
-        <v>-0.03100628336145685</v>
+        <v>-0.03229858667995033</v>
       </c>
       <c r="G45">
-        <v>0.09038210834445828</v>
+        <v>0.08867900529137768</v>
       </c>
       <c r="H45">
         <v>-5</v>
@@ -1863,22 +1863,22 @@
         </is>
       </c>
       <c r="B46">
-        <v>-0.0713775122126593</v>
+        <v>-0.07205371859702571</v>
       </c>
       <c r="C46">
-        <v>0.02462987572769752</v>
+        <v>0.02485606971495071</v>
       </c>
       <c r="D46">
-        <v>-2.898005373709285</v>
+        <v>-2.898837966876397</v>
       </c>
       <c r="E46">
-        <v>0.01449675121596787</v>
+        <v>0.01447517636093693</v>
       </c>
       <c r="F46">
-        <v>-0.1255875031842228</v>
+        <v>-0.1267615591778354</v>
       </c>
       <c r="G46">
-        <v>-0.01716752124109581</v>
+        <v>-0.01734587801621598</v>
       </c>
       <c r="H46">
         <v>-4</v>
@@ -1896,22 +1896,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>-0.05291238380107766</v>
+        <v>-0.05275674621120235</v>
       </c>
       <c r="C47">
-        <v>0.02554325694006826</v>
+        <v>0.02505860942155609</v>
       </c>
       <c r="D47">
-        <v>-2.071481484339493</v>
+        <v>-2.105334151775381</v>
       </c>
       <c r="E47">
-        <v>0.06261260911459492</v>
+        <v>0.05905230091428276</v>
       </c>
       <c r="F47">
-        <v>-0.1091327132665757</v>
+        <v>-0.1079103736805798</v>
       </c>
       <c r="G47">
-        <v>0.003307945664420345</v>
+        <v>0.002396881258175117</v>
       </c>
       <c r="H47">
         <v>-3</v>
@@ -1929,22 +1929,22 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.03671262587133742</v>
+        <v>-0.03740597084880837</v>
       </c>
       <c r="C48">
-        <v>0.008929392574531519</v>
+        <v>0.009125941162032407</v>
       </c>
       <c r="D48">
-        <v>-4.111435975617138</v>
+        <v>-4.098861715702516</v>
       </c>
       <c r="E48">
-        <v>0.001725577005695062</v>
+        <v>0.001762796418550007</v>
       </c>
       <c r="F48">
-        <v>-0.05636608641651377</v>
+        <v>-0.05749203191831114</v>
       </c>
       <c r="G48">
-        <v>-0.01705916532616108</v>
+        <v>-0.01731990977930559</v>
       </c>
       <c r="H48">
         <v>-2</v>
@@ -1962,22 +1962,22 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.001556814464777604</v>
+        <v>0.002237849648989146</v>
       </c>
       <c r="C49">
-        <v>0.01117798557510078</v>
+        <v>0.01107638999894985</v>
       </c>
       <c r="D49">
-        <v>0.1392750468604507</v>
+        <v>0.2020378164005887</v>
       </c>
       <c r="E49">
-        <v>0.8937901093603062</v>
+        <v>0.8465633321539712</v>
       </c>
       <c r="F49">
-        <v>-0.02579473091086401</v>
+        <v>-0.02486510030734485</v>
       </c>
       <c r="G49">
-        <v>0.02890835984041921</v>
+        <v>0.02934079960532315</v>
       </c>
       <c r="H49">
         <v>-3</v>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.02420211492163269</v>
+        <v>0.02455885658920266</v>
       </c>
       <c r="C50">
-        <v>0.002886392103174337</v>
+        <v>0.002870930048173271</v>
       </c>
       <c r="D50">
-        <v>8.384902001019261</v>
+        <v>8.554320787031742</v>
       </c>
       <c r="E50">
-        <v>0.0001566241832467898</v>
+        <v>0.0001400430770215329</v>
       </c>
       <c r="F50">
-        <v>0.01713936787732415</v>
+        <v>0.01753394383051928</v>
       </c>
       <c r="G50">
-        <v>0.03126486196594123</v>
+        <v>0.03158376934788603</v>
       </c>
       <c r="H50">
         <v>-2</v>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.01183908514829896</v>
+        <v>0.01230718971668797</v>
       </c>
       <c r="C51">
-        <v>0.0126814473571018</v>
+        <v>0.0126568647174743</v>
       </c>
       <c r="D51">
-        <v>0.9335752311954283</v>
+        <v>0.972372699827978</v>
       </c>
       <c r="E51">
-        <v>0.3653086165253782</v>
+        <v>0.3462854896879115</v>
       </c>
       <c r="F51">
-        <v>-0.01519078005803587</v>
+        <v>-0.01467027883358419</v>
       </c>
       <c r="G51">
-        <v>0.0388689503546338</v>
+        <v>0.03928465826696012</v>
       </c>
       <c r="H51">
         <v>-5</v>
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.01581020036502035</v>
+        <v>0.01604470109444824</v>
       </c>
       <c r="C52">
-        <v>0.01919797360520214</v>
+        <v>0.01939384075038212</v>
       </c>
       <c r="D52">
-        <v>0.8235348526959223</v>
+        <v>0.8273091081317718</v>
       </c>
       <c r="E52">
-        <v>0.4231048688880168</v>
+        <v>0.4210289652066874</v>
       </c>
       <c r="F52">
-        <v>-0.02510931175145631</v>
+        <v>-0.02529229195961237</v>
       </c>
       <c r="G52">
-        <v>0.056729712481497</v>
+        <v>0.05738169414850885</v>
       </c>
       <c r="H52">
         <v>-4</v>
@@ -2094,22 +2094,22 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.01534033469978152</v>
+        <v>0.01555145670720267</v>
       </c>
       <c r="C53">
-        <v>0.01342218854844794</v>
+        <v>0.01358313784986493</v>
       </c>
       <c r="D53">
-        <v>1.142908598281864</v>
+        <v>1.14490899518901</v>
       </c>
       <c r="E53">
-        <v>0.2709910068282785</v>
+        <v>0.2701870449339462</v>
       </c>
       <c r="F53">
-        <v>-0.01326838298222545</v>
+        <v>-0.01340031629016771</v>
       </c>
       <c r="G53">
-        <v>0.0439490523817885</v>
+        <v>0.04450322970457305</v>
       </c>
       <c r="H53">
         <v>-3</v>
@@ -2127,22 +2127,22 @@
         </is>
       </c>
       <c r="B54">
-        <v>-0.001272626800352752</v>
+        <v>-0.0009296441203262961</v>
       </c>
       <c r="C54">
-        <v>0.01189017731754619</v>
+        <v>0.0118935072820298</v>
       </c>
       <c r="D54">
-        <v>-0.1070317764289984</v>
+        <v>-0.07816400144059429</v>
       </c>
       <c r="E54">
-        <v>0.9161821858163632</v>
+        <v>0.9387307604897939</v>
       </c>
       <c r="F54">
-        <v>-0.02661593984046172</v>
+        <v>-0.02628005481172059</v>
       </c>
       <c r="G54">
-        <v>0.02407068623975621</v>
+        <v>0.024420766571068</v>
       </c>
       <c r="H54">
         <v>-2</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.01901832509180941</v>
+        <v>0.01872836433961141</v>
       </c>
       <c r="C55">
-        <v>0.008477021677550239</v>
+        <v>0.008297831485562299</v>
       </c>
       <c r="D55">
-        <v>2.243514976748942</v>
+        <v>2.257019122670493</v>
       </c>
       <c r="E55">
-        <v>0.04871285438960479</v>
+        <v>0.04760889925515776</v>
       </c>
       <c r="F55">
-        <v>0.000130343742929858</v>
+        <v>0.0002396436193950711</v>
       </c>
       <c r="G55">
-        <v>0.03790630644068896</v>
+        <v>0.03721708505982775</v>
       </c>
       <c r="H55">
         <v>-5</v>
@@ -2193,22 +2193,22 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.00776396130894783</v>
+        <v>0.007560927111089431</v>
       </c>
       <c r="C56">
-        <v>0.007812095528688278</v>
+        <v>0.007796342634206653</v>
       </c>
       <c r="D56">
-        <v>0.9938385008780698</v>
+        <v>0.9698043641534776</v>
       </c>
       <c r="E56">
-        <v>0.34374063138194</v>
+        <v>0.3550153775796575</v>
       </c>
       <c r="F56">
-        <v>-0.009642472253950773</v>
+        <v>-0.009810406815583424</v>
       </c>
       <c r="G56">
-        <v>0.02517039487184643</v>
+        <v>0.02493226103776229</v>
       </c>
       <c r="H56">
         <v>-4</v>
@@ -2226,22 +2226,22 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.002194205485808822</v>
+        <v>0.002088838266097521</v>
       </c>
       <c r="C57">
-        <v>0.007013313628211033</v>
+        <v>0.006974497437200066</v>
       </c>
       <c r="D57">
-        <v>0.312862877967219</v>
+        <v>0.299496599562318</v>
       </c>
       <c r="E57">
-        <v>0.7608121226159823</v>
+        <v>0.7706935557445806</v>
       </c>
       <c r="F57">
-        <v>-0.013432431090373</v>
+        <v>-0.01345131044680664</v>
       </c>
       <c r="G57">
-        <v>0.01782084206199064</v>
+        <v>0.01762898697900168</v>
       </c>
       <c r="H57">
         <v>-3</v>
@@ -2259,22 +2259,22 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.02047824914725683</v>
+        <v>0.02078956375260722</v>
       </c>
       <c r="C58">
-        <v>0.004148015472009832</v>
+        <v>0.004164571998226106</v>
       </c>
       <c r="D58">
-        <v>4.936878679802642</v>
+        <v>4.992004883446008</v>
       </c>
       <c r="E58">
-        <v>0.0005898940634865645</v>
+        <v>0.0005437057060260976</v>
       </c>
       <c r="F58">
-        <v>0.01123589471543154</v>
+        <v>0.01151031908146552</v>
       </c>
       <c r="G58">
-        <v>0.02972060357908212</v>
+        <v>0.03006880842374892</v>
       </c>
       <c r="H58">
         <v>-2</v>
@@ -2292,22 +2292,22 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.01158577834914817</v>
+        <v>0.01237297426561242</v>
       </c>
       <c r="C59">
-        <v>0.006798563357246377</v>
+        <v>0.006571850121270825</v>
       </c>
       <c r="D59">
-        <v>1.704150971366509</v>
+        <v>1.882723135386996</v>
       </c>
       <c r="E59">
-        <v>0.1191721745382322</v>
+        <v>0.08912344429035519</v>
       </c>
       <c r="F59">
-        <v>-0.003562364804822724</v>
+        <v>-0.002270020319021812</v>
       </c>
       <c r="G59">
-        <v>0.02673392150311906</v>
+        <v>0.02701596885024665</v>
       </c>
       <c r="H59">
         <v>-5</v>
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="B60">
-        <v>-0.0003028693446606272</v>
+        <v>0.0005163529221310311</v>
       </c>
       <c r="C60">
-        <v>0.01010486796919496</v>
+        <v>0.0101533940072167</v>
       </c>
       <c r="D60">
-        <v>-0.02997261771098195</v>
+        <v>0.05085520386227744</v>
       </c>
       <c r="E60">
-        <v>0.9766786472801222</v>
+        <v>0.9604423831434334</v>
       </c>
       <c r="F60">
-        <v>-0.02281791826101557</v>
+        <v>-0.02210681874487309</v>
       </c>
       <c r="G60">
-        <v>0.02221217957169431</v>
+        <v>0.02313952458913516</v>
       </c>
       <c r="H60">
         <v>-4</v>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>-0.001846411016764176</v>
+        <v>-0.001172546700340816</v>
       </c>
       <c r="C61">
-        <v>0.008348791780301252</v>
+        <v>0.008099982945212761</v>
       </c>
       <c r="D61">
-        <v>-0.2211590689230905</v>
+        <v>-0.1447591566885721</v>
       </c>
       <c r="E61">
-        <v>0.8294190330107869</v>
+        <v>0.8877770279654178</v>
       </c>
       <c r="F61">
-        <v>-0.02044867834959705</v>
+        <v>-0.01922043340099558</v>
       </c>
       <c r="G61">
-        <v>0.0167558563160687</v>
+        <v>0.01687534000031394</v>
       </c>
       <c r="H61">
         <v>-3</v>
@@ -2391,22 +2391,22 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.012309407898727</v>
+        <v>0.01337863008011285</v>
       </c>
       <c r="C62">
-        <v>0.006852759807372168</v>
+        <v>0.006955539307178676</v>
       </c>
       <c r="D62">
-        <v>1.796270151696342</v>
+        <v>1.92344971241914</v>
       </c>
       <c r="E62">
-        <v>0.1026739979951088</v>
+        <v>0.08333236965214477</v>
       </c>
       <c r="F62">
-        <v>-0.002959492471408903</v>
+        <v>-0.00211927728672965</v>
       </c>
       <c r="G62">
-        <v>0.0275783082688629</v>
+        <v>0.02887653744695534</v>
       </c>
       <c r="H62">
         <v>-2</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B63">
-        <v>-0.01830486905400202</v>
+        <v>-0.0217904443625869</v>
       </c>
       <c r="C63">
-        <v>0.02237181504408024</v>
+        <v>0.02026066700724238</v>
       </c>
       <c r="D63">
-        <v>-0.8182111741016578</v>
+        <v>-1.07550478741878</v>
       </c>
       <c r="E63">
-        <v>0.4323010791564198</v>
+        <v>0.3178149535753725</v>
       </c>
       <c r="F63">
-        <v>-0.0681523793431682</v>
+        <v>-0.06969930892135803</v>
       </c>
       <c r="G63">
-        <v>0.03154264123516417</v>
+        <v>0.02611842019618422</v>
       </c>
       <c r="H63">
         <v>-5</v>
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="B64">
-        <v>-0.005782958248535633</v>
+        <v>-0.009322796364945121</v>
       </c>
       <c r="C64">
-        <v>0.01880651085015991</v>
+        <v>0.01543663008606902</v>
       </c>
       <c r="D64">
-        <v>-0.3074976690046927</v>
+        <v>-0.6039398698397648</v>
       </c>
       <c r="E64">
-        <v>0.7647732174306378</v>
+        <v>0.564934448917348</v>
       </c>
       <c r="F64">
-        <v>-0.04768647574407833</v>
+        <v>-0.04582462622933074</v>
       </c>
       <c r="G64">
-        <v>0.03612055924700706</v>
+        <v>0.0271790334994405</v>
       </c>
       <c r="H64">
         <v>-4</v>
@@ -2490,22 +2490,22 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.001429738890429265</v>
+        <v>-0.002593857881137514</v>
       </c>
       <c r="C65">
-        <v>0.02061898220343435</v>
+        <v>0.02217239817554734</v>
       </c>
       <c r="D65">
-        <v>0.06934090520681105</v>
+        <v>-0.1169858966360315</v>
       </c>
       <c r="E65">
-        <v>0.9460852678271131</v>
+        <v>0.9101569862371112</v>
       </c>
       <c r="F65">
-        <v>-0.04451221644545636</v>
+        <v>-0.05502324832300837</v>
       </c>
       <c r="G65">
-        <v>0.04737169422631489</v>
+        <v>0.04983553256073334</v>
       </c>
       <c r="H65">
         <v>-3</v>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.01194911395311827</v>
+        <v>0.01072366925275204</v>
       </c>
       <c r="C66">
-        <v>0.02822724830701958</v>
+        <v>0.02831630020258582</v>
       </c>
       <c r="D66">
-        <v>0.4233184128736614</v>
+        <v>0.3787101131161468</v>
       </c>
       <c r="E66">
-        <v>0.6810229704680976</v>
+        <v>0.7161278780261264</v>
       </c>
       <c r="F66">
-        <v>-0.05094511468441582</v>
+        <v>-0.05623374092166404</v>
       </c>
       <c r="G66">
-        <v>0.07484334259065237</v>
+        <v>0.07768107942716813</v>
       </c>
       <c r="H66">
         <v>-2</v>
@@ -2556,22 +2556,22 @@
         </is>
       </c>
       <c r="B67">
-        <v>-0.00704228653815171</v>
+        <v>-0.007135354446767533</v>
       </c>
       <c r="C67">
-        <v>0.002206302748020466</v>
+        <v>0.001876606637063337</v>
       </c>
       <c r="D67">
-        <v>-3.19189492215888</v>
+        <v>-3.802264313598242</v>
       </c>
       <c r="E67">
-        <v>0.02421359861433702</v>
+        <v>0.01259927180873527</v>
       </c>
       <c r="F67">
-        <v>-0.0127137683061276</v>
+        <v>-0.01195932538063709</v>
       </c>
       <c r="G67">
-        <v>-0.001370804770175817</v>
+        <v>-0.002311383512897971</v>
       </c>
       <c r="H67">
         <v>-5</v>
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.01094567281471537</v>
+        <v>0.01132729349414047</v>
       </c>
       <c r="C68">
-        <v>0.004492807190772007</v>
+        <v>0.004865105987020854</v>
       </c>
       <c r="D68">
-        <v>2.436265868964333</v>
+        <v>2.328272708623299</v>
       </c>
       <c r="E68">
-        <v>0.05892402950270718</v>
+        <v>0.0673559587741592</v>
       </c>
       <c r="F68">
-        <v>-0.0006034557408993689</v>
+        <v>-0.001178859584540812</v>
       </c>
       <c r="G68">
-        <v>0.02249480137033011</v>
+        <v>0.02383344657282176</v>
       </c>
       <c r="H68">
         <v>-4</v>
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.0008991928858357423</v>
+        <v>0.0008273055468307221</v>
       </c>
       <c r="C69">
-        <v>0.003539188373536554</v>
+        <v>0.00358289614822116</v>
       </c>
       <c r="D69">
-        <v>0.2540675406144654</v>
+        <v>0.2309041380508513</v>
       </c>
       <c r="E69">
-        <v>0.8095607700703297</v>
+        <v>0.8265402117632246</v>
       </c>
       <c r="F69">
-        <v>-0.008198580460072553</v>
+        <v>-0.008382822210757906</v>
       </c>
       <c r="G69">
-        <v>0.009996966231744037</v>
+        <v>0.01003743330441935</v>
       </c>
       <c r="H69">
         <v>-3</v>
@@ -2655,22 +2655,22 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.001667344139628396</v>
+        <v>-0.001952307502085614</v>
       </c>
       <c r="C70">
-        <v>0.001879225862374588</v>
+        <v>0.002267195291264295</v>
       </c>
       <c r="D70">
-        <v>-0.8872505285349478</v>
+        <v>-0.8611113077060579</v>
       </c>
       <c r="E70">
-        <v>0.4155770966899875</v>
+        <v>0.42852954612861</v>
       </c>
       <c r="F70">
-        <v>-0.0064980480065065</v>
+        <v>-0.007780318535649793</v>
       </c>
       <c r="G70">
-        <v>0.003163359727249707</v>
+        <v>0.003875703531478565</v>
       </c>
       <c r="H70">
         <v>-2</v>
@@ -2688,22 +2688,22 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.01133548637266952</v>
+        <v>0.007555736710551103</v>
       </c>
       <c r="C71">
-        <v>0.01228971960574166</v>
+        <v>0.01293270074865483</v>
       </c>
       <c r="D71">
-        <v>0.9223551664574726</v>
+        <v>0.5842350223202216</v>
       </c>
       <c r="E71">
-        <v>0.3833173340162498</v>
+        <v>0.5751624277408444</v>
       </c>
       <c r="F71">
-        <v>-0.01700465785867047</v>
+        <v>-0.02226712469520496</v>
       </c>
       <c r="G71">
-        <v>0.0396756306040095</v>
+        <v>0.03737859811630716</v>
       </c>
       <c r="H71">
         <v>-3</v>
@@ -2721,22 +2721,22 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.01172637203341782</v>
+        <v>0.009476516848293742</v>
       </c>
       <c r="C72">
-        <v>0.006242019191439849</v>
+        <v>0.006862071137036766</v>
       </c>
       <c r="D72">
-        <v>1.87861838834124</v>
+        <v>1.380999505695298</v>
       </c>
       <c r="E72">
-        <v>0.09711166097016651</v>
+        <v>0.2046271821652866</v>
       </c>
       <c r="F72">
-        <v>-0.002667750034066239</v>
+        <v>-0.006347447569778192</v>
       </c>
       <c r="G72">
-        <v>0.02612049410090187</v>
+        <v>0.02530048126636568</v>
       </c>
       <c r="H72">
         <v>-2</v>
@@ -2754,22 +2754,22 @@
         </is>
       </c>
       <c r="B73">
-        <v>-0.004258493153890404</v>
+        <v>-0.003737443968871147</v>
       </c>
       <c r="C73">
-        <v>0.01088671467742499</v>
+        <v>0.01094701274055231</v>
       </c>
       <c r="D73">
-        <v>-0.3911642106981035</v>
+        <v>-0.3414122242706534</v>
       </c>
       <c r="E73">
-        <v>0.6996163892939149</v>
+        <v>0.7361858442764153</v>
       </c>
       <c r="F73">
-        <v>-0.02689865572066345</v>
+        <v>-0.02650300322253404</v>
       </c>
       <c r="G73">
-        <v>0.01838166941288264</v>
+        <v>0.01902811528479175</v>
       </c>
       <c r="H73">
         <v>-5</v>
@@ -2787,22 +2787,22 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.002805457694660288</v>
+        <v>0.002753567080587482</v>
       </c>
       <c r="C74">
-        <v>0.005648442488321481</v>
+        <v>0.005604693281784812</v>
       </c>
       <c r="D74">
-        <v>0.4966781020539295</v>
+        <v>0.4912966583803154</v>
       </c>
       <c r="E74">
-        <v>0.6245754895622471</v>
+        <v>0.6283121013007016</v>
       </c>
       <c r="F74">
-        <v>-0.008941121505201129</v>
+        <v>-0.008902030663664431</v>
       </c>
       <c r="G74">
-        <v>0.01455203689452171</v>
+        <v>0.01440916482483939</v>
       </c>
       <c r="H74">
         <v>-4</v>
@@ -2820,22 +2820,22 @@
         </is>
       </c>
       <c r="B75">
-        <v>-0.01342608627325809</v>
+        <v>-0.01311728330742588</v>
       </c>
       <c r="C75">
-        <v>0.00662011534719981</v>
+        <v>0.006538886286439067</v>
       </c>
       <c r="D75">
-        <v>-2.028074371685546</v>
+        <v>-2.006042425700182</v>
       </c>
       <c r="E75">
-        <v>0.05542726693879116</v>
+        <v>0.05790379206479201</v>
       </c>
       <c r="F75">
-        <v>-0.02719336980298901</v>
+        <v>-0.02671564175780453</v>
       </c>
       <c r="G75">
-        <v>0.0003411972564728253</v>
+        <v>0.0004810751429527686</v>
       </c>
       <c r="H75">
         <v>-3</v>
@@ -2853,22 +2853,22 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.00312870145523312</v>
+        <v>0.003894201817438469</v>
       </c>
       <c r="C76">
-        <v>0.008874872680447825</v>
+        <v>0.009050796445402779</v>
       </c>
       <c r="D76">
-        <v>0.3525347988513617</v>
+        <v>0.4302606782651126</v>
       </c>
       <c r="E76">
-        <v>0.7279507990990766</v>
+        <v>0.6713893237438525</v>
       </c>
       <c r="F76">
-        <v>-0.01532760664122163</v>
+        <v>-0.01492795977623322</v>
       </c>
       <c r="G76">
-        <v>0.02158500955168787</v>
+        <v>0.02271636341111016</v>
       </c>
       <c r="H76">
         <v>-2</v>
@@ -2886,22 +2886,22 @@
         </is>
       </c>
       <c r="B77">
-        <v>-0.0001043112369120257</v>
+        <v>-0.0004834558454806809</v>
       </c>
       <c r="C77">
-        <v>0.008371457691242345</v>
+        <v>0.008411228097769619</v>
       </c>
       <c r="D77">
-        <v>-0.01246034331884029</v>
+        <v>-0.05747743847404133</v>
       </c>
       <c r="E77">
-        <v>0.9903301816563518</v>
+        <v>0.9554207665096089</v>
       </c>
       <c r="F77">
-        <v>-0.01904186421621802</v>
+        <v>-0.01951097573477974</v>
       </c>
       <c r="G77">
-        <v>0.01883324174239397</v>
+        <v>0.01854406404381838</v>
       </c>
       <c r="H77">
         <v>-5</v>
@@ -2919,22 +2919,22 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.02372009345974145</v>
+        <v>0.02320825473909319</v>
       </c>
       <c r="C78">
-        <v>0.01741747692830662</v>
+        <v>0.01692886282373009</v>
       </c>
       <c r="D78">
-        <v>1.361855885176567</v>
+        <v>1.370928158656997</v>
       </c>
       <c r="E78">
-        <v>0.2063538698184805</v>
+        <v>0.2036105454124015</v>
       </c>
       <c r="F78">
-        <v>-0.01568097673149985</v>
+        <v>-0.01508749355563608</v>
       </c>
       <c r="G78">
-        <v>0.06312116365098275</v>
+        <v>0.06150400303382245</v>
       </c>
       <c r="H78">
         <v>-4</v>
@@ -2952,22 +2952,22 @@
         </is>
       </c>
       <c r="B79">
-        <v>0.01044834230324466</v>
+        <v>0.01076518846334542</v>
       </c>
       <c r="C79">
-        <v>0.0228934439814688</v>
+        <v>0.02278790425524027</v>
       </c>
       <c r="D79">
-        <v>0.4563901487125362</v>
+        <v>0.4724080083349429</v>
       </c>
       <c r="E79">
-        <v>0.6589234787503369</v>
+        <v>0.6478806471309809</v>
       </c>
       <c r="F79">
-        <v>-0.04134022598055444</v>
+        <v>-0.04078463237280604</v>
       </c>
       <c r="G79">
-        <v>0.06223691058704377</v>
+        <v>0.06231500929949689</v>
       </c>
       <c r="H79">
         <v>-3</v>
@@ -2985,22 +2985,22 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.02701278527359259</v>
+        <v>0.02775156352193798</v>
       </c>
       <c r="C80">
-        <v>0.01694039031389796</v>
+        <v>0.01683887222637208</v>
       </c>
       <c r="D80">
-        <v>1.594578682843641</v>
+        <v>1.648065449328314</v>
       </c>
       <c r="E80">
-        <v>0.1452707749684161</v>
+        <v>0.1337420086783125</v>
       </c>
       <c r="F80">
-        <v>-0.01130904001558902</v>
+        <v>-0.01034061189839338</v>
       </c>
       <c r="G80">
-        <v>0.0653346105627742</v>
+        <v>0.06584373894226933</v>
       </c>
       <c r="H80">
         <v>-2</v>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B81">
-        <v>-0.006246651769720825</v>
+        <v>-0.006812288501118476</v>
       </c>
       <c r="C81">
-        <v>0.007751388184074393</v>
+        <v>0.00803059784788762</v>
       </c>
       <c r="D81">
-        <v>-0.805875234394128</v>
+        <v>-0.8482915755656213</v>
       </c>
       <c r="E81">
-        <v>0.4276242844607072</v>
+        <v>0.4080616401147105</v>
       </c>
       <c r="F81">
-        <v>-0.02217985837243426</v>
+        <v>-0.02375536893990648</v>
       </c>
       <c r="G81">
-        <v>0.009686554832992609</v>
+        <v>0.01013079193766953</v>
       </c>
       <c r="H81">
         <v>-5</v>
@@ -3051,22 +3051,22 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.003452165281274352</v>
+        <v>0.003739356239865957</v>
       </c>
       <c r="C82">
-        <v>0.00476827911103686</v>
+        <v>0.004140164171426328</v>
       </c>
       <c r="D82">
-        <v>0.7239855723386294</v>
+        <v>0.9031903289423694</v>
       </c>
       <c r="E82">
-        <v>0.4755389826253368</v>
+        <v>0.3790453118451591</v>
       </c>
       <c r="F82">
-        <v>-0.006349172803127781</v>
+        <v>-0.004995626623796674</v>
       </c>
       <c r="G82">
-        <v>0.01325350336567648</v>
+        <v>0.01247433910352859</v>
       </c>
       <c r="H82">
         <v>-4</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="B83">
-        <v>-0.004673061609673821</v>
+        <v>-0.004549193801689387</v>
       </c>
       <c r="C83">
-        <v>0.006448635823084862</v>
+        <v>0.006102537139384611</v>
       </c>
       <c r="D83">
-        <v>-0.7246589414997152</v>
+        <v>-0.7454594208578851</v>
       </c>
       <c r="E83">
-        <v>0.4751326424465365</v>
+        <v>0.4661768846058605</v>
       </c>
       <c r="F83">
-        <v>-0.01792842238311176</v>
+        <v>-0.0174244217226694</v>
       </c>
       <c r="G83">
-        <v>0.008582299163764124</v>
+        <v>0.008326034119290629</v>
       </c>
       <c r="H83">
         <v>-3</v>
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.009425285469423414</v>
+        <v>0.009249096862653678</v>
       </c>
       <c r="C84">
-        <v>0.00836806811495627</v>
+        <v>0.008279727489420068</v>
       </c>
       <c r="D84">
-        <v>1.126339477636132</v>
+        <v>1.117077449043134</v>
       </c>
       <c r="E84">
-        <v>0.2703109348701905</v>
+        <v>0.2795009657577011</v>
       </c>
       <c r="F84">
-        <v>-0.00777552488543797</v>
+        <v>-0.008219601174739516</v>
       </c>
       <c r="G84">
-        <v>0.0266260958242848</v>
+        <v>0.02671779490004687</v>
       </c>
       <c r="H84">
         <v>-2</v>
@@ -3150,22 +3150,22 @@
         </is>
       </c>
       <c r="B85">
-        <v>-0.01073470998564998</v>
+        <v>-0.0108641627983635</v>
       </c>
       <c r="C85">
-        <v>0.006094425279728731</v>
+        <v>0.006116195518557918</v>
       </c>
       <c r="D85">
-        <v>-1.761398243958419</v>
+        <v>-1.77629422823374</v>
       </c>
       <c r="E85">
-        <v>0.1120152147541538</v>
+        <v>0.1094144727930424</v>
       </c>
       <c r="F85">
-        <v>-0.02452125778532679</v>
+        <v>-0.02469995829974357</v>
       </c>
       <c r="G85">
-        <v>0.003051837814026818</v>
+        <v>0.002971632703016577</v>
       </c>
       <c r="H85">
         <v>-5</v>
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="B86">
-        <v>-0.008997092885080681</v>
+        <v>-0.009255258531594878</v>
       </c>
       <c r="C86">
-        <v>0.00459630300226507</v>
+        <v>0.004653174113550738</v>
       </c>
       <c r="D86">
-        <v>-1.957462961133522</v>
+        <v>-1.989020463395553</v>
       </c>
       <c r="E86">
-        <v>0.08197797450881091</v>
+        <v>0.077919454286369</v>
       </c>
       <c r="F86">
-        <v>-0.0193946526440455</v>
+        <v>-0.01978146968231087</v>
       </c>
       <c r="G86">
-        <v>0.00140046687388414</v>
+        <v>0.001270952619121111</v>
       </c>
       <c r="H86">
         <v>-4</v>
@@ -3216,22 +3216,22 @@
         </is>
       </c>
       <c r="B87">
-        <v>-0.004893200410093175</v>
+        <v>-0.004830229643561723</v>
       </c>
       <c r="C87">
-        <v>0.007124047435016847</v>
+        <v>0.007122194938365093</v>
       </c>
       <c r="D87">
-        <v>-0.6868567980108633</v>
+        <v>-0.6781939676408951</v>
       </c>
       <c r="E87">
-        <v>0.5094818617041343</v>
+        <v>0.5147055416615569</v>
       </c>
       <c r="F87">
-        <v>-0.02100891534333071</v>
+        <v>-0.02094175393822944</v>
       </c>
       <c r="G87">
-        <v>0.01122251452314436</v>
+        <v>0.01128129465110599</v>
       </c>
       <c r="H87">
         <v>-3</v>
@@ -3249,22 +3249,22 @@
         </is>
       </c>
       <c r="B88">
-        <v>-0.01319567454191763</v>
+        <v>-0.01317562874614679</v>
       </c>
       <c r="C88">
-        <v>0.009587207838863746</v>
+        <v>0.009415275626270318</v>
       </c>
       <c r="D88">
-        <v>-1.376383485546877</v>
+        <v>-1.399388532969168</v>
       </c>
       <c r="E88">
-        <v>0.2019759606803276</v>
+        <v>0.1952058613404677</v>
       </c>
       <c r="F88">
-        <v>-0.03488344542583835</v>
+        <v>-0.03447446194383354</v>
       </c>
       <c r="G88">
-        <v>0.008492096342003094</v>
+        <v>0.008123204451539964</v>
       </c>
       <c r="H88">
         <v>-2</v>
@@ -3282,22 +3282,22 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.008453241935939659</v>
+        <v>0.008664434889495894</v>
       </c>
       <c r="C89">
-        <v>0.01259633728763974</v>
+        <v>0.01210652517749912</v>
       </c>
       <c r="D89">
-        <v>0.6710872964821664</v>
+        <v>0.7156830521113847</v>
       </c>
       <c r="E89">
-        <v>0.5069804652587353</v>
+        <v>0.4793771560882962</v>
       </c>
       <c r="F89">
-        <v>-0.01720465749072351</v>
+        <v>-0.01599574991799128</v>
       </c>
       <c r="G89">
-        <v>0.03411114136260283</v>
+        <v>0.03332461969698308</v>
       </c>
       <c r="H89">
         <v>-5</v>
@@ -3315,22 +3315,22 @@
         </is>
       </c>
       <c r="B90">
-        <v>-0.005447504276043863</v>
+        <v>-0.005461399759089188</v>
       </c>
       <c r="C90">
-        <v>0.00468502293688027</v>
+        <v>0.004254376687509382</v>
       </c>
       <c r="D90">
-        <v>-1.162748688626768</v>
+        <v>-1.283713258189751</v>
       </c>
       <c r="E90">
-        <v>0.2535296150995969</v>
+        <v>0.2084603232200965</v>
       </c>
       <c r="F90">
-        <v>-0.01499058371105065</v>
+        <v>-0.01412728148951638</v>
       </c>
       <c r="G90">
-        <v>0.004095575158962929</v>
+        <v>0.003204481971338009</v>
       </c>
       <c r="H90">
         <v>-4</v>
@@ -3348,22 +3348,22 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.007353903644056422</v>
+        <v>0.007025991221274567</v>
       </c>
       <c r="C91">
-        <v>0.009886717208721129</v>
+        <v>0.009600215999202372</v>
       </c>
       <c r="D91">
-        <v>0.7438165256278901</v>
+        <v>0.7318576188138181</v>
       </c>
       <c r="E91">
-        <v>0.4624144908593497</v>
+        <v>0.4695817565196643</v>
       </c>
       <c r="F91">
-        <v>-0.01278468029574843</v>
+        <v>-0.01252900885191988</v>
       </c>
       <c r="G91">
-        <v>0.02749248758386127</v>
+        <v>0.02658099129446901</v>
       </c>
       <c r="H91">
         <v>-3</v>
@@ -3381,22 +3381,22 @@
         </is>
       </c>
       <c r="B92">
-        <v>-0.001254427304343548</v>
+        <v>-0.001200319387631316</v>
       </c>
       <c r="C92">
-        <v>0.006743226341403819</v>
+        <v>0.006152920401203511</v>
       </c>
       <c r="D92">
-        <v>-0.1860277619099464</v>
+        <v>-0.1950812474994043</v>
       </c>
       <c r="E92">
-        <v>0.8535972440962584</v>
+        <v>0.8465627089164361</v>
       </c>
       <c r="F92">
-        <v>-0.01498992988164746</v>
+        <v>-0.01373340811249865</v>
       </c>
       <c r="G92">
-        <v>0.01248107527296036</v>
+        <v>0.01133276933723602</v>
       </c>
       <c r="H92">
         <v>-2</v>
@@ -3414,22 +3414,22 @@
         </is>
       </c>
       <c r="B93">
-        <v>0.001220962474142659</v>
+        <v>0.001078949060160146</v>
       </c>
       <c r="C93">
-        <v>0.002262001849644807</v>
+        <v>0.002258495244467613</v>
       </c>
       <c r="D93">
-        <v>0.5397707673556419</v>
+        <v>0.4777291706958997</v>
       </c>
       <c r="E93">
-        <v>0.5927730323842056</v>
+        <v>0.6358131541349485</v>
       </c>
       <c r="F93">
-        <v>-0.003371145414538203</v>
+        <v>-0.003506040041549251</v>
       </c>
       <c r="G93">
-        <v>0.00581307036282352</v>
+        <v>0.005663938161869543</v>
       </c>
       <c r="H93">
         <v>-5</v>
@@ -3447,22 +3447,22 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.00232725844786747</v>
+        <v>0.002203842116862594</v>
       </c>
       <c r="C94">
-        <v>0.001651224125932391</v>
+        <v>0.001635019345605637</v>
       </c>
       <c r="D94">
-        <v>1.409414028851683</v>
+        <v>1.34789971922091</v>
       </c>
       <c r="E94">
-        <v>0.1675366793158132</v>
+        <v>0.1863506942523572</v>
       </c>
       <c r="F94">
-        <v>-0.001024904741506119</v>
+        <v>-0.001115423619494096</v>
       </c>
       <c r="G94">
-        <v>0.005679421637241059</v>
+        <v>0.005523107853219283</v>
       </c>
       <c r="H94">
         <v>-4</v>
@@ -3480,22 +3480,22 @@
         </is>
       </c>
       <c r="B95">
-        <v>0.002552865364466798</v>
+        <v>0.002436176746934525</v>
       </c>
       <c r="C95">
-        <v>0.003313179372212997</v>
+        <v>0.00326880254515149</v>
       </c>
       <c r="D95">
-        <v>0.770518308147513</v>
+        <v>0.7452810970635187</v>
       </c>
       <c r="E95">
-        <v>0.4461627388903292</v>
+        <v>0.4610776576282929</v>
       </c>
       <c r="F95">
-        <v>-0.004173246346778301</v>
+        <v>-0.004199845215862414</v>
       </c>
       <c r="G95">
-        <v>0.009278977075711896</v>
+        <v>0.009072198709731463</v>
       </c>
       <c r="H95">
         <v>-3</v>
@@ -3513,22 +3513,22 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.001433899716045455</v>
+        <v>0.001192721983839511</v>
       </c>
       <c r="C96">
-        <v>0.002918201949438386</v>
+        <v>0.002855404038214945</v>
       </c>
       <c r="D96">
-        <v>0.4913641142352783</v>
+        <v>0.4177069051793947</v>
       </c>
       <c r="E96">
-        <v>0.6262362621117201</v>
+        <v>0.678712939483489</v>
       </c>
       <c r="F96">
-        <v>-0.004490365197745017</v>
+        <v>-0.004604056392498694</v>
       </c>
       <c r="G96">
-        <v>0.007358164629835926</v>
+        <v>0.006989500360177715</v>
       </c>
       <c r="H96">
         <v>-2</v>
@@ -3546,22 +3546,22 @@
         </is>
       </c>
       <c r="B97">
-        <v>0.005795380173592693</v>
+        <v>0.004561975705336677</v>
       </c>
       <c r="C97">
-        <v>0.004158411498863673</v>
+        <v>0.004668282302983439</v>
       </c>
       <c r="D97">
-        <v>1.393652401927115</v>
+        <v>0.9772278986686769</v>
       </c>
       <c r="E97">
-        <v>0.1867908355380659</v>
+        <v>0.3462919911672033</v>
       </c>
       <c r="F97">
-        <v>-0.003188321689226845</v>
+        <v>-0.005523235061548682</v>
       </c>
       <c r="G97">
-        <v>0.01477908203641223</v>
+        <v>0.01464718647222204</v>
       </c>
       <c r="H97">
         <v>-5</v>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B98">
-        <v>-0.01399791155414692</v>
+        <v>-0.01511621126340343</v>
       </c>
       <c r="C98">
-        <v>0.004438157918343945</v>
+        <v>0.004751334301808349</v>
       </c>
       <c r="D98">
-        <v>-3.153991320653615</v>
+        <v>-3.181466574063253</v>
       </c>
       <c r="E98">
-        <v>0.007612912111374359</v>
+        <v>0.007220683968750773</v>
       </c>
       <c r="F98">
-        <v>-0.02358596881336933</v>
+        <v>-0.02538084496540671</v>
       </c>
       <c r="G98">
-        <v>-0.004409854294924508</v>
+        <v>-0.004851577561400148</v>
       </c>
       <c r="H98">
         <v>-4</v>
@@ -3612,22 +3612,22 @@
         </is>
       </c>
       <c r="B99">
-        <v>-0.006484696749050773</v>
+        <v>-0.007408748618491241</v>
       </c>
       <c r="C99">
-        <v>0.005165412915801796</v>
+        <v>0.004826377780458142</v>
       </c>
       <c r="D99">
-        <v>-1.255407235540277</v>
+        <v>-1.535053606555425</v>
       </c>
       <c r="E99">
-        <v>0.2314282368404853</v>
+        <v>0.1487434151188075</v>
       </c>
       <c r="F99">
-        <v>-0.01764389291003705</v>
+        <v>-0.01783550389964147</v>
       </c>
       <c r="G99">
-        <v>0.004674499411935505</v>
+        <v>0.003018006662658987</v>
       </c>
       <c r="H99">
         <v>-3</v>
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="B100">
-        <v>-0.01186260652501702</v>
+        <v>-0.01235057015515995</v>
       </c>
       <c r="C100">
-        <v>0.005447592753593107</v>
+        <v>0.00534242077609602</v>
       </c>
       <c r="D100">
-        <v>-2.177586883159119</v>
+        <v>-2.311792850615773</v>
       </c>
       <c r="E100">
-        <v>0.0484489616858908</v>
+        <v>0.03782165703214787</v>
       </c>
       <c r="F100">
-        <v>-0.0236314151630534</v>
+        <v>-0.02389216854947341</v>
       </c>
       <c r="G100">
-        <v>-9.37978869806344e-05</v>
+        <v>-0.0008089717608464834</v>
       </c>
       <c r="H100">
         <v>-2</v>
@@ -3678,22 +3678,22 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.001241694363003071</v>
+        <v>0.001286949840996421</v>
       </c>
       <c r="C101">
-        <v>0.003689684708258137</v>
+        <v>0.003722247418381271</v>
       </c>
       <c r="D101">
-        <v>0.3365312922873734</v>
+        <v>0.3457453780856108</v>
       </c>
       <c r="E101">
-        <v>0.7380007381027964</v>
+        <v>0.7311103531284344</v>
       </c>
       <c r="F101">
-        <v>-0.006185255747650048</v>
+        <v>-0.006205545605552444</v>
       </c>
       <c r="G101">
-        <v>0.00866864447365619</v>
+        <v>0.008779445287545286</v>
       </c>
       <c r="H101">
         <v>-5</v>
@@ -3711,22 +3711,22 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.00330862039772986</v>
+        <v>0.003408959665609446</v>
       </c>
       <c r="C102">
-        <v>0.00408290145754405</v>
+        <v>0.004070679141834638</v>
       </c>
       <c r="D102">
-        <v>0.8103600912572755</v>
+        <v>0.837442487317495</v>
       </c>
       <c r="E102">
-        <v>0.4219059293986137</v>
+        <v>0.406673934797784</v>
       </c>
       <c r="F102">
-        <v>-0.00490983397698228</v>
+        <v>-0.004784892463602615</v>
       </c>
       <c r="G102">
-        <v>0.011527074772442</v>
+        <v>0.01160281179482151</v>
       </c>
       <c r="H102">
         <v>-4</v>
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="B103">
-        <v>-0.0005974468507180699</v>
+        <v>-0.0003668785485164683</v>
       </c>
       <c r="C103">
-        <v>0.003782564659254252</v>
+        <v>0.003731285448943876</v>
       </c>
       <c r="D103">
-        <v>-0.1579475579502345</v>
+        <v>-0.09832497500836117</v>
       </c>
       <c r="E103">
-        <v>0.8751894527724875</v>
+        <v>0.922101459608305</v>
       </c>
       <c r="F103">
-        <v>-0.008211354605959122</v>
+        <v>-0.0078775666070077</v>
       </c>
       <c r="G103">
-        <v>0.007016460904522983</v>
+        <v>0.007143809509974764</v>
       </c>
       <c r="H103">
         <v>-3</v>
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B104">
-        <v>-0.002762106418544666</v>
+        <v>-0.002957369792513679</v>
       </c>
       <c r="C104">
-        <v>0.004429685807707629</v>
+        <v>0.004530757711647305</v>
       </c>
       <c r="D104">
-        <v>-0.6235445443418619</v>
+        <v>-0.6527318344371212</v>
       </c>
       <c r="E104">
-        <v>0.5360065750626669</v>
+        <v>0.5171781801755213</v>
       </c>
       <c r="F104">
-        <v>-0.01167860148547521</v>
+        <v>-0.0120773120500588</v>
       </c>
       <c r="G104">
-        <v>0.006154388648385875</v>
+        <v>0.006162572465031442</v>
       </c>
       <c r="H104">
         <v>-2</v>
@@ -3810,22 +3810,22 @@
         </is>
       </c>
       <c r="B105">
-        <v>-0.004162519730486868</v>
+        <v>-0.004697815422912092</v>
       </c>
       <c r="C105">
-        <v>0.007547531178612295</v>
+        <v>0.002984273082920191</v>
       </c>
       <c r="D105">
-        <v>-0.5515074574693175</v>
+        <v>-1.574190864032843</v>
       </c>
       <c r="E105">
-        <v>0.5923124333442091</v>
+        <v>0.1540903148578886</v>
       </c>
       <c r="F105">
-        <v>-0.02077452384994148</v>
+        <v>-0.01157956149270454</v>
       </c>
       <c r="G105">
-        <v>0.01244948438896775</v>
+        <v>0.002183930646880352</v>
       </c>
       <c r="H105">
         <v>-5</v>
@@ -3843,22 +3843,22 @@
         </is>
       </c>
       <c r="B106">
-        <v>-0.01017940522435542</v>
+        <v>-0.01056360738266739</v>
       </c>
       <c r="C106">
-        <v>0.01441511502842174</v>
+        <v>0.008646260837174338</v>
       </c>
       <c r="D106">
-        <v>-0.7061619143714823</v>
+        <v>-1.221754418655689</v>
       </c>
       <c r="E106">
-        <v>0.494772528225869</v>
+        <v>0.2565773086495081</v>
       </c>
       <c r="F106">
-        <v>-0.04190685948292562</v>
+        <v>-0.03050192062724524</v>
       </c>
       <c r="G106">
-        <v>0.02154804903421478</v>
+        <v>0.009374705861910471</v>
       </c>
       <c r="H106">
         <v>-4</v>
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="B107">
-        <v>0.00108410668515842</v>
+        <v>0.0005016414881067995</v>
       </c>
       <c r="C107">
-        <v>0.005333187992747482</v>
+        <v>0.002672466946417542</v>
       </c>
       <c r="D107">
-        <v>0.2032755430021742</v>
+        <v>0.1877072750251422</v>
       </c>
       <c r="E107">
-        <v>0.8426310867842287</v>
+        <v>0.8557797028531057</v>
       </c>
       <c r="F107">
-        <v>-0.0106541609428577</v>
+        <v>-0.005661078341528502</v>
       </c>
       <c r="G107">
-        <v>0.01282237431317454</v>
+        <v>0.006664361317742101</v>
       </c>
       <c r="H107">
         <v>-3</v>
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="B108">
-        <v>0.004948266368483719</v>
+        <v>0.004737145581328322</v>
       </c>
       <c r="C108">
-        <v>0.003563819623755324</v>
+        <v>0.003485548750320241</v>
       </c>
       <c r="D108">
-        <v>1.388472731756708</v>
+        <v>1.359081717302932</v>
       </c>
       <c r="E108">
-        <v>0.192467247167109</v>
+        <v>0.211193144740081</v>
       </c>
       <c r="F108">
-        <v>-0.002895647736645116</v>
+        <v>-0.003300544250365868</v>
       </c>
       <c r="G108">
-        <v>0.01279218047361255</v>
+        <v>0.01277483541302251</v>
       </c>
       <c r="H108">
         <v>-2</v>
@@ -3942,22 +3942,22 @@
         </is>
       </c>
       <c r="B109">
-        <v>0.001848221088703861</v>
+        <v>0.001310502144894751</v>
       </c>
       <c r="C109">
-        <v>0.003432577183630342</v>
+        <v>0.003358054899872603</v>
       </c>
       <c r="D109">
-        <v>0.5384354057697128</v>
+        <v>0.3902563191996858</v>
       </c>
       <c r="E109">
-        <v>0.5952356254514382</v>
+        <v>0.6997892620866623</v>
       </c>
       <c r="F109">
-        <v>-0.005236270023267979</v>
+        <v>-0.005620182532820257</v>
       </c>
       <c r="G109">
-        <v>0.008932712200675702</v>
+        <v>0.008241186822609759</v>
       </c>
       <c r="H109">
         <v>-5</v>
@@ -3975,22 +3975,22 @@
         </is>
       </c>
       <c r="B110">
-        <v>0.00152942324761594</v>
+        <v>0.001025212543873864</v>
       </c>
       <c r="C110">
-        <v>0.002700003486416474</v>
+        <v>0.002529445899898717</v>
       </c>
       <c r="D110">
-        <v>0.5664523232323068</v>
+        <v>0.4053111173142368</v>
       </c>
       <c r="E110">
-        <v>0.5763457113223156</v>
+        <v>0.6888392370861114</v>
       </c>
       <c r="F110">
-        <v>-0.004043110064389675</v>
+        <v>-0.004195307210643004</v>
       </c>
       <c r="G110">
-        <v>0.007101956559621555</v>
+        <v>0.006245732298390733</v>
       </c>
       <c r="H110">
         <v>-4</v>
@@ -4008,22 +4008,22 @@
         </is>
       </c>
       <c r="B111">
-        <v>0.005676074807625894</v>
+        <v>0.005349943459259734</v>
       </c>
       <c r="C111">
-        <v>0.002891465619177253</v>
+        <v>0.002794297912857804</v>
       </c>
       <c r="D111">
-        <v>1.963044198063466</v>
+        <v>1.914593084238538</v>
       </c>
       <c r="E111">
-        <v>0.06133131820272611</v>
+        <v>0.06753875320896217</v>
       </c>
       <c r="F111">
-        <v>-0.0002916169247909276</v>
+        <v>-0.0004172039838476818</v>
       </c>
       <c r="G111">
-        <v>0.01164376654004272</v>
+        <v>0.01111709090236715</v>
       </c>
       <c r="H111">
         <v>-3</v>
@@ -4041,22 +4041,22 @@
         </is>
       </c>
       <c r="B112">
-        <v>0.007738420116904138</v>
+        <v>0.007476969303776435</v>
       </c>
       <c r="C112">
-        <v>0.002091455195524415</v>
+        <v>0.002004047569942301</v>
       </c>
       <c r="D112">
-        <v>3.700017161956842</v>
+        <v>3.73093404364234</v>
       </c>
       <c r="E112">
-        <v>0.001120255442303424</v>
+        <v>0.001036882700450659</v>
       </c>
       <c r="F112">
-        <v>0.003421868747151838</v>
+        <v>0.00334081840673838</v>
       </c>
       <c r="G112">
-        <v>0.01205497148665644</v>
+        <v>0.01161312020081449</v>
       </c>
       <c r="H112">
         <v>-2</v>
@@ -4074,22 +4074,22 @@
         </is>
       </c>
       <c r="B113">
-        <v>-0.004568964314043478</v>
+        <v>-0.004580026490651224</v>
       </c>
       <c r="C113">
-        <v>0.004928907824758339</v>
+        <v>0.00487913049616367</v>
       </c>
       <c r="D113">
-        <v>-0.9269729677420964</v>
+        <v>-0.9386972728547385</v>
       </c>
       <c r="E113">
-        <v>0.3669148205844246</v>
+        <v>0.3610328378697083</v>
       </c>
       <c r="F113">
-        <v>-0.01496805082442315</v>
+        <v>-0.01487409201773893</v>
       </c>
       <c r="G113">
-        <v>0.005830122196336191</v>
+        <v>0.005714039036436486</v>
       </c>
       <c r="H113">
         <v>-5</v>
@@ -4107,22 +4107,22 @@
         </is>
       </c>
       <c r="B114">
-        <v>-0.0001744279579719043</v>
+        <v>-0.0001165115952398361</v>
       </c>
       <c r="C114">
-        <v>0.00271860705054795</v>
+        <v>0.002793148658610554</v>
       </c>
       <c r="D114">
-        <v>-0.06416078334555463</v>
+        <v>-0.04171335273568809</v>
       </c>
       <c r="E114">
-        <v>0.9495906240930486</v>
+        <v>0.9672132167092355</v>
       </c>
       <c r="F114">
-        <v>-0.005910187463225455</v>
+        <v>-0.006009540146380616</v>
       </c>
       <c r="G114">
-        <v>0.005561331547281646</v>
+        <v>0.005776516955900943</v>
       </c>
       <c r="H114">
         <v>-4</v>
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="B115">
-        <v>0.003343988526398699</v>
+        <v>0.003034942058666599</v>
       </c>
       <c r="C115">
-        <v>0.005225855930206255</v>
+        <v>0.005241227073224827</v>
       </c>
       <c r="D115">
-        <v>0.6398929804149267</v>
+        <v>0.5790518167340644</v>
       </c>
       <c r="E115">
-        <v>0.530772246144235</v>
+        <v>0.5701480111020275</v>
       </c>
       <c r="F115">
-        <v>-0.007681603722663074</v>
+        <v>-0.008023080467384862</v>
       </c>
       <c r="G115">
-        <v>0.01436958077546047</v>
+        <v>0.01409296458471806</v>
       </c>
       <c r="H115">
         <v>-3</v>
@@ -4173,22 +4173,22 @@
         </is>
       </c>
       <c r="B116">
-        <v>0.01079057507820934</v>
+        <v>0.01075285600401927</v>
       </c>
       <c r="C116">
-        <v>0.006224541145367867</v>
+        <v>0.006220678484407013</v>
       </c>
       <c r="D116">
-        <v>1.733553498355359</v>
+        <v>1.728566430651059</v>
       </c>
       <c r="E116">
-        <v>0.1010945773461604</v>
+        <v>0.1020041640750265</v>
       </c>
       <c r="F116">
-        <v>-0.002342058795152223</v>
+        <v>-0.002371628367075192</v>
       </c>
       <c r="G116">
-        <v>0.0239232089515709</v>
+        <v>0.02387734037511373</v>
       </c>
       <c r="H116">
         <v>-2</v>
@@ -4206,22 +4206,22 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.01013502623148399</v>
+        <v>0.01020452440484115</v>
       </c>
       <c r="C117">
-        <v>0.005372239189455529</v>
+        <v>0.00535705068609357</v>
       </c>
       <c r="D117">
-        <v>1.886555284317331</v>
+        <v>1.904877329484895</v>
       </c>
       <c r="E117">
-        <v>0.09184014101836567</v>
+        <v>0.08918965624052293</v>
       </c>
       <c r="F117">
-        <v>-0.002017823131208062</v>
+        <v>-0.001913966176178462</v>
       </c>
       <c r="G117">
-        <v>0.02228787559417603</v>
+        <v>0.02232301498586076</v>
       </c>
       <c r="H117">
         <v>-5</v>
@@ -4239,22 +4239,22 @@
         </is>
       </c>
       <c r="B118">
-        <v>0.003353136987576711</v>
+        <v>0.003392923380103552</v>
       </c>
       <c r="C118">
-        <v>0.006491490170431372</v>
+        <v>0.006489159840293995</v>
       </c>
       <c r="D118">
-        <v>0.5165434899447577</v>
+        <v>0.5228601950957389</v>
       </c>
       <c r="E118">
-        <v>0.6179265263077736</v>
+        <v>0.6136980521025844</v>
       </c>
       <c r="F118">
-        <v>-0.01133163399869876</v>
+        <v>-0.01128657603315996</v>
       </c>
       <c r="G118">
-        <v>0.01803790797385218</v>
+        <v>0.01807242279336707</v>
       </c>
       <c r="H118">
         <v>-4</v>
@@ -4272,22 +4272,22 @@
         </is>
       </c>
       <c r="B119">
-        <v>-0.006663446661547986</v>
+        <v>-0.006607602386570288</v>
       </c>
       <c r="C119">
-        <v>0.003518384061579782</v>
+        <v>0.003587447129410108</v>
       </c>
       <c r="D119">
-        <v>-1.893894056169651</v>
+        <v>-1.84186753092492</v>
       </c>
       <c r="E119">
-        <v>0.0907697245713943</v>
+        <v>0.09861838949475993</v>
       </c>
       <c r="F119">
-        <v>-0.01462258436792573</v>
+        <v>-0.01472297160652522</v>
       </c>
       <c r="G119">
-        <v>0.001295691044829758</v>
+        <v>0.001507766833384646</v>
       </c>
       <c r="H119">
         <v>-3</v>
@@ -4305,22 +4305,22 @@
         </is>
       </c>
       <c r="B120">
-        <v>0.01158345838513968</v>
+        <v>0.01149694459658769</v>
       </c>
       <c r="C120">
-        <v>0.003747631844877738</v>
+        <v>0.003738832967966583</v>
       </c>
       <c r="D120">
-        <v>3.090874147889406</v>
+        <v>3.075008885149653</v>
       </c>
       <c r="E120">
-        <v>0.01291123779825658</v>
+        <v>0.01324634457727261</v>
       </c>
       <c r="F120">
-        <v>0.003105726163718854</v>
+        <v>0.003039116817596015</v>
       </c>
       <c r="G120">
-        <v>0.0200611906065605</v>
+        <v>0.01995477237557937</v>
       </c>
       <c r="H120">
         <v>-2</v>
@@ -4338,22 +4338,22 @@
         </is>
       </c>
       <c r="B121">
-        <v>-0.00493966903237456</v>
+        <v>-0.004838555419990891</v>
       </c>
       <c r="C121">
-        <v>0.002950111760783563</v>
+        <v>0.002875111711179249</v>
       </c>
       <c r="D121">
-        <v>-1.674400644083586</v>
+        <v>-1.682910406986002</v>
       </c>
       <c r="E121">
-        <v>0.1179263622537784</v>
+        <v>0.1162394957299311</v>
       </c>
       <c r="F121">
-        <v>-0.01131299801343363</v>
+        <v>-0.01104985664465164</v>
       </c>
       <c r="G121">
-        <v>0.001433659948684506</v>
+        <v>0.001372745804669861</v>
       </c>
       <c r="H121">
         <v>-5</v>
@@ -4371,22 +4371,22 @@
         </is>
       </c>
       <c r="B122">
-        <v>0.01023344311538327</v>
+        <v>0.00977862968499205</v>
       </c>
       <c r="C122">
-        <v>0.004369023844559918</v>
+        <v>0.004341515287983876</v>
       </c>
       <c r="D122">
-        <v>2.342272205294878</v>
+        <v>2.252354082929666</v>
       </c>
       <c r="E122">
-        <v>0.03573698532705123</v>
+        <v>0.04222348670011918</v>
       </c>
       <c r="F122">
-        <v>0.0007947409422574547</v>
+        <v>0.0003993561352776537</v>
       </c>
       <c r="G122">
-        <v>0.01967214528850908</v>
+        <v>0.01915790323470645</v>
       </c>
       <c r="H122">
         <v>-4</v>
@@ -4404,22 +4404,22 @@
         </is>
       </c>
       <c r="B123">
-        <v>0.01242729419012302</v>
+        <v>0.01257001125343028</v>
       </c>
       <c r="C123">
-        <v>0.002786819137938868</v>
+        <v>0.002597041284021622</v>
       </c>
       <c r="D123">
-        <v>4.459311342075199</v>
+        <v>4.840127621677663</v>
       </c>
       <c r="E123">
-        <v>0.0006435276027913439</v>
+        <v>0.0003227966614335757</v>
       </c>
       <c r="F123">
-        <v>0.006406737473289235</v>
+        <v>0.006959444663890084</v>
       </c>
       <c r="G123">
-        <v>0.01844785090695681</v>
+        <v>0.01818057784297047</v>
       </c>
       <c r="H123">
         <v>-3</v>
@@ -4437,22 +4437,22 @@
         </is>
       </c>
       <c r="B124">
-        <v>0.02733511032569531</v>
+        <v>0.026809369715808</v>
       </c>
       <c r="C124">
-        <v>0.006053350836547018</v>
+        <v>0.006143973770486652</v>
       </c>
       <c r="D124">
-        <v>4.515699001065653</v>
+        <v>4.363522813946598</v>
       </c>
       <c r="E124">
-        <v>0.0005803825691342049</v>
+        <v>0.0007675878532617664</v>
       </c>
       <c r="F124">
-        <v>0.01425764091184631</v>
+        <v>0.01353612135591912</v>
       </c>
       <c r="G124">
-        <v>0.0404125797395443</v>
+        <v>0.04008261807569688</v>
       </c>
       <c r="H124">
         <v>-2</v>
@@ -4470,22 +4470,22 @@
         </is>
       </c>
       <c r="B125">
-        <v>0.02079291628523552</v>
+        <v>0.02044895113713356</v>
       </c>
       <c r="C125">
-        <v>0.01162450986443873</v>
+        <v>0.01060956145347351</v>
       </c>
       <c r="D125">
-        <v>1.788713376109254</v>
+        <v>1.927407765797773</v>
       </c>
       <c r="E125">
-        <v>0.0823197268004741</v>
+        <v>0.06207615982831283</v>
       </c>
       <c r="F125">
-        <v>-0.002806093352585852</v>
+        <v>-0.001089603684822249</v>
       </c>
       <c r="G125">
-        <v>0.04439192592305689</v>
+        <v>0.04198750595908936</v>
       </c>
       <c r="H125">
         <v>-5</v>
@@ -4503,22 +4503,22 @@
         </is>
       </c>
       <c r="B126">
-        <v>0.008845040249376943</v>
+        <v>0.01100753933026908</v>
       </c>
       <c r="C126">
-        <v>0.01193838609660827</v>
+        <v>0.01276101972304896</v>
       </c>
       <c r="D126">
-        <v>0.7408907852201096</v>
+        <v>0.862590887653536</v>
       </c>
       <c r="E126">
-        <v>0.4637016760217018</v>
+        <v>0.3942346370857516</v>
       </c>
       <c r="F126">
-        <v>-0.01539117201586117</v>
+        <v>-0.0148987079820516</v>
       </c>
       <c r="G126">
-        <v>0.03308125251461506</v>
+        <v>0.03691378664258976</v>
       </c>
       <c r="H126">
         <v>-4</v>
@@ -4536,22 +4536,22 @@
         </is>
       </c>
       <c r="B127">
-        <v>0.002363036380145174</v>
+        <v>0.002851323451028859</v>
       </c>
       <c r="C127">
-        <v>0.008763307421257615</v>
+        <v>0.009492916256305656</v>
       </c>
       <c r="D127">
-        <v>0.2696512020579162</v>
+        <v>0.3003632786852903</v>
       </c>
       <c r="E127">
-        <v>0.7890120932420446</v>
+        <v>0.7656769771543914</v>
       </c>
       <c r="F127">
-        <v>-0.01542742349344497</v>
+        <v>-0.01642032110311381</v>
       </c>
       <c r="G127">
-        <v>0.02015349625373532</v>
+        <v>0.02212296800517153</v>
       </c>
       <c r="H127">
         <v>-3</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="B128">
-        <v>0.01789069378297795</v>
+        <v>0.01966949869417486</v>
       </c>
       <c r="C128">
-        <v>0.02245941290988378</v>
+        <v>0.02339668243335903</v>
       </c>
       <c r="D128">
-        <v>0.7965788711736419</v>
+        <v>0.8406960580928372</v>
       </c>
       <c r="E128">
-        <v>0.4310660941017324</v>
+        <v>0.4062251447860342</v>
       </c>
       <c r="F128">
-        <v>-0.02770433842922522</v>
+        <v>-0.02782829180854281</v>
       </c>
       <c r="G128">
-        <v>0.06348572599518111</v>
+        <v>0.06716728919689255</v>
       </c>
       <c r="H128">
         <v>-2</v>
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="B129">
-        <v>-0.004415492972468031</v>
+        <v>-0.004569031236945396</v>
       </c>
       <c r="C129">
-        <v>0.002106126886051408</v>
+        <v>0.002078994878610972</v>
       </c>
       <c r="D129">
-        <v>-2.096499029432291</v>
+        <v>-2.197711636499113</v>
       </c>
       <c r="E129">
-        <v>0.09015292928113726</v>
+        <v>0.07932218446048052</v>
       </c>
       <c r="F129">
-        <v>-0.009829464489297052</v>
+        <v>-0.009913257708283683</v>
       </c>
       <c r="G129">
-        <v>0.0009984785443609909</v>
+        <v>0.0007751952343928925</v>
       </c>
       <c r="H129">
         <v>-5</v>
@@ -4635,22 +4635,22 @@
         </is>
       </c>
       <c r="B130">
-        <v>-0.00607804460552099</v>
+        <v>-0.006229106742285686</v>
       </c>
       <c r="C130">
-        <v>0.005964667852107058</v>
+        <v>0.005983737005654579</v>
       </c>
       <c r="D130">
-        <v>-1.019008058155976</v>
+        <v>-1.041006103109016</v>
       </c>
       <c r="E130">
-        <v>0.3549452947732386</v>
+        <v>0.3455686615123142</v>
       </c>
       <c r="F130">
-        <v>-0.02141071144175126</v>
+        <v>-0.02161079239824618</v>
       </c>
       <c r="G130">
-        <v>0.00925462223070928</v>
+        <v>0.009152578913674802</v>
       </c>
       <c r="H130">
         <v>-4</v>
@@ -4668,22 +4668,22 @@
         </is>
       </c>
       <c r="B131">
-        <v>-0.0009544199524968273</v>
+        <v>-0.001004304562582884</v>
       </c>
       <c r="C131">
-        <v>0.002065875288355405</v>
+        <v>0.002082385204714341</v>
       </c>
       <c r="D131">
-        <v>-0.4619930147170785</v>
+        <v>-0.4822856790901244</v>
       </c>
       <c r="E131">
-        <v>0.6634915696801168</v>
+        <v>0.6499749440061536</v>
       </c>
       <c r="F131">
-        <v>-0.006264921443433161</v>
+        <v>-0.006357246144619374</v>
       </c>
       <c r="G131">
-        <v>0.004356081538439508</v>
+        <v>0.004348637019453608</v>
       </c>
       <c r="H131">
         <v>-3</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B132">
-        <v>0.0004620467558551359</v>
+        <v>0.0005641383112294622</v>
       </c>
       <c r="C132">
-        <v>0.002995391795437916</v>
+        <v>0.002973397345934571</v>
       </c>
       <c r="D132">
-        <v>0.1542525276856433</v>
+        <v>0.1897285312374379</v>
       </c>
       <c r="E132">
-        <v>0.8834435547286075</v>
+        <v>0.8569837086544709</v>
       </c>
       <c r="F132">
-        <v>-0.007237852984111615</v>
+        <v>-0.007079222896359171</v>
       </c>
       <c r="G132">
-        <v>0.008161946495821887</v>
+        <v>0.008207499518818094</v>
       </c>
       <c r="H132">
         <v>-2</v>
@@ -4734,22 +4734,22 @@
         </is>
       </c>
       <c r="B133">
-        <v>0.002315013725389282</v>
+        <v>0.001876232105364952</v>
       </c>
       <c r="C133">
-        <v>0.005464249051048882</v>
+        <v>0.00544291752102228</v>
       </c>
       <c r="D133">
-        <v>0.4236654851859116</v>
+        <v>0.344710736129722</v>
       </c>
       <c r="E133">
-        <v>0.6817552169547729</v>
+        <v>0.7391988549654338</v>
       </c>
       <c r="F133">
-        <v>-0.01004597640475424</v>
+        <v>-0.01067515820568763</v>
       </c>
       <c r="G133">
-        <v>0.0146760038555328</v>
+        <v>0.01442762241641754</v>
       </c>
       <c r="H133">
         <v>-5</v>
@@ -4767,22 +4767,22 @@
         </is>
       </c>
       <c r="B134">
-        <v>-0.0007007297260451322</v>
+        <v>-0.0005066141266104557</v>
       </c>
       <c r="C134">
-        <v>0.002733307227876487</v>
+        <v>0.001783701821710214</v>
       </c>
       <c r="D134">
-        <v>-0.2563669824228031</v>
+        <v>-0.2840240002248323</v>
       </c>
       <c r="E134">
-        <v>0.8034314242044929</v>
+        <v>0.7836044980539506</v>
       </c>
       <c r="F134">
-        <v>-0.006883900249714033</v>
+        <v>-0.004619837903445414</v>
       </c>
       <c r="G134">
-        <v>0.005482440797623769</v>
+        <v>0.003606609650224503</v>
       </c>
       <c r="H134">
         <v>-4</v>
@@ -4800,22 +4800,22 @@
         </is>
       </c>
       <c r="B135">
-        <v>-0.02667051369657259</v>
+        <v>-0.0263333086176336</v>
       </c>
       <c r="C135">
-        <v>0.011790602996466</v>
+        <v>0.01226841765895954</v>
       </c>
       <c r="D135">
-        <v>-2.262014394392429</v>
+        <v>-2.146430725595861</v>
       </c>
       <c r="E135">
-        <v>0.05001166886042389</v>
+        <v>0.06413085253243823</v>
       </c>
       <c r="F135">
-        <v>-0.05334271071873811</v>
+        <v>-0.05462433047160611</v>
       </c>
       <c r="G135">
-        <v>1.683325592940349e-06</v>
+        <v>0.001957713236338907</v>
       </c>
       <c r="H135">
         <v>-3</v>
@@ -4833,22 +4833,22 @@
         </is>
       </c>
       <c r="B136">
-        <v>0.0007600760124043789</v>
+        <v>0.001052360971527459</v>
       </c>
       <c r="C136">
-        <v>0.004074318942176577</v>
+        <v>0.003735811572495841</v>
       </c>
       <c r="D136">
-        <v>0.1865528995622351</v>
+        <v>0.2816954097137164</v>
       </c>
       <c r="E136">
-        <v>0.8561485397841297</v>
+        <v>0.7853265553103708</v>
       </c>
       <c r="F136">
-        <v>-0.008456673766164768</v>
+        <v>-0.007562435962991527</v>
       </c>
       <c r="G136">
-        <v>0.009976825790973528</v>
+        <v>0.009667157906046445</v>
       </c>
       <c r="H136">
         <v>-2</v>
@@ -4866,22 +4866,22 @@
         </is>
       </c>
       <c r="B137">
-        <v>-0.009431752558943768</v>
+        <v>-0.009213245214264726</v>
       </c>
       <c r="C137">
-        <v>0.00866719401099569</v>
+        <v>0.008376356002326998</v>
       </c>
       <c r="D137">
-        <v>-1.088212926464795</v>
+        <v>-1.099910893436864</v>
       </c>
       <c r="E137">
-        <v>0.2888330566452232</v>
+        <v>0.283820442999599</v>
       </c>
       <c r="F137">
-        <v>-0.02745616921915124</v>
+        <v>-0.02663283112507175</v>
       </c>
       <c r="G137">
-        <v>0.008592664101263702</v>
+        <v>0.008206340696542302</v>
       </c>
       <c r="H137">
         <v>-5</v>
@@ -4899,22 +4899,22 @@
         </is>
       </c>
       <c r="B138">
-        <v>0.008665500077869901</v>
+        <v>0.008727928916516203</v>
       </c>
       <c r="C138">
-        <v>0.005958980135238633</v>
+        <v>0.005809048569917752</v>
       </c>
       <c r="D138">
-        <v>1.454191804840256</v>
+        <v>1.502471327527526</v>
       </c>
       <c r="E138">
-        <v>0.1606768905999757</v>
+        <v>0.1478646878323083</v>
       </c>
       <c r="F138">
-        <v>-0.003726877511829582</v>
+        <v>-0.003352648914180283</v>
       </c>
       <c r="G138">
-        <v>0.02105787766756938</v>
+        <v>0.02080850674721269</v>
       </c>
       <c r="H138">
         <v>-4</v>
@@ -4932,22 +4932,22 @@
         </is>
       </c>
       <c r="B139">
-        <v>-0.0006271474445961715</v>
+        <v>-0.0006145621021259322</v>
       </c>
       <c r="C139">
-        <v>0.009467273506299178</v>
+        <v>0.009358562529470251</v>
       </c>
       <c r="D139">
-        <v>-0.06624372309291482</v>
+        <v>-0.06566842933310187</v>
       </c>
       <c r="E139">
-        <v>0.9478104036808505</v>
+        <v>0.9482629593189683</v>
       </c>
       <c r="F139">
-        <v>-0.02031542050011951</v>
+        <v>-0.02007675830516196</v>
       </c>
       <c r="G139">
-        <v>0.01906112561092717</v>
+        <v>0.0188476341009101</v>
       </c>
       <c r="H139">
         <v>-3</v>
@@ -4965,22 +4965,22 @@
         </is>
       </c>
       <c r="B140">
-        <v>-0.003031855829179157</v>
+        <v>-0.003590571124566674</v>
       </c>
       <c r="C140">
-        <v>0.006680547552124752</v>
+        <v>0.006690816614891348</v>
       </c>
       <c r="D140">
-        <v>-0.45383343289202</v>
+        <v>-0.5366416883367204</v>
       </c>
       <c r="E140">
-        <v>0.654604095975978</v>
+        <v>0.5971551294797288</v>
       </c>
       <c r="F140">
-        <v>-0.0169248150089394</v>
+        <v>-0.01750488598942871</v>
       </c>
       <c r="G140">
-        <v>0.01086110335058109</v>
+        <v>0.01032374374029536</v>
       </c>
       <c r="H140">
         <v>-2</v>
@@ -4998,22 +4998,22 @@
         </is>
       </c>
       <c r="B141">
-        <v>-0.002457345321620113</v>
+        <v>-0.002282313827061691</v>
       </c>
       <c r="C141">
-        <v>0.009342857859323154</v>
+        <v>0.009390871789931346</v>
       </c>
       <c r="D141">
-        <v>-0.263018592235988</v>
+        <v>-0.2430353515749975</v>
       </c>
       <c r="E141">
-        <v>0.7978759096841337</v>
+        <v>0.8128905671131408</v>
       </c>
       <c r="F141">
-        <v>-0.02327452990656334</v>
+        <v>-0.02320648011622961</v>
       </c>
       <c r="G141">
-        <v>0.01835983926332312</v>
+        <v>0.01864185246210623</v>
       </c>
       <c r="H141">
         <v>-5</v>
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="B142">
-        <v>-0.007737327318391811</v>
+        <v>-0.00763723982625677</v>
       </c>
       <c r="C142">
-        <v>0.005184527397918579</v>
+        <v>0.005174477259327318</v>
       </c>
       <c r="D142">
-        <v>-1.492388162804984</v>
+        <v>-1.475944224605523</v>
       </c>
       <c r="E142">
-        <v>0.1664574738421075</v>
+        <v>0.170738965205577</v>
       </c>
       <c r="F142">
-        <v>-0.0192891742428815</v>
+        <v>-0.01916669364648342</v>
       </c>
       <c r="G142">
-        <v>0.003814519606097875</v>
+        <v>0.003892213993969881</v>
       </c>
       <c r="H142">
         <v>-4</v>
@@ -5064,22 +5064,22 @@
         </is>
       </c>
       <c r="B143">
-        <v>0.0007415401611943098</v>
+        <v>0.001004551683564632</v>
       </c>
       <c r="C143">
-        <v>0.007967376836534024</v>
+        <v>0.007880288448429477</v>
       </c>
       <c r="D143">
-        <v>0.09307205827067359</v>
+        <v>0.1274765118229698</v>
       </c>
       <c r="E143">
-        <v>0.9276845966756386</v>
+        <v>0.9010902582175058</v>
       </c>
       <c r="F143">
-        <v>-0.01701088171670264</v>
+        <v>-0.01655382517323972</v>
       </c>
       <c r="G143">
-        <v>0.01849396203909126</v>
+        <v>0.01856292854036898</v>
       </c>
       <c r="H143">
         <v>-3</v>
@@ -5097,22 +5097,22 @@
         </is>
       </c>
       <c r="B144">
-        <v>-0.01210342637137667</v>
+        <v>-0.01172079071898908</v>
       </c>
       <c r="C144">
-        <v>0.002765582307669551</v>
+        <v>0.002796651632477119</v>
       </c>
       <c r="D144">
-        <v>-4.376447715119988</v>
+        <v>-4.191008484173431</v>
       </c>
       <c r="E144">
-        <v>0.001385065894297531</v>
+        <v>0.00185498357401006</v>
       </c>
       <c r="F144">
-        <v>-0.01826552775946105</v>
+        <v>-0.01795211887678219</v>
       </c>
       <c r="G144">
-        <v>-0.005941324983292287</v>
+        <v>-0.005489462561195975</v>
       </c>
       <c r="H144">
         <v>-2</v>
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="B145">
-        <v>0.009704607011253146</v>
+        <v>0.009782806186443138</v>
       </c>
       <c r="C145">
-        <v>0.004710483431347065</v>
+        <v>0.00471320440111999</v>
       </c>
       <c r="D145">
-        <v>2.060214657941787</v>
+        <v>2.07561678931609</v>
       </c>
       <c r="E145">
-        <v>0.06174742862815235</v>
+        <v>0.06008759731757087</v>
       </c>
       <c r="F145">
-        <v>-0.0005586547229007484</v>
+        <v>-0.000486384031561142</v>
       </c>
       <c r="G145">
-        <v>0.01996786874540704</v>
+        <v>0.02005199640444742</v>
       </c>
       <c r="H145">
         <v>-5</v>
@@ -5163,22 +5163,22 @@
         </is>
       </c>
       <c r="B146">
-        <v>-0.006907967853984216</v>
+        <v>-0.00677514857323878</v>
       </c>
       <c r="C146">
-        <v>0.007082711129198237</v>
+        <v>0.007098580754003108</v>
       </c>
       <c r="D146">
-        <v>-0.9753281939604105</v>
+        <v>-0.9544370639748044</v>
       </c>
       <c r="E146">
-        <v>0.3486496646900678</v>
+        <v>0.3586943171657171</v>
       </c>
       <c r="F146">
-        <v>-0.0223398697311082</v>
+        <v>-0.02224162739248962</v>
       </c>
       <c r="G146">
-        <v>0.008523934023139765</v>
+        <v>0.008691330246012062</v>
       </c>
       <c r="H146">
         <v>-4</v>
@@ -5196,22 +5196,22 @@
         </is>
       </c>
       <c r="B147">
-        <v>-0.009502224762400417</v>
+        <v>-0.009396619609996272</v>
       </c>
       <c r="C147">
-        <v>0.004707135738720832</v>
+        <v>0.004694794468575536</v>
       </c>
       <c r="D147">
-        <v>-2.01868509638149</v>
+        <v>-2.00149754646178</v>
       </c>
       <c r="E147">
-        <v>0.06643830118408948</v>
+        <v>0.06847485636065405</v>
       </c>
       <c r="F147">
-        <v>-0.01975819250091049</v>
+        <v>-0.01962569803077939</v>
       </c>
       <c r="G147">
-        <v>0.0007537429761096583</v>
+        <v>0.0008324588107868416</v>
       </c>
       <c r="H147">
         <v>-3</v>
@@ -5229,22 +5229,22 @@
         </is>
       </c>
       <c r="B148">
-        <v>-0.0009203933337761897</v>
+        <v>-0.000859190501273809</v>
       </c>
       <c r="C148">
-        <v>0.002838359966790216</v>
+        <v>0.002865323363401642</v>
       </c>
       <c r="D148">
-        <v>-0.3242694177430301</v>
+        <v>-0.2998581284919266</v>
       </c>
       <c r="E148">
-        <v>0.7513165776766279</v>
+        <v>0.7694160864881481</v>
       </c>
       <c r="F148">
-        <v>-0.007104648444632562</v>
+        <v>-0.007102193806598562</v>
       </c>
       <c r="G148">
-        <v>0.005263861777080183</v>
+        <v>0.005383812804050944</v>
       </c>
       <c r="H148">
         <v>-2</v>
@@ -5262,22 +5262,22 @@
         </is>
       </c>
       <c r="B149">
-        <v>-5.70965083196498e-05</v>
+        <v>-0.0001287938874764182</v>
       </c>
       <c r="C149">
-        <v>0.003607244886008465</v>
+        <v>0.003579798982058039</v>
       </c>
       <c r="D149">
-        <v>-0.01582828727295777</v>
+        <v>-0.03597796639474268</v>
       </c>
       <c r="E149">
-        <v>0.9874877661570847</v>
+        <v>0.9715646097385411</v>
       </c>
       <c r="F149">
-        <v>-0.007458551645849266</v>
+        <v>-0.007473934681728163</v>
       </c>
       <c r="G149">
-        <v>0.007344358629209967</v>
+        <v>0.007216346906775327</v>
       </c>
       <c r="H149">
         <v>-5</v>
@@ -5295,22 +5295,22 @@
         </is>
       </c>
       <c r="B150">
-        <v>-0.003409951864964926</v>
+        <v>-0.003500379537444732</v>
       </c>
       <c r="C150">
-        <v>0.003279313590294057</v>
+        <v>0.00324197624888053</v>
       </c>
       <c r="D150">
-        <v>-1.039837079033102</v>
+        <v>-1.079705484780597</v>
       </c>
       <c r="E150">
-        <v>0.3076381997375765</v>
+        <v>0.2898242994636415</v>
       </c>
       <c r="F150">
-        <v>-0.0101385475626388</v>
+        <v>-0.01015236533860209</v>
       </c>
       <c r="G150">
-        <v>0.003318643832708947</v>
+        <v>0.003151606263712622</v>
       </c>
       <c r="H150">
         <v>-4</v>
@@ -5328,22 +5328,22 @@
         </is>
       </c>
       <c r="B151">
-        <v>0.007254236275418245</v>
+        <v>0.007304338288089324</v>
       </c>
       <c r="C151">
-        <v>0.002304636732246399</v>
+        <v>0.002303415205346225</v>
       </c>
       <c r="D151">
-        <v>3.147670161599535</v>
+        <v>3.171090592410765</v>
       </c>
       <c r="E151">
-        <v>0.003988406181443889</v>
+        <v>0.003762021508845839</v>
       </c>
       <c r="F151">
-        <v>0.002525512298793681</v>
+        <v>0.002578120677635238</v>
       </c>
       <c r="G151">
-        <v>0.01198296025204281</v>
+        <v>0.01203055589854341</v>
       </c>
       <c r="H151">
         <v>-3</v>
@@ -5361,22 +5361,22 @@
         </is>
       </c>
       <c r="B152">
-        <v>0.008869018996212268</v>
+        <v>0.008710303347233869</v>
       </c>
       <c r="C152">
-        <v>0.004745940053504755</v>
+        <v>0.004728346292062057</v>
       </c>
       <c r="D152">
-        <v>1.868759170201218</v>
+        <v>1.842145817842639</v>
       </c>
       <c r="E152">
-        <v>0.07254198589753423</v>
+        <v>0.07646278941095608</v>
       </c>
       <c r="F152">
-        <v>-0.0008688456349548648</v>
+        <v>-0.0009914618673054626</v>
       </c>
       <c r="G152">
-        <v>0.0186068836273794</v>
+        <v>0.0184120685617732</v>
       </c>
       <c r="H152">
         <v>-2</v>
@@ -5394,22 +5394,22 @@
         </is>
       </c>
       <c r="B153">
-        <v>0.00945579868495007</v>
+        <v>0.009045030005487897</v>
       </c>
       <c r="C153">
-        <v>0.01456082930593607</v>
+        <v>0.01444063642327597</v>
       </c>
       <c r="D153">
-        <v>0.6493997344708373</v>
+        <v>0.626359513553625</v>
       </c>
       <c r="E153">
-        <v>0.5283145741581849</v>
+        <v>0.5428107390284913</v>
       </c>
       <c r="F153">
-        <v>-0.022269523017418</v>
+        <v>-0.02241841390210567</v>
       </c>
       <c r="G153">
-        <v>0.04118112038731814</v>
+        <v>0.04050847391308147</v>
       </c>
       <c r="H153">
         <v>-2</v>
@@ -5427,22 +5427,22 @@
         </is>
       </c>
       <c r="B154">
-        <v>0.01168669485310439</v>
+        <v>0.01021499615806579</v>
       </c>
       <c r="C154">
-        <v>0.01354653241622217</v>
+        <v>0.01368672411415644</v>
       </c>
       <c r="D154">
-        <v>0.8627074807062366</v>
+        <v>0.7463433961893207</v>
       </c>
       <c r="E154">
-        <v>0.413411467592256</v>
+        <v>0.4797696644536259</v>
       </c>
       <c r="F154">
-        <v>-0.0195516649163812</v>
+        <v>-0.0221489636071283</v>
       </c>
       <c r="G154">
-        <v>0.04292505462258998</v>
+        <v>0.04257895592325989</v>
       </c>
       <c r="H154">
         <v>-5</v>
@@ -5460,22 +5460,22 @@
         </is>
       </c>
       <c r="B155">
-        <v>-0.03913615225837556</v>
+        <v>-0.04107953324776327</v>
       </c>
       <c r="C155">
-        <v>0.0119513516347721</v>
+        <v>0.01199670888000654</v>
       </c>
       <c r="D155">
-        <v>-3.274621436500128</v>
+        <v>-3.424233567609992</v>
       </c>
       <c r="E155">
-        <v>0.01127805809220968</v>
+        <v>0.01107155440010675</v>
       </c>
       <c r="F155">
-        <v>-0.06669601854943909</v>
+        <v>-0.06944724200472524</v>
       </c>
       <c r="G155">
-        <v>-0.01157628596731204</v>
+        <v>-0.0127118244908013</v>
       </c>
       <c r="H155">
         <v>-4</v>
@@ -5493,22 +5493,22 @@
         </is>
       </c>
       <c r="B156">
-        <v>0.06407000401657903</v>
+        <v>0.06384208163888813</v>
       </c>
       <c r="C156">
-        <v>0.009905117651502456</v>
+        <v>0.01006842786972623</v>
       </c>
       <c r="D156">
-        <v>6.468373851860365</v>
+        <v>6.3408192882673</v>
       </c>
       <c r="E156">
-        <v>0.0001944906328600239</v>
+        <v>0.0003886299349242338</v>
       </c>
       <c r="F156">
-        <v>0.0412287617525306</v>
+        <v>0.04003403292272081</v>
       </c>
       <c r="G156">
-        <v>0.08691124628062746</v>
+        <v>0.08765013035505545</v>
       </c>
       <c r="H156">
         <v>-3</v>
@@ -5526,22 +5526,22 @@
         </is>
       </c>
       <c r="B157">
-        <v>0.009236058056969292</v>
+        <v>0.01203585953729922</v>
       </c>
       <c r="C157">
-        <v>0.008412111948823088</v>
+        <v>0.007671887090553362</v>
       </c>
       <c r="D157">
-        <v>1.09794759189593</v>
+        <v>1.568826469320613</v>
       </c>
       <c r="E157">
-        <v>0.3041708596602194</v>
+        <v>0.1606769300386701</v>
       </c>
       <c r="F157">
-        <v>-0.01016230688281712</v>
+        <v>-0.006105270732504865</v>
       </c>
       <c r="G157">
-        <v>0.02863442299675571</v>
+        <v>0.03017698980710331</v>
       </c>
       <c r="H157">
         <v>-2</v>
@@ -5559,22 +5559,22 @@
         </is>
       </c>
       <c r="B158">
-        <v>0.00788187412584143</v>
+        <v>0.007742991858221198</v>
       </c>
       <c r="C158">
-        <v>0.006930769642693878</v>
+        <v>0.006872332292489519</v>
       </c>
       <c r="D158">
-        <v>1.137229273541094</v>
+        <v>1.126690551136939</v>
       </c>
       <c r="E158">
-        <v>0.2721874794688548</v>
+        <v>0.2764883924059383</v>
       </c>
       <c r="F158">
-        <v>-0.00681070116738712</v>
+        <v>-0.006825701786636683</v>
       </c>
       <c r="G158">
-        <v>0.02257444941906998</v>
+        <v>0.02231168550307908</v>
       </c>
       <c r="H158">
         <v>-5</v>
@@ -5592,22 +5592,22 @@
         </is>
       </c>
       <c r="B159">
-        <v>0.0009301895497869264</v>
+        <v>0.0006756054361202321</v>
       </c>
       <c r="C159">
-        <v>0.006077878584740554</v>
+        <v>0.006103411091175831</v>
       </c>
       <c r="D159">
-        <v>0.1530451023030157</v>
+        <v>0.1106930904747685</v>
       </c>
       <c r="E159">
-        <v>0.8802762103385171</v>
+        <v>0.9132363479912605</v>
       </c>
       <c r="F159">
-        <v>-0.01195433747002795</v>
+        <v>-0.01226304807938919</v>
       </c>
       <c r="G159">
-        <v>0.0138147165696018</v>
+        <v>0.01361425895162965</v>
       </c>
       <c r="H159">
         <v>-4</v>
@@ -5625,22 +5625,22 @@
         </is>
       </c>
       <c r="B160">
-        <v>0.005045469712999294</v>
+        <v>0.004860294288905043</v>
       </c>
       <c r="C160">
-        <v>0.007763524453701133</v>
+        <v>0.007948558031187719</v>
       </c>
       <c r="D160">
-        <v>0.6498942256302096</v>
+        <v>0.6114686802102633</v>
       </c>
       <c r="E160">
-        <v>0.5249823493492317</v>
+        <v>0.549479484730417</v>
       </c>
       <c r="F160">
-        <v>-0.01141246691703553</v>
+        <v>-0.01198989600257746</v>
       </c>
       <c r="G160">
-        <v>0.02150340634303412</v>
+        <v>0.02171048458038755</v>
       </c>
       <c r="H160">
         <v>-3</v>
@@ -5658,22 +5658,22 @@
         </is>
       </c>
       <c r="B161">
-        <v>-0.001103759613178234</v>
+        <v>-0.0009719315418393656</v>
       </c>
       <c r="C161">
-        <v>0.007857559388214409</v>
+        <v>0.00781544942831388</v>
       </c>
       <c r="D161">
-        <v>-0.1404710494245539</v>
+        <v>-0.1243602880108524</v>
       </c>
       <c r="E161">
-        <v>0.8900410488234647</v>
+        <v>0.9025790008139847</v>
       </c>
       <c r="F161">
-        <v>-0.01776104139919968</v>
+        <v>-0.01753994420071768</v>
       </c>
       <c r="G161">
-        <v>0.01555352217284321</v>
+        <v>0.01559608111703895</v>
       </c>
       <c r="H161">
         <v>-2</v>
@@ -5691,22 +5691,22 @@
         </is>
       </c>
       <c r="B162">
-        <v>0.02148830093003972</v>
+        <v>0.02217552531809522</v>
       </c>
       <c r="C162">
-        <v>0.0116273605845973</v>
+        <v>0.01157944016104103</v>
       </c>
       <c r="D162">
-        <v>1.848080720787584</v>
+        <v>1.91507750026678</v>
       </c>
       <c r="E162">
-        <v>0.1382967327736194</v>
+        <v>0.1279949831384988</v>
       </c>
       <c r="F162">
-        <v>-0.01079442745143521</v>
+        <v>-0.009974154637957894</v>
       </c>
       <c r="G162">
-        <v>0.05377102931151465</v>
+        <v>0.05432520527414833</v>
       </c>
       <c r="H162">
         <v>-5</v>
@@ -5724,22 +5724,22 @@
         </is>
       </c>
       <c r="B163">
-        <v>0.01934195084015068</v>
+        <v>0.0199389093365492</v>
       </c>
       <c r="C163">
-        <v>0.01147879444173965</v>
+        <v>0.01125270435757792</v>
       </c>
       <c r="D163">
-        <v>1.685015873253963</v>
+        <v>1.771921549073821</v>
       </c>
       <c r="E163">
-        <v>0.1672677565576789</v>
+        <v>0.1511006057617142</v>
       </c>
       <c r="F163">
-        <v>-0.01252829180118902</v>
+        <v>-0.0113036065972859</v>
       </c>
       <c r="G163">
-        <v>0.05121219348149038</v>
+        <v>0.0511814252703843</v>
       </c>
       <c r="H163">
         <v>-4</v>
@@ -5757,22 +5757,22 @@
         </is>
       </c>
       <c r="B164">
-        <v>0.02943580793195897</v>
+        <v>0.03024870519005728</v>
       </c>
       <c r="C164">
-        <v>0.006322344977985939</v>
+        <v>0.006276862790968413</v>
       </c>
       <c r="D164">
-        <v>4.655837040600101</v>
+        <v>4.819080199360295</v>
       </c>
       <c r="E164">
-        <v>0.009619411616479494</v>
+        <v>0.008528727898615961</v>
       </c>
       <c r="F164">
-        <v>0.01188216416445806</v>
+        <v>0.01282134021807487</v>
       </c>
       <c r="G164">
-        <v>0.04698945169945988</v>
+        <v>0.04767607016203969</v>
       </c>
       <c r="H164">
         <v>-3</v>
@@ -5790,22 +5790,22 @@
         </is>
       </c>
       <c r="B165">
-        <v>0.01429637807250729</v>
+        <v>0.01540459261818071</v>
       </c>
       <c r="C165">
-        <v>0.004254755595282975</v>
+        <v>0.004444444011878384</v>
       </c>
       <c r="D165">
-        <v>3.360093841431676</v>
+        <v>3.46603367643058</v>
       </c>
       <c r="E165">
-        <v>0.02830238045854206</v>
+        <v>0.02567618537333395</v>
       </c>
       <c r="F165">
-        <v>0.00248328272617095</v>
+        <v>0.003064837796075328</v>
       </c>
       <c r="G165">
-        <v>0.02610947341884363</v>
+        <v>0.02774434744028609</v>
       </c>
       <c r="H165">
         <v>-2</v>
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="B166">
-        <v>0.006544482737374224</v>
+        <v>0.005959014840613783</v>
       </c>
       <c r="C166">
-        <v>0.01123623404124244</v>
+        <v>0.01135818897557781</v>
       </c>
       <c r="D166">
-        <v>0.5824445017211988</v>
+        <v>0.5246448050324533</v>
       </c>
       <c r="E166">
-        <v>0.5814784194833655</v>
+        <v>0.6186409011894565</v>
       </c>
       <c r="F166">
-        <v>-0.02094959150038042</v>
+        <v>-0.0218334723712717</v>
       </c>
       <c r="G166">
-        <v>0.03403855697512887</v>
+        <v>0.03375150205249927</v>
       </c>
       <c r="H166">
         <v>-5</v>
@@ -5856,22 +5856,22 @@
         </is>
       </c>
       <c r="B167">
-        <v>0.005028661785049214</v>
+        <v>0.004193073555125743</v>
       </c>
       <c r="C167">
-        <v>0.0103642449960685</v>
+        <v>0.01020784159537565</v>
       </c>
       <c r="D167">
-        <v>0.4851932569093794</v>
+        <v>0.410769849428824</v>
       </c>
       <c r="E167">
-        <v>0.6447455174484759</v>
+        <v>0.6955082437849383</v>
       </c>
       <c r="F167">
-        <v>-0.02033173212400075</v>
+        <v>-0.0207846150192095</v>
       </c>
       <c r="G167">
-        <v>0.03038905569409917</v>
+        <v>0.02917076212946099</v>
       </c>
       <c r="H167">
         <v>-4</v>
@@ -5889,22 +5889,22 @@
         </is>
       </c>
       <c r="B168">
-        <v>0.003338620190226719</v>
+        <v>0.002237343602541139</v>
       </c>
       <c r="C168">
-        <v>0.009023781139245396</v>
+        <v>0.009341542517302579</v>
       </c>
       <c r="D168">
-        <v>0.3699801822216965</v>
+        <v>0.239504728303392</v>
       </c>
       <c r="E168">
-        <v>0.7241055028737573</v>
+        <v>0.8186861765115325</v>
       </c>
       <c r="F168">
-        <v>-0.01874177682153129</v>
+        <v>-0.02062058749102115</v>
       </c>
       <c r="G168">
-        <v>0.02541901720198473</v>
+        <v>0.02509527469610342</v>
       </c>
       <c r="H168">
         <v>-3</v>
@@ -5922,22 +5922,22 @@
         </is>
       </c>
       <c r="B169">
-        <v>0.0003528963082123197</v>
+        <v>-0.0005047195009773081</v>
       </c>
       <c r="C169">
-        <v>0.005383135520305131</v>
+        <v>0.005345194042727701</v>
       </c>
       <c r="D169">
-        <v>0.06555590266698627</v>
+        <v>-0.09442491646566027</v>
       </c>
       <c r="E169">
-        <v>0.949861107816063</v>
+        <v>0.9278460376359894</v>
       </c>
       <c r="F169">
-        <v>-0.01281916179274174</v>
+        <v>-0.0135839381507972</v>
       </c>
       <c r="G169">
-        <v>0.01352495440916638</v>
+        <v>0.01257449914884259</v>
       </c>
       <c r="H169">
         <v>-2</v>
@@ -5955,22 +5955,22 @@
         </is>
       </c>
       <c r="B170">
-        <v>0.007978656988937028</v>
+        <v>0.007926798721189504</v>
       </c>
       <c r="C170">
-        <v>0.004469243371570336</v>
+        <v>0.004525409647992732</v>
       </c>
       <c r="D170">
-        <v>1.785236633048606</v>
+        <v>1.751620148842321</v>
       </c>
       <c r="E170">
-        <v>0.07801314790934145</v>
+        <v>0.08367156436446481</v>
       </c>
       <c r="F170">
-        <v>-0.0009154207655089897</v>
+        <v>-0.001079053485472789</v>
       </c>
       <c r="G170">
-        <v>0.01687273474338305</v>
+        <v>0.0169326509278518</v>
       </c>
       <c r="H170">
         <v>-5</v>
@@ -5988,22 +5988,22 @@
         </is>
       </c>
       <c r="B171">
-        <v>-0.0007636426115150526</v>
+        <v>-0.001404028197842799</v>
       </c>
       <c r="C171">
-        <v>0.006855077112320161</v>
+        <v>0.006846894077844805</v>
       </c>
       <c r="D171">
-        <v>-0.111398106688342</v>
+        <v>-0.2050605985545996</v>
       </c>
       <c r="E171">
-        <v>0.9115796805276726</v>
+        <v>0.8380456382475524</v>
       </c>
       <c r="F171">
-        <v>-0.01440568082262196</v>
+        <v>-0.01502978165136544</v>
       </c>
       <c r="G171">
-        <v>0.01287839559959186</v>
+        <v>0.01222172525567984</v>
       </c>
       <c r="H171">
         <v>-4</v>
@@ -6021,22 +6021,22 @@
         </is>
       </c>
       <c r="B172">
-        <v>-0.003553054166115598</v>
+        <v>-0.003218127128622192</v>
       </c>
       <c r="C172">
-        <v>0.003562733565821213</v>
+        <v>0.00364155060904701</v>
       </c>
       <c r="D172">
-        <v>-0.997283153644024</v>
+        <v>-0.8837244004318185</v>
       </c>
       <c r="E172">
-        <v>0.3216340650290372</v>
+        <v>0.3794931043671155</v>
       </c>
       <c r="F172">
-        <v>-0.01064311991513181</v>
+        <v>-0.0104650437923335</v>
       </c>
       <c r="G172">
-        <v>0.003537011582900616</v>
+        <v>0.004028789535089112</v>
       </c>
       <c r="H172">
         <v>-3</v>
@@ -6054,22 +6054,22 @@
         </is>
       </c>
       <c r="B173">
-        <v>-0.002519649260861617</v>
+        <v>-0.00243014995479439</v>
       </c>
       <c r="C173">
-        <v>0.006813135688867412</v>
+        <v>0.006800003633344801</v>
       </c>
       <c r="D173">
-        <v>-0.3698222633344431</v>
+        <v>-0.3573748024012515</v>
       </c>
       <c r="E173">
-        <v>0.712492137290197</v>
+        <v>0.7217523014556995</v>
       </c>
       <c r="F173">
-        <v>-0.01607822137931986</v>
+        <v>-0.01596258844991121</v>
       </c>
       <c r="G173">
-        <v>0.01103892285759663</v>
+        <v>0.01110228854032243</v>
       </c>
       <c r="H173">
         <v>-2</v>
@@ -6087,22 +6087,22 @@
         </is>
       </c>
       <c r="B174">
-        <v>0.003320549454842526</v>
+        <v>0.003320549454842508</v>
       </c>
       <c r="C174">
-        <v>0.003627582668341779</v>
+        <v>0.003627582668341514</v>
       </c>
       <c r="D174">
-        <v>0.915361484059686</v>
+        <v>0.9153614840597476</v>
       </c>
       <c r="E174">
-        <v>0.411791902408182</v>
+        <v>0.4117919024081536</v>
       </c>
       <c r="F174">
-        <v>-0.006751234688375356</v>
+        <v>-0.00675123468837464</v>
       </c>
       <c r="G174">
-        <v>0.01339233359806041</v>
+        <v>0.01339233359805966</v>
       </c>
       <c r="H174">
         <v>-5</v>
@@ -6120,22 +6120,22 @@
         </is>
       </c>
       <c r="B175">
-        <v>0.003944242737061281</v>
+        <v>0.003944242737061217</v>
       </c>
       <c r="C175">
-        <v>0.003298907030841816</v>
+        <v>0.003298907030842044</v>
       </c>
       <c r="D175">
-        <v>1.195621064851527</v>
+        <v>1.195621064851425</v>
       </c>
       <c r="E175">
-        <v>0.2978776623126465</v>
+        <v>0.2978776623126821</v>
       </c>
       <c r="F175">
-        <v>-0.005214991541222066</v>
+        <v>-0.005214991541222762</v>
       </c>
       <c r="G175">
-        <v>0.01310347701534463</v>
+        <v>0.0131034770153452</v>
       </c>
       <c r="H175">
         <v>-4</v>
@@ -6153,22 +6153,22 @@
         </is>
       </c>
       <c r="B176">
-        <v>-0.004147889246002036</v>
+        <v>-0.004147889246002017</v>
       </c>
       <c r="C176">
-        <v>0.003169295490817403</v>
+        <v>0.003169295490817217</v>
       </c>
       <c r="D176">
-        <v>-1.308773277222012</v>
+        <v>-1.308773277222083</v>
       </c>
       <c r="E176">
-        <v>0.2607388076960781</v>
+        <v>0.2607388076960562</v>
       </c>
       <c r="F176">
-        <v>-0.01294726419840745</v>
+        <v>-0.01294726419840692</v>
       </c>
       <c r="G176">
-        <v>0.00465148570640338</v>
+        <v>0.004651485706402883</v>
       </c>
       <c r="H176">
         <v>-3</v>
@@ -6186,22 +6186,22 @@
         </is>
       </c>
       <c r="B177">
-        <v>-0.00558940994135114</v>
+        <v>-0.005589409941351181</v>
       </c>
       <c r="C177">
-        <v>0.001551084954072615</v>
+        <v>0.001551084954072306</v>
       </c>
       <c r="D177">
-        <v>-3.603548552692277</v>
+        <v>-3.603548552693022</v>
       </c>
       <c r="E177">
-        <v>0.02268637975416707</v>
+        <v>0.02268637975415203</v>
       </c>
       <c r="F177">
-        <v>-0.009895912169831999</v>
+        <v>-0.00989591216983118</v>
       </c>
       <c r="G177">
-        <v>-0.001282907712870283</v>
+        <v>-0.001282907712871182</v>
       </c>
       <c r="H177">
         <v>-2</v>
@@ -6219,22 +6219,22 @@
         </is>
       </c>
       <c r="B178">
-        <v>0.01304067559967223</v>
+        <v>0.01406533952362854</v>
       </c>
       <c r="C178">
-        <v>0.008433689395052445</v>
+        <v>0.008163585383825859</v>
       </c>
       <c r="D178">
-        <v>1.546259885658397</v>
+        <v>1.722936536132219</v>
       </c>
       <c r="E178">
-        <v>0.1404542489814839</v>
+        <v>0.1030395156645209</v>
       </c>
       <c r="F178">
-        <v>-0.004752853664617061</v>
+        <v>-0.003158320090139636</v>
       </c>
       <c r="G178">
-        <v>0.03083420486396151</v>
+        <v>0.03128899913739671</v>
       </c>
       <c r="H178">
         <v>-5</v>
@@ -6252,22 +6252,22 @@
         </is>
       </c>
       <c r="B179">
-        <v>-0.02158661226665607</v>
+        <v>-0.02057523987529139</v>
       </c>
       <c r="C179">
-        <v>0.00414184073019577</v>
+        <v>0.004018434038999496</v>
       </c>
       <c r="D179">
-        <v>-5.211840259641211</v>
+        <v>-5.120213415376647</v>
       </c>
       <c r="E179">
-        <v>7.051603031911571e-05</v>
+        <v>8.527572753729191e-05</v>
       </c>
       <c r="F179">
-        <v>-0.03032513236012762</v>
+        <v>-0.02905339460926817</v>
       </c>
       <c r="G179">
-        <v>-0.01284809217318451</v>
+        <v>-0.0120970851413146</v>
       </c>
       <c r="H179">
         <v>-4</v>
@@ -6285,22 +6285,22 @@
         </is>
       </c>
       <c r="B180">
-        <v>0.006731236578949772</v>
+        <v>0.007231136928812019</v>
       </c>
       <c r="C180">
-        <v>0.01132677161854775</v>
+        <v>0.0112028075182906</v>
       </c>
       <c r="D180">
-        <v>0.594276710578968</v>
+        <v>0.6454754236387519</v>
       </c>
       <c r="E180">
-        <v>0.5601533936962952</v>
+        <v>0.527235944538564</v>
       </c>
       <c r="F180">
-        <v>-0.01716616262842257</v>
+        <v>-0.01640472088874569</v>
       </c>
       <c r="G180">
-        <v>0.03062863578632211</v>
+        <v>0.03086699474636972</v>
       </c>
       <c r="H180">
         <v>-3</v>
@@ -6318,22 +6318,22 @@
         </is>
       </c>
       <c r="B181">
-        <v>-0.01644094120378422</v>
+        <v>-0.01538981677374636</v>
       </c>
       <c r="C181">
-        <v>0.003389700382011059</v>
+        <v>0.003647641104097674</v>
       </c>
       <c r="D181">
-        <v>-4.85026384368227</v>
+        <v>-4.219114856573418</v>
       </c>
       <c r="E181">
-        <v>0.0001500689476879455</v>
+        <v>0.0005773156976842911</v>
       </c>
       <c r="F181">
-        <v>-0.0235925838739387</v>
+        <v>-0.02308566679751675</v>
       </c>
       <c r="G181">
-        <v>-0.009289298533629742</v>
+        <v>-0.00769396674997597</v>
       </c>
       <c r="H181">
         <v>-2</v>
@@ -6351,22 +6351,22 @@
         </is>
       </c>
       <c r="B182">
-        <v>-0.004023561986545376</v>
+        <v>-0.003596727252944304</v>
       </c>
       <c r="C182">
-        <v>0.003772082120440775</v>
+        <v>0.003720228887272377</v>
       </c>
       <c r="D182">
-        <v>-1.066668714538806</v>
+        <v>-0.9668026785258842</v>
       </c>
       <c r="E182">
-        <v>0.3055309435831397</v>
+        <v>0.3512853901637293</v>
       </c>
       <c r="F182">
-        <v>-0.01217264996914933</v>
+        <v>-0.011633793135875</v>
       </c>
       <c r="G182">
-        <v>0.00412552599605858</v>
+        <v>0.004440338629986388</v>
       </c>
       <c r="H182">
         <v>-5</v>
@@ -6384,22 +6384,22 @@
         </is>
       </c>
       <c r="B183">
-        <v>0.0004383996999458547</v>
+        <v>0.0005600437140135016</v>
       </c>
       <c r="C183">
-        <v>0.00413994672119599</v>
+        <v>0.004154380687650374</v>
       </c>
       <c r="D183">
-        <v>0.1058950101220639</v>
+        <v>0.1348079909186777</v>
       </c>
       <c r="E183">
-        <v>0.9172822460376509</v>
+        <v>0.8948285424547702</v>
       </c>
       <c r="F183">
-        <v>-0.008505411435951866</v>
+        <v>-0.008414950110600707</v>
       </c>
       <c r="G183">
-        <v>0.009382210835843577</v>
+        <v>0.009535037538627708</v>
       </c>
       <c r="H183">
         <v>-4</v>
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="B184">
-        <v>0.00428006449263518</v>
+        <v>0.004520410900493603</v>
       </c>
       <c r="C184">
-        <v>0.004706670804367912</v>
+        <v>0.00469746776556342</v>
       </c>
       <c r="D184">
-        <v>0.9093613448943932</v>
+        <v>0.9623080191485719</v>
       </c>
       <c r="E184">
-        <v>0.3797103245374832</v>
+        <v>0.3534538869742639</v>
       </c>
       <c r="F184">
-        <v>-0.005888079589409773</v>
+        <v>-0.005627851224973915</v>
       </c>
       <c r="G184">
-        <v>0.01444820857468013</v>
+        <v>0.01466867302596112</v>
       </c>
       <c r="H184">
         <v>-3</v>
@@ -6450,22 +6450,22 @@
         </is>
       </c>
       <c r="B185">
-        <v>-0.009871770526236306</v>
+        <v>-0.009274405111757669</v>
       </c>
       <c r="C185">
-        <v>0.006540102382834217</v>
+        <v>0.00651570291184342</v>
       </c>
       <c r="D185">
-        <v>-1.509421404800436</v>
+        <v>-1.423392876753148</v>
       </c>
       <c r="E185">
-        <v>0.1551076201455641</v>
+        <v>0.1781772664458596</v>
       </c>
       <c r="F185">
-        <v>-0.02400080272416897</v>
+        <v>-0.02335072545732754</v>
       </c>
       <c r="G185">
-        <v>0.004257261671696355</v>
+        <v>0.004801915233812201</v>
       </c>
       <c r="H185">
         <v>-2</v>
@@ -6483,22 +6483,22 @@
         </is>
       </c>
       <c r="B186">
-        <v>0.007808681658001751</v>
+        <v>0.008658852491058201</v>
       </c>
       <c r="C186">
-        <v>0.01123567555953033</v>
+        <v>0.01195617187712255</v>
       </c>
       <c r="D186">
-        <v>0.6949899555775505</v>
+        <v>0.724216127038657</v>
       </c>
       <c r="E186">
-        <v>0.4992959958293762</v>
+        <v>0.4817639458496057</v>
       </c>
       <c r="F186">
-        <v>-0.0164645196549926</v>
+        <v>-0.01717088648355925</v>
       </c>
       <c r="G186">
-        <v>0.0320818829709961</v>
+        <v>0.03448859146567566</v>
       </c>
       <c r="H186">
         <v>-2</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B187">
-        <v>-0.001855744677110619</v>
+        <v>-0.0009056100647206675</v>
       </c>
       <c r="C187">
-        <v>0.01639313039467008</v>
+        <v>0.0161255420600382</v>
       </c>
       <c r="D187">
-        <v>-0.1132025813516362</v>
+        <v>-0.05615997659792916</v>
       </c>
       <c r="E187">
-        <v>0.9112781626362133</v>
+        <v>0.9559097017995805</v>
       </c>
       <c r="F187">
-        <v>-0.03660762867159672</v>
+        <v>-0.03509023213061086</v>
       </c>
       <c r="G187">
-        <v>0.03289613931737548</v>
+        <v>0.03327901200116953</v>
       </c>
       <c r="H187">
         <v>-5</v>
@@ -6549,22 +6549,22 @@
         </is>
       </c>
       <c r="B188">
-        <v>-0.0126130480448761</v>
+        <v>-0.01198805560838968</v>
       </c>
       <c r="C188">
-        <v>0.01362334748352219</v>
+        <v>0.01302751014810013</v>
       </c>
       <c r="D188">
-        <v>-0.9258405880149442</v>
+        <v>-0.9202108056033994</v>
       </c>
       <c r="E188">
-        <v>0.3682837352048901</v>
+        <v>0.3711290995163845</v>
       </c>
       <c r="F188">
-        <v>-0.04149325456832734</v>
+        <v>-0.03960514340700581</v>
       </c>
       <c r="G188">
-        <v>0.01626715847857514</v>
+        <v>0.01562903219022645</v>
       </c>
       <c r="H188">
         <v>-4</v>
@@ -6582,22 +6582,22 @@
         </is>
       </c>
       <c r="B189">
-        <v>-0.02823506803641875</v>
+        <v>-0.02659058480594835</v>
       </c>
       <c r="C189">
-        <v>0.01690125681805592</v>
+        <v>0.01651775178853528</v>
       </c>
       <c r="D189">
-        <v>-1.670589846682569</v>
+        <v>-1.609818645198705</v>
       </c>
       <c r="E189">
-        <v>0.1142449907111367</v>
+        <v>0.1269873347421671</v>
       </c>
       <c r="F189">
-        <v>-0.06406413192851484</v>
+        <v>-0.06160665435368565</v>
       </c>
       <c r="G189">
-        <v>0.007593995855677341</v>
+        <v>0.008425484741788947</v>
       </c>
       <c r="H189">
         <v>-3</v>
@@ -6615,22 +6615,22 @@
         </is>
       </c>
       <c r="B190">
-        <v>-0.03180538743649344</v>
+        <v>-0.03093335818224009</v>
       </c>
       <c r="C190">
-        <v>0.02285091369637655</v>
+        <v>0.02193023192341959</v>
       </c>
       <c r="D190">
-        <v>-1.391865019451576</v>
+        <v>-1.410534931425232</v>
       </c>
       <c r="E190">
-        <v>0.1830108016693155</v>
+        <v>0.1775276217084423</v>
       </c>
       <c r="F190">
-        <v>-0.08024716047348962</v>
+        <v>-0.07742337304984839</v>
       </c>
       <c r="G190">
-        <v>0.01663638560050275</v>
+        <v>0.01555665668536822</v>
       </c>
       <c r="H190">
         <v>-2</v>
@@ -6648,22 +6648,22 @@
         </is>
       </c>
       <c r="B191">
-        <v>0.01102445518837301</v>
+        <v>0.01214520779406199</v>
       </c>
       <c r="C191">
-        <v>0.01423081238603378</v>
+        <v>0.01446904175491774</v>
       </c>
       <c r="D191">
-        <v>0.7746890963998992</v>
+        <v>0.8393926840341089</v>
       </c>
       <c r="E191">
-        <v>0.4467701507127331</v>
+        <v>0.4102779692623443</v>
       </c>
       <c r="F191">
-        <v>-0.01848844335341748</v>
+        <v>-0.01786174821984071</v>
       </c>
       <c r="G191">
-        <v>0.0405373537301635</v>
+        <v>0.0421521638079647</v>
       </c>
       <c r="H191">
         <v>-5</v>
@@ -6681,22 +6681,22 @@
         </is>
       </c>
       <c r="B192">
-        <v>0.003928766312268931</v>
+        <v>0.002909587541343908</v>
       </c>
       <c r="C192">
-        <v>0.01183683260476383</v>
+        <v>0.01136086390166587</v>
       </c>
       <c r="D192">
-        <v>0.3319102705471872</v>
+        <v>0.2561061875688228</v>
       </c>
       <c r="E192">
-        <v>0.7430983710746154</v>
+        <v>0.8002483894281804</v>
       </c>
       <c r="F192">
-        <v>-0.02061932203603904</v>
+        <v>-0.020651402132444</v>
       </c>
       <c r="G192">
-        <v>0.0284768546605769</v>
+        <v>0.02647057721513182</v>
       </c>
       <c r="H192">
         <v>-4</v>
@@ -6714,22 +6714,22 @@
         </is>
       </c>
       <c r="B193">
-        <v>0.02012388787263602</v>
+        <v>0.02042643633672038</v>
       </c>
       <c r="C193">
-        <v>0.01807814710773448</v>
+        <v>0.01787302816898738</v>
       </c>
       <c r="D193">
-        <v>1.113160975663612</v>
+        <v>1.142863769003821</v>
       </c>
       <c r="E193">
-        <v>0.2776546213274939</v>
+        <v>0.2653803856231033</v>
       </c>
       <c r="F193">
-        <v>-0.01736789453170157</v>
+        <v>-0.01663995542483255</v>
       </c>
       <c r="G193">
-        <v>0.05761567027697362</v>
+        <v>0.05749282809827332</v>
       </c>
       <c r="H193">
         <v>-3</v>
@@ -6747,22 +6747,22 @@
         </is>
       </c>
       <c r="B194">
-        <v>-0.001142532620648149</v>
+        <v>0.001222330179732448</v>
       </c>
       <c r="C194">
-        <v>0.01909985455037784</v>
+        <v>0.01930338129501531</v>
       </c>
       <c r="D194">
-        <v>-0.05981891734487303</v>
+        <v>0.06332207611979822</v>
       </c>
       <c r="E194">
-        <v>0.9528399298739909</v>
+        <v>0.9500818575534306</v>
       </c>
       <c r="F194">
-        <v>-0.04075320657356091</v>
+        <v>-0.03881043240748212</v>
       </c>
       <c r="G194">
-        <v>0.03846814133226462</v>
+        <v>0.04125509276694703</v>
       </c>
       <c r="H194">
         <v>-2</v>
@@ -6780,22 +6780,22 @@
         </is>
       </c>
       <c r="B195">
-        <v>-0.005889053848210421</v>
+        <v>-0.005866790131465635</v>
       </c>
       <c r="C195">
-        <v>0.007017660587609341</v>
+        <v>0.00700182930718255</v>
       </c>
       <c r="D195">
-        <v>-0.8391762147357722</v>
+        <v>-0.8378939094455531</v>
       </c>
       <c r="E195">
-        <v>0.4485955978291638</v>
+        <v>0.4492371510178128</v>
       </c>
       <c r="F195">
-        <v>-0.02537320323661784</v>
+        <v>-0.02530698483882308</v>
       </c>
       <c r="G195">
-        <v>0.013595095540197</v>
+        <v>0.01357340457589181</v>
       </c>
       <c r="H195">
         <v>-5</v>
@@ -6813,22 +6813,22 @@
         </is>
       </c>
       <c r="B196">
-        <v>0.009540109514463373</v>
+        <v>0.009688295373585051</v>
       </c>
       <c r="C196">
-        <v>0.003179382392193876</v>
+        <v>0.003087034412446142</v>
       </c>
       <c r="D196">
-        <v>3.000617207255901</v>
+        <v>3.138382693281388</v>
       </c>
       <c r="E196">
-        <v>0.03991766678591497</v>
+        <v>0.03490206537697979</v>
       </c>
       <c r="F196">
-        <v>0.0007127288341046353</v>
+        <v>0.001117313789571814</v>
       </c>
       <c r="G196">
-        <v>0.01836749019482211</v>
+        <v>0.01825927695759829</v>
       </c>
       <c r="H196">
         <v>-4</v>
@@ -6846,22 +6846,22 @@
         </is>
       </c>
       <c r="B197">
-        <v>0.005839286954570021</v>
+        <v>0.005951117970187292</v>
       </c>
       <c r="C197">
-        <v>0.00676808588181538</v>
+        <v>0.006789131091960623</v>
       </c>
       <c r="D197">
-        <v>0.8627678573434073</v>
+        <v>0.8765654823242892</v>
       </c>
       <c r="E197">
-        <v>0.4369231962591226</v>
+        <v>0.4302114072314843</v>
       </c>
       <c r="F197">
-        <v>-0.01295193196355458</v>
+        <v>-0.01289853181863293</v>
       </c>
       <c r="G197">
-        <v>0.02463050587269462</v>
+        <v>0.02480076775900752</v>
       </c>
       <c r="H197">
         <v>-3</v>
@@ -6879,22 +6879,22 @@
         </is>
       </c>
       <c r="B198">
-        <v>0.02772123462806377</v>
+        <v>0.02787216494248688</v>
       </c>
       <c r="C198">
-        <v>0.006023331181476904</v>
+        <v>0.006141071050730712</v>
       </c>
       <c r="D198">
-        <v>4.602309551450997</v>
+        <v>4.538648830511485</v>
       </c>
       <c r="E198">
-        <v>0.01001345487734132</v>
+        <v>0.01050790646947929</v>
       </c>
       <c r="F198">
-        <v>0.01099778625226698</v>
+        <v>0.01082181828301373</v>
       </c>
       <c r="G198">
-        <v>0.04444468300386056</v>
+        <v>0.04492251160196004</v>
       </c>
       <c r="H198">
         <v>-2</v>
@@ -6912,22 +6912,22 @@
         </is>
       </c>
       <c r="B199">
-        <v>-0.00207106856735338</v>
+        <v>-0.001659967340922047</v>
       </c>
       <c r="C199">
-        <v>0.006735291376297114</v>
+        <v>0.006829219578256804</v>
       </c>
       <c r="D199">
-        <v>-0.3074950216173126</v>
+        <v>-0.2430683802007378</v>
       </c>
       <c r="E199">
-        <v>0.7593076765187977</v>
+        <v>0.8086072684537171</v>
       </c>
       <c r="F199">
-        <v>-0.01548556391950026</v>
+        <v>-0.01526153692018521</v>
       </c>
       <c r="G199">
-        <v>0.0113434267847935</v>
+        <v>0.01194160223834111</v>
       </c>
       <c r="H199">
         <v>-5</v>
@@ -6945,22 +6945,22 @@
         </is>
       </c>
       <c r="B200">
-        <v>-0.006269587767296947</v>
+        <v>-0.005896427660615145</v>
       </c>
       <c r="C200">
-        <v>0.005023742919562671</v>
+        <v>0.005235342739406372</v>
       </c>
       <c r="D200">
-        <v>-1.247991361755973</v>
+        <v>-1.126273475131398</v>
       </c>
       <c r="E200">
-        <v>0.2158655781755109</v>
+        <v>0.263593614869639</v>
       </c>
       <c r="F200">
-        <v>-0.01627523893808624</v>
+        <v>-0.01632351639679288</v>
       </c>
       <c r="G200">
-        <v>0.003736063403492342</v>
+        <v>0.004530661075562588</v>
       </c>
       <c r="H200">
         <v>-4</v>
@@ -6978,22 +6978,22 @@
         </is>
       </c>
       <c r="B201">
-        <v>0.002555471378737014</v>
+        <v>0.003027820990306655</v>
       </c>
       <c r="C201">
-        <v>0.007240887322503245</v>
+        <v>0.007253189753479642</v>
       </c>
       <c r="D201">
-        <v>0.3529224064563351</v>
+        <v>0.4174468190156048</v>
       </c>
       <c r="E201">
-        <v>0.7251235782494458</v>
+        <v>0.6775285608506455</v>
       </c>
       <c r="F201">
-        <v>-0.01186600557101599</v>
+        <v>-0.01141815837425408</v>
       </c>
       <c r="G201">
-        <v>0.01697694832849002</v>
+        <v>0.01747380035486739</v>
       </c>
       <c r="H201">
         <v>-3</v>
@@ -7011,22 +7011,22 @@
         </is>
       </c>
       <c r="B202">
-        <v>-0.005808796453438433</v>
+        <v>-0.005120499215820761</v>
       </c>
       <c r="C202">
-        <v>0.005518994592607965</v>
+        <v>0.005600213234765558</v>
       </c>
       <c r="D202">
-        <v>-1.052509901208931</v>
+        <v>-0.9143400440599688</v>
       </c>
       <c r="E202">
-        <v>0.2959006048039002</v>
+        <v>0.3634299903441813</v>
       </c>
       <c r="F202">
-        <v>-0.01680082681631273</v>
+        <v>-0.01627429052367287</v>
       </c>
       <c r="G202">
-        <v>0.005183233909435863</v>
+        <v>0.006033292092031345</v>
       </c>
       <c r="H202">
         <v>-2</v>
@@ -7044,22 +7044,22 @@
         </is>
       </c>
       <c r="B203">
-        <v>-0.001951516504014714</v>
+        <v>-0.001570064086922565</v>
       </c>
       <c r="C203">
-        <v>0.002699258296488626</v>
+        <v>0.002704799410711198</v>
       </c>
       <c r="D203">
-        <v>-0.7229824972857827</v>
+        <v>-0.580473391374236</v>
       </c>
       <c r="E203">
-        <v>0.5097041351296498</v>
+        <v>0.592726618325394</v>
       </c>
       <c r="F203">
-        <v>-0.009445858988965094</v>
+        <v>-0.009079791171333548</v>
       </c>
       <c r="G203">
-        <v>0.005542825980935665</v>
+        <v>0.005939662997488418</v>
       </c>
       <c r="H203">
         <v>-5</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B204">
-        <v>-0.005699804382883242</v>
+        <v>-0.005375755922593582</v>
       </c>
       <c r="C204">
-        <v>0.00231682986282371</v>
+        <v>0.002306083360147536</v>
       </c>
       <c r="D204">
-        <v>-2.460173910196592</v>
+        <v>-2.331119514365542</v>
       </c>
       <c r="E204">
-        <v>0.06967840629648797</v>
+        <v>0.08015373795134779</v>
       </c>
       <c r="F204">
-        <v>-0.01213235531509621</v>
+        <v>-0.01177846978005329</v>
       </c>
       <c r="G204">
-        <v>0.0007327465493297226</v>
+        <v>0.001026957934866126</v>
       </c>
       <c r="H204">
         <v>-4</v>
@@ -7110,22 +7110,22 @@
         </is>
       </c>
       <c r="B205">
-        <v>-0.006318120973485324</v>
+        <v>-0.005902938667489306</v>
       </c>
       <c r="C205">
-        <v>0.00510386764908493</v>
+        <v>0.005091089075595591</v>
       </c>
       <c r="D205">
-        <v>-1.237908466262462</v>
+        <v>-1.159464817809879</v>
       </c>
       <c r="E205">
-        <v>0.2834433925924174</v>
+        <v>0.3107638332775997</v>
       </c>
       <c r="F205">
-        <v>-0.02048872932536454</v>
+        <v>-0.02003806801155264</v>
       </c>
       <c r="G205">
-        <v>0.007852487378393898</v>
+        <v>0.00823219067657403</v>
       </c>
       <c r="H205">
         <v>-3</v>
@@ -7143,22 +7143,22 @@
         </is>
       </c>
       <c r="B206">
-        <v>0.007244787983362554</v>
+        <v>0.007604624849043805</v>
       </c>
       <c r="C206">
-        <v>0.006228845713842455</v>
+        <v>0.006245088847966547</v>
       </c>
       <c r="D206">
-        <v>1.163102814902343</v>
+        <v>1.217696822923493</v>
       </c>
       <c r="E206">
-        <v>0.309444126339899</v>
+        <v>0.2902578751089862</v>
       </c>
       <c r="F206">
-        <v>-0.01004926020986759</v>
+        <v>-0.00973452151441824</v>
       </c>
       <c r="G206">
-        <v>0.02453883617659269</v>
+        <v>0.02494377121250585</v>
       </c>
       <c r="H206">
         <v>-2</v>
@@ -7176,22 +7176,22 @@
         </is>
       </c>
       <c r="B207">
-        <v>-0.002372411408901503</v>
+        <v>-0.002285631681152554</v>
       </c>
       <c r="C207">
-        <v>0.00810010799359987</v>
+        <v>0.008074227207431652</v>
       </c>
       <c r="D207">
-        <v>-0.2928863924747688</v>
+        <v>-0.2830774540316157</v>
       </c>
       <c r="E207">
-        <v>0.7746119182687075</v>
+        <v>0.7819415229079195</v>
       </c>
       <c r="F207">
-        <v>-0.02002103062704697</v>
+        <v>-0.01987786151035284</v>
       </c>
       <c r="G207">
-        <v>0.01527620780924396</v>
+        <v>0.01530659814804773</v>
       </c>
       <c r="H207">
         <v>-5</v>
@@ -7209,22 +7209,22 @@
         </is>
       </c>
       <c r="B208">
-        <v>0.001411238444016721</v>
+        <v>0.00143360116049894</v>
       </c>
       <c r="C208">
-        <v>0.006849104235626289</v>
+        <v>0.007060384908600607</v>
       </c>
       <c r="D208">
-        <v>0.2060471552872602</v>
+        <v>0.2030485843275482</v>
       </c>
       <c r="E208">
-        <v>0.8402084362612599</v>
+        <v>0.8424992585951441</v>
       </c>
       <c r="F208">
-        <v>-0.01351167773629399</v>
+        <v>-0.01394965606074895</v>
       </c>
       <c r="G208">
-        <v>0.01633415462432744</v>
+        <v>0.01681685838174683</v>
       </c>
       <c r="H208">
         <v>-4</v>
@@ -7242,22 +7242,22 @@
         </is>
       </c>
       <c r="B209">
-        <v>0.002814955576307697</v>
+        <v>0.002496634790997878</v>
       </c>
       <c r="C209">
-        <v>0.006635818352130072</v>
+        <v>0.006658979580754234</v>
       </c>
       <c r="D209">
-        <v>0.4242062435907559</v>
+        <v>0.3749275336740251</v>
       </c>
       <c r="E209">
-        <v>0.6789209606378422</v>
+        <v>0.7142567263159476</v>
       </c>
       <c r="F209">
-        <v>-0.01164325058465455</v>
+        <v>-0.01201203535204155</v>
       </c>
       <c r="G209">
-        <v>0.01727316173726995</v>
+        <v>0.0170053049340373</v>
       </c>
       <c r="H209">
         <v>-3</v>
@@ -7275,22 +7275,22 @@
         </is>
       </c>
       <c r="B210">
-        <v>0.002318489383395373</v>
+        <v>0.002357155293078254</v>
       </c>
       <c r="C210">
-        <v>0.005128030419389963</v>
+        <v>0.005087748431623898</v>
       </c>
       <c r="D210">
-        <v>0.4521208327136217</v>
+        <v>0.4633002839580065</v>
       </c>
       <c r="E210">
-        <v>0.6592458925208302</v>
+        <v>0.6514392647832814</v>
       </c>
       <c r="F210">
-        <v>-0.008854529085295297</v>
+        <v>-0.008728096263863214</v>
       </c>
       <c r="G210">
-        <v>0.01349150785208604</v>
+        <v>0.01344240685001972</v>
       </c>
       <c r="H210">
         <v>-2</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B211">
-        <v>-0.01738688974212946</v>
+        <v>-0.01856522842230171</v>
       </c>
       <c r="C211">
-        <v>0.005257888666760966</v>
+        <v>0.005095035563824613</v>
       </c>
       <c r="D211">
-        <v>-3.306819684495214</v>
+        <v>-3.643787798875663</v>
       </c>
       <c r="E211">
-        <v>0.002522112027445835</v>
+        <v>0.001042406785549667</v>
       </c>
       <c r="F211">
-        <v>-0.02814047949842259</v>
+        <v>-0.02898574618515612</v>
       </c>
       <c r="G211">
-        <v>-0.006633299985836333</v>
+        <v>-0.008144710659447297</v>
       </c>
       <c r="H211">
         <v>-5</v>
@@ -7341,22 +7341,22 @@
         </is>
       </c>
       <c r="B212">
-        <v>0.000750057815991685</v>
+        <v>-0.001071221086574196</v>
       </c>
       <c r="C212">
-        <v>0.00562078618758358</v>
+        <v>0.005503083937734568</v>
       </c>
       <c r="D212">
-        <v>0.1334435772790249</v>
+        <v>-0.1946583222597876</v>
       </c>
       <c r="E212">
-        <v>0.8947643062575699</v>
+        <v>0.8470177344109417</v>
       </c>
       <c r="F212">
-        <v>-0.01074574070694432</v>
+        <v>-0.01232629147917329</v>
       </c>
       <c r="G212">
-        <v>0.01224585633892769</v>
+        <v>0.0101838493060249</v>
       </c>
       <c r="H212">
         <v>-4</v>
@@ -7374,22 +7374,22 @@
         </is>
       </c>
       <c r="B213">
-        <v>-0.0009879376978509337</v>
+        <v>-0.00211473550586449</v>
       </c>
       <c r="C213">
-        <v>0.004636241898288</v>
+        <v>0.004497776846247349</v>
       </c>
       <c r="D213">
-        <v>-0.2130901966559907</v>
+        <v>-0.4701735053015995</v>
       </c>
       <c r="E213">
-        <v>0.8327475324655114</v>
+        <v>0.6417478511536714</v>
       </c>
       <c r="F213">
-        <v>-0.01047011705632715</v>
+        <v>-0.01131372203550772</v>
       </c>
       <c r="G213">
-        <v>0.008494241660625276</v>
+        <v>0.007084251023778737</v>
       </c>
       <c r="H213">
         <v>-3</v>
@@ -7407,22 +7407,22 @@
         </is>
       </c>
       <c r="B214">
-        <v>0.002786867822307232</v>
+        <v>0.001573381115889739</v>
       </c>
       <c r="C214">
-        <v>0.005023940713349388</v>
+        <v>0.004857471717197567</v>
       </c>
       <c r="D214">
-        <v>0.554717497939833</v>
+        <v>0.3239094754415725</v>
       </c>
       <c r="E214">
-        <v>0.5833413298444421</v>
+        <v>0.748331139561993</v>
       </c>
       <c r="F214">
-        <v>-0.007488244644952255</v>
+        <v>-0.008361264025943969</v>
       </c>
       <c r="G214">
-        <v>0.01306198028956672</v>
+        <v>0.01150802625772345</v>
       </c>
       <c r="H214">
         <v>-2</v>
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="B215">
-        <v>-0.02733345059445168</v>
+        <v>-0.02901404177642293</v>
       </c>
       <c r="C215">
-        <v>0.01790363094168098</v>
+        <v>0.01799934078872401</v>
       </c>
       <c r="D215">
-        <v>-1.526698728514191</v>
+        <v>-1.611950244011118</v>
       </c>
       <c r="E215">
-        <v>0.1324646637703592</v>
+        <v>0.1125951137163476</v>
       </c>
       <c r="F215">
-        <v>-0.06319873311205171</v>
+        <v>-0.06507105415681423</v>
       </c>
       <c r="G215">
-        <v>0.008531831923148343</v>
+        <v>0.007042970603968381</v>
       </c>
       <c r="H215">
         <v>-5</v>
@@ -7473,22 +7473,22 @@
         </is>
       </c>
       <c r="B216">
-        <v>-0.01716260409792639</v>
+        <v>-0.01851092620571796</v>
       </c>
       <c r="C216">
-        <v>0.01522928603883704</v>
+        <v>0.01533109362142401</v>
       </c>
       <c r="D216">
-        <v>-1.126947386381679</v>
+        <v>-1.207410682030562</v>
       </c>
       <c r="E216">
-        <v>0.2645705997203155</v>
+        <v>0.2323490623569359</v>
       </c>
       <c r="F216">
-        <v>-0.04767053000990616</v>
+        <v>-0.04922279721262342</v>
       </c>
       <c r="G216">
-        <v>0.01334532181405338</v>
+        <v>0.0122009448011875</v>
       </c>
       <c r="H216">
         <v>-4</v>
@@ -7506,22 +7506,22 @@
         </is>
       </c>
       <c r="B217">
-        <v>0.004875443729994619</v>
+        <v>0.003652620292012705</v>
       </c>
       <c r="C217">
-        <v>0.01538863197809453</v>
+        <v>0.01520748520079566</v>
       </c>
       <c r="D217">
-        <v>0.3168211272408576</v>
+        <v>0.240185687757342</v>
       </c>
       <c r="E217">
-        <v>0.7525574304189147</v>
+        <v>0.8110633836295096</v>
       </c>
       <c r="F217">
-        <v>-0.02595169045588883</v>
+        <v>-0.02681163329349756</v>
       </c>
       <c r="G217">
-        <v>0.03570257791587807</v>
+        <v>0.03411687387752298</v>
       </c>
       <c r="H217">
         <v>-3</v>
@@ -7539,22 +7539,22 @@
         </is>
       </c>
       <c r="B218">
-        <v>-0.01185538232287611</v>
+        <v>-0.01256659043208324</v>
       </c>
       <c r="C218">
-        <v>0.009840724448969908</v>
+        <v>0.009404935101597794</v>
       </c>
       <c r="D218">
-        <v>-1.204726581295251</v>
+        <v>-1.336169818965397</v>
       </c>
       <c r="E218">
-        <v>0.2333756634137512</v>
+        <v>0.1868981521266264</v>
       </c>
       <c r="F218">
-        <v>-0.03156872224201442</v>
+        <v>-0.03140693938572559</v>
       </c>
       <c r="G218">
-        <v>0.007857957596262198</v>
+        <v>0.006273758521559116</v>
       </c>
       <c r="H218">
         <v>-2</v>
@@ -7572,22 +7572,22 @@
         </is>
       </c>
       <c r="B219">
-        <v>0.01256613450367901</v>
+        <v>0.01203134605279356</v>
       </c>
       <c r="C219">
-        <v>0.01372551384297256</v>
+        <v>0.01381681351009327</v>
       </c>
       <c r="D219">
-        <v>0.9155310793783393</v>
+        <v>0.8707757431917706</v>
       </c>
       <c r="E219">
-        <v>0.3765831737754557</v>
+        <v>0.3996713696338834</v>
       </c>
       <c r="F219">
-        <v>-0.01708603539652508</v>
+        <v>-0.01781806478660358</v>
       </c>
       <c r="G219">
-        <v>0.04221830440388309</v>
+        <v>0.0418807568921907</v>
       </c>
       <c r="H219">
         <v>-5</v>
@@ -7605,22 +7605,22 @@
         </is>
       </c>
       <c r="B220">
-        <v>0.004967556618964822</v>
+        <v>0.004436228344590801</v>
       </c>
       <c r="C220">
-        <v>0.01013151588920056</v>
+        <v>0.01010300602505215</v>
       </c>
       <c r="D220">
-        <v>0.4903073412992291</v>
+        <v>0.4390998415313627</v>
       </c>
       <c r="E220">
-        <v>0.6320877063404352</v>
+        <v>0.6677991791495995</v>
       </c>
       <c r="F220">
-        <v>-0.01692025275051882</v>
+        <v>-0.0173899892079866</v>
       </c>
       <c r="G220">
-        <v>0.02685536598844846</v>
+        <v>0.0262624458971682</v>
       </c>
       <c r="H220">
         <v>-4</v>
@@ -7638,22 +7638,22 @@
         </is>
       </c>
       <c r="B221">
-        <v>0.006532107114314203</v>
+        <v>0.006174973083700109</v>
       </c>
       <c r="C221">
-        <v>0.006132160056265754</v>
+        <v>0.006095455547802556</v>
       </c>
       <c r="D221">
-        <v>1.065221235972109</v>
+        <v>1.013045380328665</v>
       </c>
       <c r="E221">
-        <v>0.306161138585582</v>
+        <v>0.3295229013705633</v>
       </c>
       <c r="F221">
-        <v>-0.00671561926765544</v>
+        <v>-0.006993458028634768</v>
       </c>
       <c r="G221">
-        <v>0.01977983349628384</v>
+        <v>0.01934340419603498</v>
       </c>
       <c r="H221">
         <v>-3</v>
@@ -7671,22 +7671,22 @@
         </is>
       </c>
       <c r="B222">
-        <v>-0.003319630976234343</v>
+        <v>-0.00328763457841243</v>
       </c>
       <c r="C222">
-        <v>0.008092466035541208</v>
+        <v>0.008054646051563055</v>
       </c>
       <c r="D222">
-        <v>-0.4102125312179122</v>
+        <v>-0.4081662381395944</v>
       </c>
       <c r="E222">
-        <v>0.6883301656367906</v>
+        <v>0.6897945637432052</v>
       </c>
       <c r="F222">
-        <v>-0.02080234095290728</v>
+        <v>-0.02068863944711104</v>
       </c>
       <c r="G222">
-        <v>0.01416307900043859</v>
+        <v>0.01411337029028618</v>
       </c>
       <c r="H222">
         <v>-2</v>
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="B223">
-        <v>0.005699145403199725</v>
+        <v>0.005748537721180133</v>
       </c>
       <c r="C223">
-        <v>0.00478380818653971</v>
+        <v>0.004760699543227455</v>
       </c>
       <c r="D223">
-        <v>1.19134070200296</v>
+        <v>1.207498534402989</v>
       </c>
       <c r="E223">
-        <v>0.2676628061001763</v>
+        <v>0.2617252393700489</v>
       </c>
       <c r="F223">
-        <v>-0.005332336056984387</v>
+        <v>-0.005229655111966961</v>
       </c>
       <c r="G223">
-        <v>0.01673062686338384</v>
+        <v>0.01672673055432723</v>
       </c>
       <c r="H223">
         <v>-5</v>
@@ -7737,22 +7737,22 @@
         </is>
       </c>
       <c r="B224">
-        <v>0.001656033212501227</v>
+        <v>0.001675257963494096</v>
       </c>
       <c r="C224">
-        <v>0.00327420372893965</v>
+        <v>0.003273722473887544</v>
       </c>
       <c r="D224">
-        <v>0.5057819700906433</v>
+        <v>0.5117287665208616</v>
       </c>
       <c r="E224">
-        <v>0.6266487228565266</v>
+        <v>0.6226634617977251</v>
       </c>
       <c r="F224">
-        <v>-0.005894294125934506</v>
+        <v>-0.005873959598801391</v>
       </c>
       <c r="G224">
-        <v>0.009206360550936959</v>
+        <v>0.009224475525789585</v>
       </c>
       <c r="H224">
         <v>-4</v>
@@ -7770,22 +7770,22 @@
         </is>
       </c>
       <c r="B225">
-        <v>0.0029332298191111</v>
+        <v>0.002997975675015804</v>
       </c>
       <c r="C225">
-        <v>0.003745043284825252</v>
+        <v>0.003746312208806913</v>
       </c>
       <c r="D225">
-        <v>0.7832298844172019</v>
+        <v>0.8002471518439114</v>
       </c>
       <c r="E225">
-        <v>0.4560507871062509</v>
+        <v>0.4466781532263883</v>
       </c>
       <c r="F225">
-        <v>-0.005702855482214524</v>
+        <v>-0.005641035770258789</v>
       </c>
       <c r="G225">
-        <v>0.01156931512043672</v>
+        <v>0.0116369871202904</v>
       </c>
       <c r="H225">
         <v>-3</v>
@@ -7803,22 +7803,22 @@
         </is>
       </c>
       <c r="B226">
-        <v>-0.002727609929529543</v>
+        <v>-0.002671616548095009</v>
       </c>
       <c r="C226">
-        <v>0.00354080889319908</v>
+        <v>0.003535177443266512</v>
       </c>
       <c r="D226">
-        <v>-0.7703352572256952</v>
+        <v>-0.7557234653620187</v>
       </c>
       <c r="E226">
-        <v>0.4632403513732272</v>
+        <v>0.47147819369113</v>
       </c>
       <c r="F226">
-        <v>-0.01089272987921431</v>
+        <v>-0.01082375035094808</v>
       </c>
       <c r="G226">
-        <v>0.005437510020155223</v>
+        <v>0.005480517254758057</v>
       </c>
       <c r="H226">
         <v>-2</v>
@@ -7836,22 +7836,22 @@
         </is>
       </c>
       <c r="B227">
-        <v>-0.02122129729264326</v>
+        <v>-0.02149572755588213</v>
       </c>
       <c r="C227">
-        <v>0.009821239384648718</v>
+        <v>0.009786181782183011</v>
       </c>
       <c r="D227">
-        <v>-2.160755528046045</v>
+        <v>-2.196538755801352</v>
       </c>
       <c r="E227">
-        <v>0.05899486320545147</v>
+        <v>0.05565380054742457</v>
       </c>
       <c r="F227">
-        <v>-0.04343848431418219</v>
+        <v>-0.04363360877089273</v>
       </c>
       <c r="G227">
-        <v>0.0009958897288956763</v>
+        <v>0.00064215365912847</v>
       </c>
       <c r="H227">
         <v>-5</v>
@@ -7869,22 +7869,22 @@
         </is>
       </c>
       <c r="B228">
-        <v>0.001252668059290371</v>
+        <v>0.001252920780736291</v>
       </c>
       <c r="C228">
-        <v>0.005041304451049038</v>
+        <v>0.005018039354133988</v>
       </c>
       <c r="D228">
-        <v>0.2484809381091246</v>
+        <v>0.2496833309416163</v>
       </c>
       <c r="E228">
-        <v>0.8093394111556401</v>
+        <v>0.8084377790637239</v>
       </c>
       <c r="F228">
-        <v>-0.01015155491449668</v>
+        <v>-0.01009867288742119</v>
       </c>
       <c r="G228">
-        <v>0.01265689103307743</v>
+        <v>0.01260451444889377</v>
       </c>
       <c r="H228">
         <v>-4</v>
@@ -7902,22 +7902,22 @@
         </is>
       </c>
       <c r="B229">
-        <v>-0.001110844514610673</v>
+        <v>-0.00101048013204479</v>
       </c>
       <c r="C229">
-        <v>0.00539117380767474</v>
+        <v>0.005336729858987351</v>
       </c>
       <c r="D229">
-        <v>-0.2060487296902398</v>
+        <v>-0.1893444410237639</v>
       </c>
       <c r="E229">
-        <v>0.8413384439049244</v>
+        <v>0.854024129219549</v>
       </c>
       <c r="F229">
-        <v>-0.01330652695953216</v>
+        <v>-0.01308300180847208</v>
       </c>
       <c r="G229">
-        <v>0.01108483793031081</v>
+        <v>0.0110620415443825</v>
       </c>
       <c r="H229">
         <v>-3</v>
@@ -7935,22 +7935,22 @@
         </is>
       </c>
       <c r="B230">
-        <v>-0.008749692544153087</v>
+        <v>-0.008498508797373749</v>
       </c>
       <c r="C230">
-        <v>0.006542837882217755</v>
+        <v>0.006532714152267407</v>
       </c>
       <c r="D230">
-        <v>-1.337293190151198</v>
+        <v>-1.300915454019069</v>
       </c>
       <c r="E230">
-        <v>0.2139395082346631</v>
+        <v>0.2256060282379508</v>
       </c>
       <c r="F230">
-        <v>-0.02355062012443942</v>
+        <v>-0.02327653490943866</v>
       </c>
       <c r="G230">
-        <v>0.006051235036133244</v>
+        <v>0.006279517314691169</v>
       </c>
       <c r="H230">
         <v>-2</v>
@@ -7968,22 +7968,22 @@
         </is>
       </c>
       <c r="B231">
-        <v>0.00515856563664621</v>
+        <v>0.005132161039276223</v>
       </c>
       <c r="C231">
-        <v>0.00259674889038607</v>
+        <v>0.002540262992254057</v>
       </c>
       <c r="D231">
-        <v>1.986547738884088</v>
+        <v>2.020326657092419</v>
       </c>
       <c r="E231">
-        <v>0.07823042886932857</v>
+        <v>0.0740829148473551</v>
       </c>
       <c r="F231">
-        <v>-0.0007156884657289284</v>
+        <v>-0.0006143130840424935</v>
       </c>
       <c r="G231">
-        <v>0.01103281973902135</v>
+        <v>0.01087863516259494</v>
       </c>
       <c r="H231">
         <v>-5</v>
@@ -8001,22 +8001,22 @@
         </is>
       </c>
       <c r="B232">
-        <v>-0.004705591904512484</v>
+        <v>-0.004592256559688912</v>
       </c>
       <c r="C232">
-        <v>0.003442735467991461</v>
+        <v>0.003425905788600582</v>
       </c>
       <c r="D232">
-        <v>-1.36681773788963</v>
+        <v>-1.340450334323047</v>
       </c>
       <c r="E232">
-        <v>0.2048496004343527</v>
+        <v>0.2129514511825047</v>
       </c>
       <c r="F232">
-        <v>-0.0124936006030488</v>
+        <v>-0.01234219387844355</v>
       </c>
       <c r="G232">
-        <v>0.003082416794023829</v>
+        <v>0.003157680759065727</v>
       </c>
       <c r="H232">
         <v>-4</v>
@@ -8034,22 +8034,22 @@
         </is>
       </c>
       <c r="B233">
-        <v>0.008437876638864594</v>
+        <v>0.008571881109975869</v>
       </c>
       <c r="C233">
-        <v>0.002603483874597092</v>
+        <v>0.002579995517065294</v>
       </c>
       <c r="D233">
-        <v>3.240994392627232</v>
+        <v>3.322440311728236</v>
       </c>
       <c r="E233">
-        <v>0.01014249924910388</v>
+        <v>0.008905635553172125</v>
       </c>
       <c r="F233">
-        <v>0.00254838694371516</v>
+        <v>0.002735525771059355</v>
       </c>
       <c r="G233">
-        <v>0.01432736633401403</v>
+        <v>0.01440823644889238</v>
       </c>
       <c r="H233">
         <v>-3</v>
@@ -8067,22 +8067,22 @@
         </is>
       </c>
       <c r="B234">
-        <v>0.006130972956709147</v>
+        <v>0.006385200019329525</v>
       </c>
       <c r="C234">
-        <v>0.00529664613464592</v>
+        <v>0.005247239422380052</v>
       </c>
       <c r="D234">
-        <v>1.157519834411026</v>
+        <v>1.216868434113364</v>
       </c>
       <c r="E234">
-        <v>0.2768555858934624</v>
+        <v>0.2546005995778598</v>
       </c>
       <c r="F234">
-        <v>-0.005850873035587545</v>
+        <v>-0.005484880224924625</v>
       </c>
       <c r="G234">
-        <v>0.01811281894900584</v>
+        <v>0.01825528026358367</v>
       </c>
       <c r="H234">
         <v>-2</v>
